--- a/plots and tables/Pairwise comparisons.xlsx
+++ b/plots and tables/Pairwise comparisons.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liamkendall/Dropbox/RProjects/Geonet/tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liamkendall/Dropbox/RProjects/Geonet/plots and tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95EEAFD8-2449-C945-B668-A3DC84C2D2FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6F7986-0CFF-F34F-8F92-C507D0CCB925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="420" yWindow="500" windowWidth="25440" windowHeight="14900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="generalism" sheetId="1" r:id="rId1"/>
@@ -1821,8 +1821,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2180,8 +2181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D436"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2190,13 +2191,13 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>438</v>
       </c>
     </row>
@@ -2204,6090 +2205,6090 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>1.6932199999999999</v>
-      </c>
-      <c r="C2">
-        <v>1.31403</v>
-      </c>
-      <c r="D2">
-        <v>2.0352199999999998</v>
+      <c r="B2" s="1">
+        <v>1.6805300000000001</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1.32555</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2.0308899999999999</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>1.2028700000000001</v>
-      </c>
-      <c r="C3">
-        <v>0.94225800000000004</v>
-      </c>
-      <c r="D3">
-        <v>1.5144500000000001</v>
+      <c r="B3" s="1">
+        <v>1.1895100000000001</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.89507199999999998</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1.4698500000000001</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>1.2006650000000001</v>
-      </c>
-      <c r="C4">
-        <v>0.86212599999999995</v>
-      </c>
-      <c r="D4">
-        <v>1.54261</v>
+      <c r="B4" s="1">
+        <v>1.1886399999999999</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.86090900000000004</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.5227599999999999</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>1.8371599999999999</v>
-      </c>
-      <c r="C5">
-        <v>1.4534800000000001</v>
-      </c>
-      <c r="D5">
-        <v>2.2602000000000002</v>
+      <c r="B5" s="1">
+        <v>1.8296950000000001</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.40022</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2.2186599999999999</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
-        <v>0.72374099999999997</v>
-      </c>
-      <c r="C6">
-        <v>0.30853799999999998</v>
-      </c>
-      <c r="D6">
-        <v>1.12408</v>
+      <c r="B6" s="1">
+        <v>0.71596349999999997</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.30864900000000001</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.11605</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
-        <v>0.7940315</v>
-      </c>
-      <c r="C7">
-        <v>-0.63750399999999996</v>
-      </c>
-      <c r="D7">
-        <v>2.2254900000000002</v>
+      <c r="B7" s="1">
+        <v>-0.17142099999999999</v>
+      </c>
+      <c r="C7" s="1">
+        <v>-1.6513899999999999</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1.4014200000000001</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
-        <v>1.1615335</v>
-      </c>
-      <c r="C8">
-        <v>-0.347136</v>
-      </c>
-      <c r="D8">
-        <v>2.6002010000000002</v>
+      <c r="B8" s="1">
+        <v>0.18265635</v>
+      </c>
+      <c r="C8" s="1">
+        <v>-1.35751</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1.79921</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
-        <v>1.6994113500000001</v>
-      </c>
-      <c r="C9">
-        <v>0.21432399999999999</v>
-      </c>
-      <c r="D9">
-        <v>3.0775399999999999</v>
+      <c r="B9" s="1">
+        <v>0.70818449999999999</v>
+      </c>
+      <c r="C9" s="1">
+        <v>-0.91269700000000098</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2.1784151999999999</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10">
-        <v>0.65233099999999999</v>
-      </c>
-      <c r="C10">
-        <v>-0.92974299999999999</v>
-      </c>
-      <c r="D10">
-        <v>1.993695</v>
+      <c r="B10" s="1">
+        <v>-0.30064089999999999</v>
+      </c>
+      <c r="C10" s="1">
+        <v>-1.80752</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.2777810000000001</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
-        <v>2.8314910000000002</v>
-      </c>
-      <c r="C11">
-        <v>0.90047168</v>
-      </c>
-      <c r="D11">
-        <v>4.7253100000000003</v>
+      <c r="B11" s="1">
+        <v>1.8139068</v>
+      </c>
+      <c r="C11" s="1">
+        <v>-0.24135100000000001</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3.7112590000000001</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12">
-        <v>1.412846</v>
-      </c>
-      <c r="C12">
-        <v>-9.0515799999999896E-2</v>
-      </c>
-      <c r="D12">
-        <v>2.9137019999999998</v>
+      <c r="B12" s="1">
+        <v>0.475250905</v>
+      </c>
+      <c r="C12" s="1">
+        <v>-1.15660444</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2.0288550000000001</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13">
-        <v>1.02539</v>
-      </c>
-      <c r="C13">
-        <v>0.26783899999999999</v>
-      </c>
-      <c r="D13">
-        <v>1.8533999999999999</v>
+      <c r="B13" s="1">
+        <v>0.80966249999999995</v>
+      </c>
+      <c r="C13" s="1">
+        <v>-5.6381800000000003E-2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1.6007</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B14">
-        <v>1.686412</v>
-      </c>
-      <c r="C14">
-        <v>0.88567799999999997</v>
-      </c>
-      <c r="D14">
-        <v>2.5373299999999999</v>
+      <c r="B14" s="1">
+        <v>1.5041599999999999</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.65196100000000001</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2.38876</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B15">
-        <v>1.7688189999999999</v>
-      </c>
-      <c r="C15">
-        <v>0.94265600000000005</v>
-      </c>
-      <c r="D15">
-        <v>2.5113780000000001</v>
+      <c r="B15" s="1">
+        <v>1.5968845</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.81121449999999995</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2.474294</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B16">
-        <v>2.2554216999999999</v>
-      </c>
-      <c r="C16">
-        <v>1.4026367</v>
-      </c>
-      <c r="D16">
-        <v>3.0646800000000001</v>
+      <c r="B16" s="1">
+        <v>2.0904164999999999</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1.1407255999999999</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2.934215</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B17">
-        <v>1.946825</v>
-      </c>
-      <c r="C17">
-        <v>1.089353</v>
-      </c>
-      <c r="D17">
-        <v>2.7276159999999998</v>
+      <c r="B17" s="1">
+        <v>1.7787980000000001</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.95466000000000095</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2.6483880000000002</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="B18">
-        <v>1.1598314999999999</v>
-      </c>
-      <c r="C18">
-        <v>0.36170600000000003</v>
-      </c>
-      <c r="D18">
-        <v>1.964294</v>
+      <c r="B18" s="1">
+        <v>0.97830950000000105</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.18302412000000001</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1.8494170000000001</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B19">
-        <v>1.00526</v>
-      </c>
-      <c r="C19">
-        <v>0.105258</v>
-      </c>
-      <c r="D19">
-        <v>1.8367199999999999</v>
+      <c r="B19" s="1">
+        <v>0.79942849999999999</v>
+      </c>
+      <c r="C19" s="1">
+        <v>-0.10181900000000001</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1.72756</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B20">
-        <v>1.7459610000000001</v>
-      </c>
-      <c r="C20">
-        <v>0.81405870000000002</v>
-      </c>
-      <c r="D20">
-        <v>2.7177750000000001</v>
+      <c r="B20" s="1">
+        <v>1.5335095000000001</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.45781430000000001</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2.4986820000000001</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="B21">
-        <v>1.5431505000000001</v>
-      </c>
-      <c r="C21">
-        <v>0.72826999999999997</v>
-      </c>
-      <c r="D21">
-        <v>2.4146380000000001</v>
+      <c r="B21" s="1">
+        <v>1.3089014999999999</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.39857199999999998</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2.2083300000000001</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B22">
-        <v>2.0126183000000002</v>
-      </c>
-      <c r="C22">
-        <v>0.93344700000000003</v>
-      </c>
-      <c r="D22">
-        <v>3.124171</v>
+      <c r="B22" s="1">
+        <v>1.803633</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.59951920000000003</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2.8947959999999999</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B23">
-        <v>2.22173</v>
-      </c>
-      <c r="C23">
-        <v>1.3464739999999999</v>
-      </c>
-      <c r="D23">
-        <v>3.1420189999999999</v>
+      <c r="B23" s="1">
+        <v>2.0051565</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1.0362735999999999</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2.947308</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>24</v>
       </c>
-      <c r="B24">
-        <v>1.1444734999999999</v>
-      </c>
-      <c r="C24">
-        <v>0.26627319999999999</v>
-      </c>
-      <c r="D24">
-        <v>1.9639899999999999</v>
+      <c r="B24" s="1">
+        <v>0.94482699999999997</v>
+      </c>
+      <c r="C24" s="1">
+        <v>-6.8929999999998203E-3</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1.794338</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="B25">
-        <v>1.196655</v>
-      </c>
-      <c r="C25">
-        <v>2.6695199999999999E-2</v>
-      </c>
-      <c r="D25">
-        <v>2.3135699999999999</v>
+      <c r="B25" s="1">
+        <v>0.98829</v>
+      </c>
+      <c r="C25" s="1">
+        <v>-0.25136599999999998</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2.2364899999999999</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>26</v>
       </c>
-      <c r="B26">
-        <v>1.8512710000000001</v>
-      </c>
-      <c r="C26">
-        <v>0.22968939999999999</v>
-      </c>
-      <c r="D26">
-        <v>3.5739269999999999</v>
+      <c r="B26" s="1">
+        <v>1.6079825000000001</v>
+      </c>
+      <c r="C26" s="1">
+        <v>-0.20607300000000001</v>
+      </c>
+      <c r="D26" s="1">
+        <v>3.2865250000000001</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>27</v>
       </c>
-      <c r="B27">
-        <v>1.7939335000000001</v>
-      </c>
-      <c r="C27">
-        <v>0.67190700000000003</v>
-      </c>
-      <c r="D27">
-        <v>2.9225240000000001</v>
+      <c r="B27" s="1">
+        <v>1.5449615000000001</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.28199299999999999</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2.7481420000000001</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>28</v>
       </c>
-      <c r="B28">
-        <v>2.1953406499999999</v>
-      </c>
-      <c r="C28">
-        <v>0.93071400000000004</v>
-      </c>
-      <c r="D28">
-        <v>3.3889860000000001</v>
+      <c r="B28" s="1">
+        <v>1.96156402</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.6491633</v>
+      </c>
+      <c r="D28" s="1">
+        <v>3.3364660000000002</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>29</v>
       </c>
-      <c r="B29">
-        <v>1.6668985000000001</v>
-      </c>
-      <c r="C29">
-        <v>0.50616399999999995</v>
-      </c>
-      <c r="D29">
-        <v>2.9257300000000002</v>
+      <c r="B29" s="1">
+        <v>1.348903</v>
+      </c>
+      <c r="C29" s="1">
+        <v>2.0721E-2</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2.57917</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>30</v>
       </c>
-      <c r="B30">
-        <v>0.54881449999999998</v>
-      </c>
-      <c r="C30">
-        <v>-0.63558769999999998</v>
-      </c>
-      <c r="D30">
-        <v>1.7881530000000001</v>
+      <c r="B30" s="1">
+        <v>0.25635200000000002</v>
+      </c>
+      <c r="C30" s="1">
+        <v>-1.0044040000000001</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1.5606</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>31</v>
       </c>
-      <c r="B31">
-        <v>-0.49177500000000002</v>
-      </c>
-      <c r="C31">
-        <v>-0.81484000000000001</v>
-      </c>
-      <c r="D31">
-        <v>-0.15051999999999999</v>
+      <c r="B31" s="1">
+        <v>-0.49590000000000101</v>
+      </c>
+      <c r="C31" s="1">
+        <v>-0.80821000000000098</v>
+      </c>
+      <c r="D31" s="1">
+        <v>-0.16600000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>32</v>
       </c>
-      <c r="B32">
-        <v>-0.49409999999999998</v>
-      </c>
-      <c r="C32">
-        <v>-0.89365300000000003</v>
-      </c>
-      <c r="D32">
-        <v>-0.10516</v>
+      <c r="B32" s="1">
+        <v>-0.49565500000000001</v>
+      </c>
+      <c r="C32" s="1">
+        <v>-0.91824300000000003</v>
+      </c>
+      <c r="D32" s="1">
+        <v>-0.11853</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>33</v>
       </c>
-      <c r="B33">
-        <v>0.15143000000000001</v>
-      </c>
-      <c r="C33">
-        <v>-0.31611</v>
-      </c>
-      <c r="D33">
-        <v>0.58643000000000001</v>
+      <c r="B33" s="1">
+        <v>0.14835999999999999</v>
+      </c>
+      <c r="C33" s="1">
+        <v>-0.27828999999999898</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.60816000000000103</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>34</v>
       </c>
-      <c r="B34">
-        <v>-0.97079349999999998</v>
-      </c>
-      <c r="C34">
-        <v>-1.399734</v>
-      </c>
-      <c r="D34">
-        <v>-0.51386699999999996</v>
+      <c r="B34" s="1">
+        <v>-0.96518349999999997</v>
+      </c>
+      <c r="C34" s="1">
+        <v>-1.4023890000000001</v>
+      </c>
+      <c r="D34" s="1">
+        <v>-0.52463199999999999</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>35</v>
       </c>
-      <c r="B35">
-        <v>-0.90467399999999998</v>
-      </c>
-      <c r="C35">
-        <v>-2.369993</v>
-      </c>
-      <c r="D35">
-        <v>0.52859</v>
+      <c r="B35" s="1">
+        <v>-1.8402031999999999</v>
+      </c>
+      <c r="C35" s="1">
+        <v>-3.4854799999999999</v>
+      </c>
+      <c r="D35" s="1">
+        <v>-0.37298900000000001</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>36</v>
       </c>
-      <c r="B36">
-        <v>-0.53206249999999999</v>
-      </c>
-      <c r="C36">
-        <v>-2.1137480000000002</v>
-      </c>
-      <c r="D36">
-        <v>0.86185</v>
+      <c r="B36" s="1">
+        <v>-1.4766980000000001</v>
+      </c>
+      <c r="C36" s="1">
+        <v>-3.0668299999999999</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.1235</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>37</v>
       </c>
-      <c r="B37">
-        <v>7.0405000000000701E-3</v>
-      </c>
-      <c r="C37">
-        <v>-1.528122</v>
-      </c>
-      <c r="D37">
-        <v>1.3791572000000001</v>
+      <c r="B37" s="1">
+        <v>-0.96439381000000102</v>
+      </c>
+      <c r="C37" s="1">
+        <v>-2.5411239999999999</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0.599934999999999</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>38</v>
       </c>
-      <c r="B38">
-        <v>-1.0397105</v>
-      </c>
-      <c r="C38">
-        <v>-2.538446</v>
-      </c>
-      <c r="D38">
-        <v>0.40948699999999999</v>
+      <c r="B38" s="1">
+        <v>-1.9813799999999999</v>
+      </c>
+      <c r="C38" s="1">
+        <v>-3.5571109999999999</v>
+      </c>
+      <c r="D38" s="1">
+        <v>-0.42067100000000002</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>39</v>
       </c>
-      <c r="B39">
-        <v>1.1467620000000001</v>
-      </c>
-      <c r="C39">
-        <v>-0.77553799999999995</v>
-      </c>
-      <c r="D39">
-        <v>3.0392600000000001</v>
+      <c r="B39" s="1">
+        <v>0.12502849999999999</v>
+      </c>
+      <c r="C39" s="1">
+        <v>-1.875475</v>
+      </c>
+      <c r="D39" s="1">
+        <v>2.1462490000000001</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>40</v>
       </c>
-      <c r="B40">
-        <v>-0.29833799999999999</v>
-      </c>
-      <c r="C40">
-        <v>-1.7631239999999999</v>
-      </c>
-      <c r="D40">
-        <v>1.2655223120000001</v>
+      <c r="B40" s="1">
+        <v>-1.20531973</v>
+      </c>
+      <c r="C40" s="1">
+        <v>-2.7933919999999999</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.46131699999999998</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>41</v>
       </c>
-      <c r="B41">
-        <v>-0.67456000000000005</v>
-      </c>
-      <c r="C41">
-        <v>-1.443152</v>
-      </c>
-      <c r="D41">
-        <v>0.21934999999999999</v>
+      <c r="B41" s="1">
+        <v>-0.87945949999999995</v>
+      </c>
+      <c r="C41" s="1">
+        <v>-1.7273628000000001</v>
+      </c>
+      <c r="D41" s="1">
+        <v>7.1700000000003402E-3</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>42</v>
       </c>
-      <c r="B42">
-        <v>9.4099999999996996E-4</v>
-      </c>
-      <c r="C42">
-        <v>-0.83971200000000001</v>
-      </c>
-      <c r="D42">
-        <v>0.87921400000000005</v>
+      <c r="B42" s="1">
+        <v>-0.179005</v>
+      </c>
+      <c r="C42" s="1">
+        <v>-1.097305</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0.70674099999999895</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>43</v>
       </c>
-      <c r="B43">
-        <v>7.6850500000000002E-2</v>
-      </c>
-      <c r="C43">
-        <v>-0.74702000000000002</v>
-      </c>
-      <c r="D43">
-        <v>0.91993000000000003</v>
+      <c r="B43" s="1">
+        <v>-8.2354999999999706E-2</v>
+      </c>
+      <c r="C43" s="1">
+        <v>-0.92690399999999995</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0.82907399999999998</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>44</v>
       </c>
-      <c r="B44">
-        <v>0.56046580000000001</v>
-      </c>
-      <c r="C44">
-        <v>-0.33685130000000002</v>
-      </c>
-      <c r="D44">
-        <v>1.393904</v>
+      <c r="B44" s="1">
+        <v>0.40306999999999998</v>
+      </c>
+      <c r="C44" s="1">
+        <v>-0.54635599999999995</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1.3090120000000001</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>45</v>
       </c>
-      <c r="B45">
-        <v>0.25631999999999999</v>
-      </c>
-      <c r="C45">
-        <v>-0.55388999999999999</v>
-      </c>
-      <c r="D45">
-        <v>1.1585570000000001</v>
+      <c r="B45" s="1">
+        <v>0.10302600000000001</v>
+      </c>
+      <c r="C45" s="1">
+        <v>-0.83275199999999905</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0.93644799999999995</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>46</v>
       </c>
-      <c r="B46">
-        <v>-0.53991549999999999</v>
-      </c>
-      <c r="C46">
-        <v>-1.4089419999999999</v>
-      </c>
-      <c r="D46">
-        <v>0.27950599999999998</v>
+      <c r="B46" s="1">
+        <v>-0.70588249999999997</v>
+      </c>
+      <c r="C46" s="1">
+        <v>-1.62016</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0.118538</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>47</v>
       </c>
-      <c r="B47">
-        <v>-0.69552449999999999</v>
-      </c>
-      <c r="C47">
-        <v>-1.5946389999999999</v>
-      </c>
-      <c r="D47">
-        <v>0.21654999999999999</v>
+      <c r="B47" s="1">
+        <v>-0.88254450000000095</v>
+      </c>
+      <c r="C47" s="1">
+        <v>-1.8741151</v>
+      </c>
+      <c r="D47" s="1">
+        <v>1.1609999999999201E-2</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>48</v>
       </c>
-      <c r="B48">
-        <v>5.97979999999999E-2</v>
-      </c>
-      <c r="C48">
-        <v>-0.9534224</v>
-      </c>
-      <c r="D48">
-        <v>1.023933</v>
+      <c r="B48" s="1">
+        <v>-0.14727750000000001</v>
+      </c>
+      <c r="C48" s="1">
+        <v>-1.2402201399999999</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0.85996500000000098</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>49</v>
       </c>
-      <c r="B49">
-        <v>-0.152946</v>
-      </c>
-      <c r="C49">
-        <v>-1.031396</v>
-      </c>
-      <c r="D49">
-        <v>0.76473199999999997</v>
+      <c r="B49" s="1">
+        <v>-0.37295250000000002</v>
+      </c>
+      <c r="C49" s="1">
+        <v>-1.3459620000000001</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0.53103299999999998</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>50</v>
       </c>
-      <c r="B50">
-        <v>0.33186900000000003</v>
-      </c>
-      <c r="C50">
-        <v>-0.76168899999999995</v>
-      </c>
-      <c r="D50">
-        <v>1.4920880000000001</v>
+      <c r="B50" s="1">
+        <v>0.114438999999999</v>
+      </c>
+      <c r="C50" s="1">
+        <v>-1.002637</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1.3184359999999999</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>51</v>
       </c>
-      <c r="B51">
-        <v>0.53153950000000005</v>
-      </c>
-      <c r="C51">
-        <v>-0.37586700000000001</v>
-      </c>
-      <c r="D51">
-        <v>1.488362</v>
+      <c r="B51" s="1">
+        <v>0.32715949999999999</v>
+      </c>
+      <c r="C51" s="1">
+        <v>-0.70007900000000101</v>
+      </c>
+      <c r="D51" s="1">
+        <v>1.2513609999999999</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>52</v>
       </c>
-      <c r="B52">
-        <v>-0.53949100000000005</v>
-      </c>
-      <c r="C52">
-        <v>-1.4377530000000001</v>
-      </c>
-      <c r="D52">
-        <v>0.32978000000000002</v>
+      <c r="B52" s="1">
+        <v>-0.73668049999999996</v>
+      </c>
+      <c r="C52" s="1">
+        <v>-1.650067</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0.22839699999999999</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>53</v>
       </c>
-      <c r="B53">
-        <v>-0.49255500000000002</v>
-      </c>
-      <c r="C53">
-        <v>-1.644145</v>
-      </c>
-      <c r="D53">
-        <v>0.68310999999999999</v>
+      <c r="B53" s="1">
+        <v>-0.70238400000000001</v>
+      </c>
+      <c r="C53" s="1">
+        <v>-1.9621980000000001</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0.56911999999999996</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>54</v>
       </c>
-      <c r="B54">
-        <v>0.15887599999999999</v>
-      </c>
-      <c r="C54">
-        <v>-1.6420699999999999</v>
-      </c>
-      <c r="D54">
-        <v>1.743482</v>
+      <c r="B54" s="1">
+        <v>-7.3485999999999899E-2</v>
+      </c>
+      <c r="C54" s="1">
+        <v>-1.730631</v>
+      </c>
+      <c r="D54" s="1">
+        <v>1.7068099999999999</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>55</v>
       </c>
-      <c r="B55">
-        <v>9.3570499999999904E-2</v>
-      </c>
-      <c r="C55">
-        <v>-1.062921</v>
-      </c>
-      <c r="D55">
-        <v>1.230917</v>
+      <c r="B55" s="1">
+        <v>-0.13861299999999999</v>
+      </c>
+      <c r="C55" s="1">
+        <v>-1.45397</v>
+      </c>
+      <c r="D55" s="1">
+        <v>1.065321</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>56</v>
       </c>
-      <c r="B56">
-        <v>0.50182150000000003</v>
-      </c>
-      <c r="C56">
-        <v>-0.73266900000000001</v>
-      </c>
-      <c r="D56">
-        <v>1.755881</v>
+      <c r="B56" s="1">
+        <v>0.27398349999999999</v>
+      </c>
+      <c r="C56" s="1">
+        <v>-1.0700567000000001</v>
+      </c>
+      <c r="D56" s="1">
+        <v>1.62738</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>57</v>
       </c>
-      <c r="B57">
-        <v>-2.1595000000000301E-2</v>
-      </c>
-      <c r="C57">
-        <v>-1.2960529999999999</v>
-      </c>
-      <c r="D57">
-        <v>1.168302</v>
+      <c r="B57" s="1">
+        <v>-0.336065</v>
+      </c>
+      <c r="C57" s="1">
+        <v>-1.5810470000000001</v>
+      </c>
+      <c r="D57" s="1">
+        <v>1.0108699999999999</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>58</v>
       </c>
-      <c r="B58">
-        <v>-1.1478870000000001</v>
-      </c>
-      <c r="C58">
-        <v>-2.3388450000000001</v>
-      </c>
-      <c r="D58">
-        <v>0.101683</v>
+      <c r="B58" s="1">
+        <v>-1.4287955000000001</v>
+      </c>
+      <c r="C58" s="1">
+        <v>-2.7110590000000001</v>
+      </c>
+      <c r="D58" s="1">
+        <v>-0.12180400000000099</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>59</v>
       </c>
-      <c r="B59">
-        <v>-2.3200000000001002E-3</v>
-      </c>
-      <c r="C59">
-        <v>-0.36549999999999999</v>
-      </c>
-      <c r="D59">
-        <v>0.30129</v>
+      <c r="B59" s="1">
+        <v>-1.7850000000003701E-3</v>
+      </c>
+      <c r="C59" s="1">
+        <v>-0.34753000000000001</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0.33863099999999902</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>60</v>
       </c>
-      <c r="B60">
-        <v>0.64124999999999999</v>
-      </c>
-      <c r="C60">
-        <v>0.23802999999999999</v>
-      </c>
-      <c r="D60">
-        <v>1.0061199999999999</v>
+      <c r="B60" s="1">
+        <v>0.63913500000000001</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0.24043</v>
+      </c>
+      <c r="D60" s="1">
+        <v>1.0126200000000001</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>61</v>
       </c>
-      <c r="B61">
-        <v>-0.47576449999999998</v>
-      </c>
-      <c r="C61">
-        <v>-0.84400399999999998</v>
-      </c>
-      <c r="D61">
-        <v>-6.7296999999999899E-2</v>
+      <c r="B61" s="1">
+        <v>-0.47002100000000002</v>
+      </c>
+      <c r="C61" s="1">
+        <v>-0.87072099999999997</v>
+      </c>
+      <c r="D61" s="1">
+        <v>-8.5809999999999498E-2</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>62</v>
       </c>
-      <c r="B62">
-        <v>-0.41704150000000001</v>
-      </c>
-      <c r="C62">
-        <v>-1.8883220000000001</v>
-      </c>
-      <c r="D62">
-        <v>0.95781000000000005</v>
+      <c r="B62" s="1">
+        <v>-1.3591205</v>
+      </c>
+      <c r="C62" s="1">
+        <v>-2.83161</v>
+      </c>
+      <c r="D62" s="1">
+        <v>0.20946999999999999</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>63</v>
       </c>
-      <c r="B63">
-        <v>-4.6242999999999798E-2</v>
-      </c>
-      <c r="C63">
-        <v>-1.523649</v>
-      </c>
-      <c r="D63">
-        <v>1.4122600000000001</v>
+      <c r="B63" s="1">
+        <v>-0.99538899999999997</v>
+      </c>
+      <c r="C63" s="1">
+        <v>-2.6055100000000002</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0.54547999999999996</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>64</v>
       </c>
-      <c r="B64">
-        <v>0.49792724999999999</v>
-      </c>
-      <c r="C64">
-        <v>-0.92438399999999998</v>
-      </c>
-      <c r="D64">
-        <v>1.9649329</v>
+      <c r="B64" s="1">
+        <v>-0.47737659999999899</v>
+      </c>
+      <c r="C64" s="1">
+        <v>-2.0035820000000002</v>
+      </c>
+      <c r="D64" s="1">
+        <v>1.0500719999999999</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>65</v>
       </c>
-      <c r="B65">
-        <v>-0.53757699999999997</v>
-      </c>
-      <c r="C65">
-        <v>-1.985576</v>
-      </c>
-      <c r="D65">
-        <v>0.90980000000000005</v>
+      <c r="B65" s="1">
+        <v>-1.4994974999999999</v>
+      </c>
+      <c r="C65" s="1">
+        <v>-3.0618799999999999</v>
+      </c>
+      <c r="D65" s="1">
+        <v>1.56900000000002E-2</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>66</v>
       </c>
-      <c r="B66">
-        <v>1.635747815</v>
-      </c>
-      <c r="C66">
-        <v>-0.31647599999999998</v>
-      </c>
-      <c r="D66">
-        <v>3.460474</v>
+      <c r="B66" s="1">
+        <v>0.62264350000000002</v>
+      </c>
+      <c r="C66" s="1">
+        <v>-1.276958</v>
+      </c>
+      <c r="D66" s="1">
+        <v>2.6895519999999999</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>67</v>
       </c>
-      <c r="B67">
-        <v>0.203208</v>
-      </c>
-      <c r="C67">
-        <v>-1.33615726</v>
-      </c>
-      <c r="D67">
-        <v>1.67000098</v>
+      <c r="B67" s="1">
+        <v>-0.70248678499999995</v>
+      </c>
+      <c r="C67" s="1">
+        <v>-2.2770600000000001</v>
+      </c>
+      <c r="D67" s="1">
+        <v>0.91708990000000001</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>68</v>
       </c>
-      <c r="B68">
-        <v>-0.1758815</v>
-      </c>
-      <c r="C68">
-        <v>-0.93827899999999997</v>
-      </c>
-      <c r="D68">
-        <v>0.67252000000000001</v>
+      <c r="B68" s="1">
+        <v>-0.38149050000000001</v>
+      </c>
+      <c r="C68" s="1">
+        <v>-1.2053259000000001</v>
+      </c>
+      <c r="D68" s="1">
+        <v>0.46372999999999998</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>69</v>
       </c>
-      <c r="B69">
-        <v>0.489477</v>
-      </c>
-      <c r="C69">
-        <v>-0.32877200000000001</v>
-      </c>
-      <c r="D69">
-        <v>1.3460399999999999</v>
+      <c r="B69" s="1">
+        <v>0.32153700000000002</v>
+      </c>
+      <c r="C69" s="1">
+        <v>-0.60294979999999898</v>
+      </c>
+      <c r="D69" s="1">
+        <v>1.1181430000000001</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>70</v>
       </c>
-      <c r="B70">
-        <v>0.56995150000000006</v>
-      </c>
-      <c r="C70">
-        <v>-0.20729300000000001</v>
-      </c>
-      <c r="D70">
-        <v>1.390414</v>
+      <c r="B70" s="1">
+        <v>0.411854</v>
+      </c>
+      <c r="C70" s="1">
+        <v>-0.41900359999999998</v>
+      </c>
+      <c r="D70" s="1">
+        <v>1.2334609999999999</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>71</v>
       </c>
-      <c r="B71">
-        <v>1.05404115</v>
-      </c>
-      <c r="C71">
-        <v>0.17100299999999999</v>
-      </c>
-      <c r="D71">
-        <v>1.8755869999999999</v>
+      <c r="B71" s="1">
+        <v>0.89441999999999999</v>
+      </c>
+      <c r="C71" s="1">
+        <v>-1.30179999999989E-2</v>
+      </c>
+      <c r="D71" s="1">
+        <v>1.7590332</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>72</v>
       </c>
-      <c r="B72">
-        <v>0.75112000000000001</v>
-      </c>
-      <c r="C72">
-        <v>-0.11186599999999999</v>
-      </c>
-      <c r="D72">
-        <v>1.541944</v>
+      <c r="B72" s="1">
+        <v>0.59459399999999996</v>
+      </c>
+      <c r="C72" s="1">
+        <v>-0.25830779999999998</v>
+      </c>
+      <c r="D72" s="1">
+        <v>1.42642</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>73</v>
       </c>
-      <c r="B73">
-        <v>-3.99614999999999E-2</v>
-      </c>
-      <c r="C73">
-        <v>-0.84954600000000002</v>
-      </c>
-      <c r="D73">
-        <v>0.79088599999999998</v>
+      <c r="B73" s="1">
+        <v>-0.21261949999999999</v>
+      </c>
+      <c r="C73" s="1">
+        <v>-1.0590615999999999</v>
+      </c>
+      <c r="D73" s="1">
+        <v>0.58655299999999999</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>74</v>
       </c>
-      <c r="B74">
-        <v>-0.196965</v>
-      </c>
-      <c r="C74">
-        <v>-1.083178</v>
-      </c>
-      <c r="D74">
-        <v>0.67257</v>
+      <c r="B74" s="1">
+        <v>-0.38779400000000003</v>
+      </c>
+      <c r="C74" s="1">
+        <v>-1.3388089999999999</v>
+      </c>
+      <c r="D74" s="1">
+        <v>0.47256999999999999</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>75</v>
       </c>
-      <c r="B75">
-        <v>0.54603800000000002</v>
-      </c>
-      <c r="C75">
-        <v>-0.39283899999999999</v>
-      </c>
-      <c r="D75">
-        <v>1.5471649999999999</v>
+      <c r="B75" s="1">
+        <v>0.34669100000000003</v>
+      </c>
+      <c r="C75" s="1">
+        <v>-0.74381900000000001</v>
+      </c>
+      <c r="D75" s="1">
+        <v>1.3161799999999999</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>76</v>
       </c>
-      <c r="B76">
-        <v>0.3383485</v>
-      </c>
-      <c r="C76">
-        <v>-0.46995399999999998</v>
-      </c>
-      <c r="D76">
-        <v>1.2427619999999999</v>
+      <c r="B76" s="1">
+        <v>0.13102750000000099</v>
+      </c>
+      <c r="C76" s="1">
+        <v>-0.75613300000000006</v>
+      </c>
+      <c r="D76" s="1">
+        <v>1.0644020000000001</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>77</v>
       </c>
-      <c r="B77">
-        <v>0.81474705000000003</v>
-      </c>
-      <c r="C77">
-        <v>-0.21854770000000001</v>
-      </c>
-      <c r="D77">
-        <v>1.9829410000000001</v>
+      <c r="B77" s="1">
+        <v>0.62043550000000003</v>
+      </c>
+      <c r="C77" s="1">
+        <v>-0.456868</v>
+      </c>
+      <c r="D77" s="1">
+        <v>1.7730939999999999</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>78</v>
       </c>
-      <c r="B78">
-        <v>1.0215639999999999</v>
-      </c>
-      <c r="C78">
-        <v>0.163554</v>
-      </c>
-      <c r="D78">
-        <v>1.9410293000000001</v>
+      <c r="B78" s="1">
+        <v>0.81454950000000004</v>
+      </c>
+      <c r="C78" s="1">
+        <v>-0.14821000000000101</v>
+      </c>
+      <c r="D78" s="1">
+        <v>1.761628</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>79</v>
       </c>
-      <c r="B79">
-        <v>-5.4793499999999898E-2</v>
-      </c>
-      <c r="C79">
-        <v>-0.88571200000000005</v>
-      </c>
-      <c r="D79">
-        <v>0.79719200000000001</v>
+      <c r="B79" s="1">
+        <v>-0.2334755</v>
+      </c>
+      <c r="C79" s="1">
+        <v>-1.1960182100000001</v>
+      </c>
+      <c r="D79" s="1">
+        <v>0.63494499999999998</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>80</v>
       </c>
-      <c r="B80">
-        <v>-7.1700000000001199E-3</v>
-      </c>
-      <c r="C80">
-        <v>-1.143491</v>
-      </c>
-      <c r="D80">
-        <v>1.1428100000000001</v>
+      <c r="B80" s="1">
+        <v>-0.20068449999999999</v>
+      </c>
+      <c r="C80" s="1">
+        <v>-1.4302779999999999</v>
+      </c>
+      <c r="D80" s="1">
+        <v>1.0035879999999999</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>81</v>
       </c>
-      <c r="B81">
-        <v>0.64477700000000004</v>
-      </c>
-      <c r="C81">
-        <v>-1.1103099999999999</v>
-      </c>
-      <c r="D81">
-        <v>2.2675779999999999</v>
+      <c r="B81" s="1">
+        <v>0.41939704999999999</v>
+      </c>
+      <c r="C81" s="1">
+        <v>-1.330395</v>
+      </c>
+      <c r="D81" s="1">
+        <v>2.1061999999999999</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>82</v>
       </c>
-      <c r="B82">
-        <v>0.58722399999999997</v>
-      </c>
-      <c r="C82">
-        <v>-0.603653</v>
-      </c>
-      <c r="D82">
-        <v>1.6692100000000001</v>
+      <c r="B82" s="1">
+        <v>0.36798299999999901</v>
+      </c>
+      <c r="C82" s="1">
+        <v>-0.87264600000000003</v>
+      </c>
+      <c r="D82" s="1">
+        <v>1.6117319999999999</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>83</v>
       </c>
-      <c r="B83">
-        <v>0.99354399999999998</v>
-      </c>
-      <c r="C83">
-        <v>-0.27638699999999999</v>
-      </c>
-      <c r="D83">
-        <v>2.2087729999999999</v>
+      <c r="B83" s="1">
+        <v>0.77235435000000097</v>
+      </c>
+      <c r="C83" s="1">
+        <v>-0.63029100000000005</v>
+      </c>
+      <c r="D83" s="1">
+        <v>2.0396570999999999</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>84</v>
       </c>
-      <c r="B84">
-        <v>0.47189049999999999</v>
-      </c>
-      <c r="C84">
-        <v>-0.67729200000000001</v>
-      </c>
-      <c r="D84">
-        <v>1.73366</v>
+      <c r="B84" s="1">
+        <v>0.15971150000000001</v>
+      </c>
+      <c r="C84" s="1">
+        <v>-1.0845883999999999</v>
+      </c>
+      <c r="D84" s="1">
+        <v>1.4435</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>85</v>
       </c>
-      <c r="B85">
-        <v>-0.65201399999999998</v>
-      </c>
-      <c r="C85">
-        <v>-1.845512</v>
-      </c>
-      <c r="D85">
-        <v>0.59333499999999995</v>
+      <c r="B85" s="1">
+        <v>-0.92362900000000003</v>
+      </c>
+      <c r="C85" s="1">
+        <v>-2.2612139999999998</v>
+      </c>
+      <c r="D85" s="1">
+        <v>0.29091299999999998</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>86</v>
       </c>
-      <c r="B86">
-        <v>0.64310500000000004</v>
-      </c>
-      <c r="C86">
-        <v>0.20801</v>
-      </c>
-      <c r="D86">
-        <v>1.093275</v>
+      <c r="B86" s="1">
+        <v>0.64039999999999997</v>
+      </c>
+      <c r="C86" s="1">
+        <v>0.21525</v>
+      </c>
+      <c r="D86" s="1">
+        <v>1.1118699999999999</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>87</v>
       </c>
-      <c r="B87">
-        <v>-0.46784150000000002</v>
-      </c>
-      <c r="C87">
-        <v>-0.91116200000000003</v>
-      </c>
-      <c r="D87">
-        <v>-2.4677000000000102E-2</v>
+      <c r="B87" s="1">
+        <v>-0.47211350000000002</v>
+      </c>
+      <c r="C87" s="1">
+        <v>-0.93205000000000005</v>
+      </c>
+      <c r="D87" s="1">
+        <v>-2.7110000000000401E-2</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>88</v>
       </c>
-      <c r="B88">
-        <v>-0.40354950000000001</v>
-      </c>
-      <c r="C88">
-        <v>-1.9122060000000001</v>
-      </c>
-      <c r="D88">
-        <v>0.95806000000000002</v>
+      <c r="B88" s="1">
+        <v>-1.3501244999999999</v>
+      </c>
+      <c r="C88" s="1">
+        <v>-2.88632</v>
+      </c>
+      <c r="D88" s="1">
+        <v>0.16683999999999999</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>89</v>
       </c>
-      <c r="B89">
-        <v>-3.3930000000000002E-2</v>
-      </c>
-      <c r="C89">
-        <v>-1.5351589999999999</v>
-      </c>
-      <c r="D89">
-        <v>1.41692</v>
+      <c r="B89" s="1">
+        <v>-1.0019035000000001</v>
+      </c>
+      <c r="C89" s="1">
+        <v>-2.4949599999999998</v>
+      </c>
+      <c r="D89" s="1">
+        <v>0.67612999999999901</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>90</v>
       </c>
-      <c r="B90">
-        <v>0.499948375</v>
-      </c>
-      <c r="C90">
-        <v>-0.94216200000000005</v>
-      </c>
-      <c r="D90">
-        <v>1.952917</v>
+      <c r="B90" s="1">
+        <v>-0.473849505</v>
+      </c>
+      <c r="C90" s="1">
+        <v>-2.0194380000000001</v>
+      </c>
+      <c r="D90" s="1">
+        <v>1.0534817999999999</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>91</v>
       </c>
-      <c r="B91">
-        <v>-0.54072100000000001</v>
-      </c>
-      <c r="C91">
-        <v>-2.064486</v>
-      </c>
-      <c r="D91">
-        <v>0.87072000000000005</v>
+      <c r="B91" s="1">
+        <v>-1.4924795</v>
+      </c>
+      <c r="C91" s="1">
+        <v>-3.0078800000000001</v>
+      </c>
+      <c r="D91" s="1">
+        <v>6.2399999999999303E-2</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>92</v>
       </c>
-      <c r="B92">
-        <v>1.6459144999999999</v>
-      </c>
-      <c r="C92">
-        <v>-0.13948099999999999</v>
-      </c>
-      <c r="D92">
-        <v>3.69441</v>
+      <c r="B92" s="1">
+        <v>0.62548649999999995</v>
+      </c>
+      <c r="C92" s="1">
+        <v>-1.4526889999999999</v>
+      </c>
+      <c r="D92" s="1">
+        <v>2.5033189999999998</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>93</v>
       </c>
-      <c r="B93">
-        <v>0.20651865</v>
-      </c>
-      <c r="C93">
-        <v>-1.3559650000000001</v>
-      </c>
-      <c r="D93">
-        <v>1.7260310000000001</v>
+      <c r="B93" s="1">
+        <v>-0.71235250000000006</v>
+      </c>
+      <c r="C93" s="1">
+        <v>-2.3182562999999998</v>
+      </c>
+      <c r="D93" s="1">
+        <v>0.89802141999999996</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>94</v>
       </c>
-      <c r="B94">
-        <v>-0.17067350000000001</v>
-      </c>
-      <c r="C94">
-        <v>-0.96184800000000004</v>
-      </c>
-      <c r="D94">
-        <v>0.68694999999999995</v>
+      <c r="B94" s="1">
+        <v>-0.37814599999999998</v>
+      </c>
+      <c r="C94" s="1">
+        <v>-1.229069</v>
+      </c>
+      <c r="D94" s="1">
+        <v>0.43762000000000001</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>95</v>
       </c>
-      <c r="B95">
-        <v>0.49465300000000001</v>
-      </c>
-      <c r="C95">
-        <v>-0.3525548</v>
-      </c>
-      <c r="D95">
-        <v>1.3352999999999999</v>
+      <c r="B95" s="1">
+        <v>0.32168400000000003</v>
+      </c>
+      <c r="C95" s="1">
+        <v>-0.57931200000000005</v>
+      </c>
+      <c r="D95" s="1">
+        <v>1.1799740000000001</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>96</v>
       </c>
-      <c r="B96">
-        <v>0.58047649999999995</v>
-      </c>
-      <c r="C96">
-        <v>-0.27187699999999998</v>
-      </c>
-      <c r="D96">
-        <v>1.3483750000000001</v>
+      <c r="B96" s="1">
+        <v>0.41284874999999999</v>
+      </c>
+      <c r="C96" s="1">
+        <v>-0.4335117</v>
+      </c>
+      <c r="D96" s="1">
+        <v>1.2642059999999999</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>97</v>
       </c>
-      <c r="B97">
-        <v>1.0572785</v>
-      </c>
-      <c r="C97">
-        <v>0.17777899999999999</v>
-      </c>
-      <c r="D97">
-        <v>1.897597</v>
+      <c r="B97" s="1">
+        <v>0.89371299999999998</v>
+      </c>
+      <c r="C97" s="1">
+        <v>1.34309999999997E-2</v>
+      </c>
+      <c r="D97" s="1">
+        <v>1.8225</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>98</v>
       </c>
-      <c r="B98">
-        <v>0.753498</v>
-      </c>
-      <c r="C98">
-        <v>-0.12184</v>
-      </c>
-      <c r="D98">
-        <v>1.53746</v>
+      <c r="B98" s="1">
+        <v>0.59879199999999999</v>
+      </c>
+      <c r="C98" s="1">
+        <v>-0.248866</v>
+      </c>
+      <c r="D98" s="1">
+        <v>1.4753000000000001</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>99</v>
       </c>
-      <c r="B99">
-        <v>-4.5970500000000102E-2</v>
-      </c>
-      <c r="C99">
-        <v>-0.86492500000000005</v>
-      </c>
-      <c r="D99">
-        <v>0.76424099999999995</v>
+      <c r="B99" s="1">
+        <v>-0.20659350000000001</v>
+      </c>
+      <c r="C99" s="1">
+        <v>-1.0657810000000001</v>
+      </c>
+      <c r="D99" s="1">
+        <v>0.63566199999999995</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>100</v>
       </c>
-      <c r="B100">
-        <v>-0.18815100000000001</v>
-      </c>
-      <c r="C100">
-        <v>-1.0609</v>
-      </c>
-      <c r="D100">
-        <v>0.68561700000000003</v>
+      <c r="B100" s="1">
+        <v>-0.38646799999999998</v>
+      </c>
+      <c r="C100" s="1">
+        <v>-1.3024450000000001</v>
+      </c>
+      <c r="D100" s="1">
+        <v>0.57070999999999905</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>101</v>
       </c>
-      <c r="B101">
-        <v>0.55129950000000005</v>
-      </c>
-      <c r="C101">
-        <v>-0.400667</v>
-      </c>
-      <c r="D101">
-        <v>1.512043</v>
+      <c r="B101" s="1">
+        <v>0.35417999999999999</v>
+      </c>
+      <c r="C101" s="1">
+        <v>-0.75217300000000098</v>
+      </c>
+      <c r="D101" s="1">
+        <v>1.3377190000000001</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>102</v>
       </c>
-      <c r="B102">
-        <v>0.34959849999999998</v>
-      </c>
-      <c r="C102">
-        <v>-0.56645599999999996</v>
-      </c>
-      <c r="D102">
-        <v>1.172034</v>
+      <c r="B102" s="1">
+        <v>0.12611449999999999</v>
+      </c>
+      <c r="C102" s="1">
+        <v>-0.78475499999999898</v>
+      </c>
+      <c r="D102" s="1">
+        <v>1.0508900000000001</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>103</v>
       </c>
-      <c r="B103">
-        <v>0.81670799999999999</v>
-      </c>
-      <c r="C103">
-        <v>-0.37769599999999998</v>
-      </c>
-      <c r="D103">
-        <v>1.86849</v>
+      <c r="B103" s="1">
+        <v>0.61733850000000001</v>
+      </c>
+      <c r="C103" s="1">
+        <v>-0.57860299999999998</v>
+      </c>
+      <c r="D103" s="1">
+        <v>1.7290049999999999</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>104</v>
       </c>
-      <c r="B104">
-        <v>1.0346599999999999</v>
-      </c>
-      <c r="C104">
-        <v>0.12906799999999999</v>
-      </c>
-      <c r="D104">
-        <v>1.9470741300000001</v>
+      <c r="B104" s="1">
+        <v>0.81716599999999995</v>
+      </c>
+      <c r="C104" s="1">
+        <v>-0.17368832000000001</v>
+      </c>
+      <c r="D104" s="1">
+        <v>1.768348</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>105</v>
       </c>
-      <c r="B105">
-        <v>-3.5317000000000098E-2</v>
-      </c>
-      <c r="C105">
-        <v>-0.89910299999999999</v>
-      </c>
-      <c r="D105">
-        <v>0.82626500000000003</v>
+      <c r="B105" s="1">
+        <v>-0.239957</v>
+      </c>
+      <c r="C105" s="1">
+        <v>-1.1938419</v>
+      </c>
+      <c r="D105" s="1">
+        <v>0.64801399999999998</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>106</v>
       </c>
-      <c r="B106">
-        <v>3.6500000000000399E-3</v>
-      </c>
-      <c r="C106">
-        <v>-1.1885205999999999</v>
-      </c>
-      <c r="D106">
-        <v>1.08249</v>
+      <c r="B106" s="1">
+        <v>-0.21046699999999999</v>
+      </c>
+      <c r="C106" s="1">
+        <v>-1.4715389999999999</v>
+      </c>
+      <c r="D106" s="1">
+        <v>1.0408500000000001</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>107</v>
       </c>
-      <c r="B107">
-        <v>0.65397300000000003</v>
-      </c>
-      <c r="C107">
-        <v>-1.0790230000000001</v>
-      </c>
-      <c r="D107">
-        <v>2.3008600000000001</v>
+      <c r="B107" s="1">
+        <v>0.42445250000000001</v>
+      </c>
+      <c r="C107" s="1">
+        <v>-1.278915</v>
+      </c>
+      <c r="D107" s="1">
+        <v>2.2046079999999999</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>108</v>
       </c>
-      <c r="B108">
-        <v>0.5899375</v>
-      </c>
-      <c r="C108">
-        <v>-0.53102499999999997</v>
-      </c>
-      <c r="D108">
-        <v>1.7440180000000001</v>
+      <c r="B108" s="1">
+        <v>0.37178349999999999</v>
+      </c>
+      <c r="C108" s="1">
+        <v>-0.82839200000000002</v>
+      </c>
+      <c r="D108" s="1">
+        <v>1.6428419999999999</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>109</v>
       </c>
-      <c r="B109">
-        <v>0.99652565000000004</v>
-      </c>
-      <c r="C109">
-        <v>-0.2248539</v>
-      </c>
-      <c r="D109">
-        <v>2.2404679999999999</v>
+      <c r="B109" s="1">
+        <v>0.76141499999999995</v>
+      </c>
+      <c r="C109" s="1">
+        <v>-0.62453199999999998</v>
+      </c>
+      <c r="D109" s="1">
+        <v>2.05091</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>110</v>
       </c>
-      <c r="B110">
-        <v>0.48525499999999999</v>
-      </c>
-      <c r="C110">
-        <v>-0.698627</v>
-      </c>
-      <c r="D110">
-        <v>1.743997</v>
+      <c r="B110" s="1">
+        <v>0.15894050000000101</v>
+      </c>
+      <c r="C110" s="1">
+        <v>-1.1204239</v>
+      </c>
+      <c r="D110" s="1">
+        <v>1.4471080000000001</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>111</v>
       </c>
-      <c r="B111">
-        <v>-0.64734199999999997</v>
-      </c>
-      <c r="C111">
-        <v>-1.977622</v>
-      </c>
-      <c r="D111">
-        <v>0.48192800000000002</v>
+      <c r="B111" s="1">
+        <v>-0.93685549999999995</v>
+      </c>
+      <c r="C111" s="1">
+        <v>-2.206941</v>
+      </c>
+      <c r="D111" s="1">
+        <v>0.33897100000000002</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>112</v>
       </c>
-      <c r="B112">
-        <v>-1.1118539999999999</v>
-      </c>
-      <c r="C112">
-        <v>-1.6190205</v>
-      </c>
-      <c r="D112">
-        <v>-0.65568899999999997</v>
+      <c r="B112" s="1">
+        <v>-1.111524</v>
+      </c>
+      <c r="C112" s="1">
+        <v>-1.574298</v>
+      </c>
+      <c r="D112" s="1">
+        <v>-0.59853999999999996</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>113</v>
       </c>
-      <c r="B113">
-        <v>-1.05304</v>
-      </c>
-      <c r="C113">
-        <v>-2.5097510000000001</v>
-      </c>
-      <c r="D113">
-        <v>0.39559</v>
+      <c r="B113" s="1">
+        <v>-1.9997879999999999</v>
+      </c>
+      <c r="C113" s="1">
+        <v>-3.6356299999999999</v>
+      </c>
+      <c r="D113" s="1">
+        <v>-0.48712</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>114</v>
       </c>
-      <c r="B114">
-        <v>-0.68230000000000002</v>
-      </c>
-      <c r="C114">
-        <v>-2.1568839999999998</v>
-      </c>
-      <c r="D114">
-        <v>0.79101999999999995</v>
+      <c r="B114" s="1">
+        <v>-1.6308875</v>
+      </c>
+      <c r="C114" s="1">
+        <v>-3.26437</v>
+      </c>
+      <c r="D114" s="1">
+        <v>-3.0336000000000099E-2</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>115</v>
       </c>
-      <c r="B115">
-        <v>-0.14221059999999999</v>
-      </c>
-      <c r="C115">
-        <v>-1.6622969999999999</v>
-      </c>
-      <c r="D115">
-        <v>1.2283029999999999</v>
+      <c r="B115" s="1">
+        <v>-1.1073434900000001</v>
+      </c>
+      <c r="C115" s="1">
+        <v>-2.6779882000000002</v>
+      </c>
+      <c r="D115" s="1">
+        <v>0.47258499999999998</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>116</v>
       </c>
-      <c r="B116">
-        <v>-1.1896705000000001</v>
-      </c>
-      <c r="C116">
-        <v>-2.598395</v>
-      </c>
-      <c r="D116">
-        <v>0.29213499999999998</v>
+      <c r="B116" s="1">
+        <v>-2.1130528499999999</v>
+      </c>
+      <c r="C116" s="1">
+        <v>-3.8634539999999999</v>
+      </c>
+      <c r="D116" s="1">
+        <v>-0.68519000000000096</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>117</v>
       </c>
-      <c r="B117">
-        <v>0.992757</v>
-      </c>
-      <c r="C117">
-        <v>-0.87656900000000004</v>
-      </c>
-      <c r="D117">
-        <v>2.9560200000000001</v>
+      <c r="B117" s="1">
+        <v>-8.2220000000004009E-3</v>
+      </c>
+      <c r="C117" s="1">
+        <v>-2.0252568800000001</v>
+      </c>
+      <c r="D117" s="1">
+        <v>2.000432</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>118</v>
       </c>
-      <c r="B118">
-        <v>-0.423711</v>
-      </c>
-      <c r="C118">
-        <v>-1.9304220000000001</v>
-      </c>
-      <c r="D118">
-        <v>1.1122730000000001</v>
+      <c r="B118" s="1">
+        <v>-1.3426495000000001</v>
+      </c>
+      <c r="C118" s="1">
+        <v>-3.0361310000000001</v>
+      </c>
+      <c r="D118" s="1">
+        <v>0.26590400000000097</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>119</v>
       </c>
-      <c r="B119">
-        <v>-0.81432700000000002</v>
-      </c>
-      <c r="C119">
-        <v>-1.642088</v>
-      </c>
-      <c r="D119">
-        <v>9.0500000000000008E-3</v>
+      <c r="B119" s="1">
+        <v>-1.0167250000000001</v>
+      </c>
+      <c r="C119" s="1">
+        <v>-1.915681</v>
+      </c>
+      <c r="D119" s="1">
+        <v>-0.16950999999999999</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>120</v>
       </c>
-      <c r="B120">
-        <v>-0.14388200000000001</v>
-      </c>
-      <c r="C120">
-        <v>-1.0127824000000001</v>
-      </c>
-      <c r="D120">
-        <v>0.72450999999999999</v>
+      <c r="B120" s="1">
+        <v>-0.31938549999999999</v>
+      </c>
+      <c r="C120" s="1">
+        <v>-1.269201</v>
+      </c>
+      <c r="D120" s="1">
+        <v>0.55072699999999997</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>121</v>
       </c>
-      <c r="B121">
-        <v>-5.7970500000000001E-2</v>
-      </c>
-      <c r="C121">
-        <v>-0.94520800000000005</v>
-      </c>
-      <c r="D121">
-        <v>0.71035599999999999</v>
+      <c r="B121" s="1">
+        <v>-0.22445799999999999</v>
+      </c>
+      <c r="C121" s="1">
+        <v>-1.1062285000000001</v>
+      </c>
+      <c r="D121" s="1">
+        <v>0.65681500000000004</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>122</v>
       </c>
-      <c r="B122">
-        <v>0.41998750000000001</v>
-      </c>
-      <c r="C122">
-        <v>-0.49335899999999999</v>
-      </c>
-      <c r="D122">
-        <v>1.2577990999999999</v>
+      <c r="B122" s="1">
+        <v>0.25292500000000001</v>
+      </c>
+      <c r="C122" s="1">
+        <v>-0.63437900000000103</v>
+      </c>
+      <c r="D122" s="1">
+        <v>1.2290970000000001</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>123</v>
       </c>
-      <c r="B123">
-        <v>0.11841550000000001</v>
-      </c>
-      <c r="C123">
-        <v>-0.73018400000000006</v>
-      </c>
-      <c r="D123">
-        <v>0.99492199999999997</v>
+      <c r="B123" s="1">
+        <v>-4.7249500000000402E-2</v>
+      </c>
+      <c r="C123" s="1">
+        <v>-0.90826300000000004</v>
+      </c>
+      <c r="D123" s="1">
+        <v>0.85939900000000002</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>124</v>
       </c>
-      <c r="B124">
-        <v>-0.67271314999999998</v>
-      </c>
-      <c r="C124">
-        <v>-1.5147330000000001</v>
-      </c>
-      <c r="D124">
-        <v>0.168047</v>
+      <c r="B124" s="1">
+        <v>-0.84320499999999998</v>
+      </c>
+      <c r="C124" s="1">
+        <v>-1.7778075</v>
+      </c>
+      <c r="D124" s="1">
+        <v>-1.41899999999993E-2</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>125</v>
       </c>
-      <c r="B125">
-        <v>-0.83531049999999996</v>
-      </c>
-      <c r="C125">
-        <v>-1.7404599999999999</v>
-      </c>
-      <c r="D125">
-        <v>9.7379999999999994E-2</v>
+      <c r="B125" s="1">
+        <v>-1.032786</v>
+      </c>
+      <c r="C125" s="1">
+        <v>-1.9878089999999999</v>
+      </c>
+      <c r="D125" s="1">
+        <v>-6.2269999999999798E-2</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>126</v>
       </c>
-      <c r="B126">
-        <v>-9.4508000000000203E-2</v>
-      </c>
-      <c r="C126">
-        <v>-1.0838680000000001</v>
-      </c>
-      <c r="D126">
-        <v>0.91859500000000005</v>
+      <c r="B126" s="1">
+        <v>-0.2906955</v>
+      </c>
+      <c r="C126" s="1">
+        <v>-1.4287939000000001</v>
+      </c>
+      <c r="D126" s="1">
+        <v>0.71845400000000004</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>127</v>
       </c>
-      <c r="B127">
-        <v>-0.29507650000000002</v>
-      </c>
-      <c r="C127">
-        <v>-1.2338469000000001</v>
-      </c>
-      <c r="D127">
-        <v>0.56964099999999995</v>
+      <c r="B127" s="1">
+        <v>-0.51272450000000003</v>
+      </c>
+      <c r="C127" s="1">
+        <v>-1.509871</v>
+      </c>
+      <c r="D127" s="1">
+        <v>0.39760000000000001</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>128</v>
       </c>
-      <c r="B128">
-        <v>0.18523200000000001</v>
-      </c>
-      <c r="C128">
-        <v>-0.92253600000000002</v>
-      </c>
-      <c r="D128">
-        <v>1.3453337000000001</v>
+      <c r="B128" s="1">
+        <v>-2.07476850000003E-2</v>
+      </c>
+      <c r="C128" s="1">
+        <v>-1.2121710000000001</v>
+      </c>
+      <c r="D128" s="1">
+        <v>1.1313530000000001</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>129</v>
       </c>
-      <c r="B129">
-        <v>0.39522800000000002</v>
-      </c>
-      <c r="C129">
-        <v>-0.57249819999999996</v>
-      </c>
-      <c r="D129">
-        <v>1.2906489999999999</v>
+      <c r="B129" s="1">
+        <v>0.182338</v>
+      </c>
+      <c r="C129" s="1">
+        <v>-0.89627632999999995</v>
+      </c>
+      <c r="D129" s="1">
+        <v>1.1159250000000001</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>130</v>
       </c>
-      <c r="B130">
-        <v>-0.68343399999999999</v>
-      </c>
-      <c r="C130">
-        <v>-1.541147</v>
-      </c>
-      <c r="D130">
-        <v>0.24324299999999999</v>
+      <c r="B130" s="1">
+        <v>-0.88208750000000002</v>
+      </c>
+      <c r="C130" s="1">
+        <v>-1.9543923999999999</v>
+      </c>
+      <c r="D130" s="1">
+        <v>-3.8167999999999799E-2</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>131</v>
       </c>
-      <c r="B131">
-        <v>-0.63174750000000002</v>
-      </c>
-      <c r="C131">
-        <v>-1.811393</v>
-      </c>
-      <c r="D131">
-        <v>0.56462999999999997</v>
+      <c r="B131" s="1">
+        <v>-0.85109999999999997</v>
+      </c>
+      <c r="C131" s="1">
+        <v>-2.1319400000000002</v>
+      </c>
+      <c r="D131" s="1">
+        <v>0.39618999999999999</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>132</v>
       </c>
-      <c r="B132">
-        <v>1.9019999999999902E-2</v>
-      </c>
-      <c r="C132">
-        <v>-1.6691260000000001</v>
-      </c>
-      <c r="D132">
-        <v>1.7113499999999999</v>
+      <c r="B132" s="1">
+        <v>-0.22297500000000001</v>
+      </c>
+      <c r="C132" s="1">
+        <v>-2.0372645</v>
+      </c>
+      <c r="D132" s="1">
+        <v>1.45977</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>133</v>
       </c>
-      <c r="B133">
-        <v>-4.8497000000000103E-2</v>
-      </c>
-      <c r="C133">
-        <v>-1.194256</v>
-      </c>
-      <c r="D133">
-        <v>1.161216</v>
+      <c r="B133" s="1">
+        <v>-0.27604250000000102</v>
+      </c>
+      <c r="C133" s="1">
+        <v>-1.5786225</v>
+      </c>
+      <c r="D133" s="1">
+        <v>0.936944</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>134</v>
       </c>
-      <c r="B134">
-        <v>0.3603615</v>
-      </c>
-      <c r="C134">
-        <v>-0.93810300000000002</v>
-      </c>
-      <c r="D134">
-        <v>1.6072139999999999</v>
+      <c r="B134" s="1">
+        <v>0.13720250000000001</v>
+      </c>
+      <c r="C134" s="1">
+        <v>-1.133945</v>
+      </c>
+      <c r="D134" s="1">
+        <v>1.5733318000000001</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>135</v>
       </c>
-      <c r="B135">
-        <v>-0.1667825</v>
-      </c>
-      <c r="C135">
-        <v>-1.358419</v>
-      </c>
-      <c r="D135">
-        <v>1.11619</v>
+      <c r="B135" s="1">
+        <v>-0.46719500000000003</v>
+      </c>
+      <c r="C135" s="1">
+        <v>-1.7714220000000001</v>
+      </c>
+      <c r="D135" s="1">
+        <v>0.84453999999999996</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>136</v>
       </c>
-      <c r="B136">
-        <v>-1.284503</v>
-      </c>
-      <c r="C136">
-        <v>-2.4425512</v>
-      </c>
-      <c r="D136">
-        <v>8.3743000000000303E-2</v>
+      <c r="B136" s="1">
+        <v>-1.5746150000000001</v>
+      </c>
+      <c r="C136" s="1">
+        <v>-2.8136570000000001</v>
+      </c>
+      <c r="D136" s="1">
+        <v>-0.17641999999999999</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>137</v>
       </c>
-      <c r="B137">
-        <v>6.6088499999999994E-2</v>
-      </c>
-      <c r="C137">
-        <v>-1.3563369999999999</v>
-      </c>
-      <c r="D137">
-        <v>1.524877</v>
+      <c r="B137" s="1">
+        <v>-0.88932719999999998</v>
+      </c>
+      <c r="C137" s="1">
+        <v>-2.497662</v>
+      </c>
+      <c r="D137" s="1">
+        <v>0.61611800000000005</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>138</v>
       </c>
-      <c r="B138">
-        <v>0.42975649999999999</v>
-      </c>
-      <c r="C138">
-        <v>-1.0023280000000001</v>
-      </c>
-      <c r="D138">
-        <v>1.980572</v>
+      <c r="B138" s="1">
+        <v>-0.53114950000000105</v>
+      </c>
+      <c r="C138" s="1">
+        <v>-2.049525</v>
+      </c>
+      <c r="D138" s="1">
+        <v>1.1798820000000001</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>139</v>
       </c>
-      <c r="B139">
-        <v>0.97902049999999996</v>
-      </c>
-      <c r="C139">
-        <v>-0.44454749999999998</v>
-      </c>
-      <c r="D139">
-        <v>2.485366</v>
+      <c r="B139" s="1">
+        <v>-7.1814999999997298E-3</v>
+      </c>
+      <c r="C139" s="1">
+        <v>-1.530646</v>
+      </c>
+      <c r="D139" s="1">
+        <v>1.608134</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>140</v>
       </c>
-      <c r="B140">
-        <v>-7.8609999999999999E-2</v>
-      </c>
-      <c r="C140">
-        <v>-1.5234540000000001</v>
-      </c>
-      <c r="D140">
-        <v>1.4198550000000001</v>
+      <c r="B140" s="1">
+        <v>-1.0255095000000001</v>
+      </c>
+      <c r="C140" s="1">
+        <v>-2.593925</v>
+      </c>
+      <c r="D140" s="1">
+        <v>0.550037000000001</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>141</v>
       </c>
-      <c r="B141">
-        <v>2.126728</v>
-      </c>
-      <c r="C141">
-        <v>0.19214400000000001</v>
-      </c>
-      <c r="D141">
-        <v>4.01126</v>
+      <c r="B141" s="1">
+        <v>1.097693</v>
+      </c>
+      <c r="C141" s="1">
+        <v>-0.90993100000000005</v>
+      </c>
+      <c r="D141" s="1">
+        <v>3.1431429999999998</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>142</v>
       </c>
-      <c r="B142">
-        <v>0.69312450000000003</v>
-      </c>
-      <c r="C142">
-        <v>-0.93676800000000005</v>
-      </c>
-      <c r="D142">
-        <v>2.1124339999999999</v>
+      <c r="B142" s="1">
+        <v>-0.23800450000000001</v>
+      </c>
+      <c r="C142" s="1">
+        <v>-1.880444</v>
+      </c>
+      <c r="D142" s="1">
+        <v>1.3686370000000001</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>143</v>
       </c>
-      <c r="B143">
-        <v>0.298736</v>
-      </c>
-      <c r="C143">
-        <v>-0.52690999999999999</v>
-      </c>
-      <c r="D143">
-        <v>1.1609290000000001</v>
+      <c r="B143" s="1">
+        <v>8.6237499999999703E-2</v>
+      </c>
+      <c r="C143" s="1">
+        <v>-0.80729499999999998</v>
+      </c>
+      <c r="D143" s="1">
+        <v>0.99039600000000005</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>144</v>
       </c>
-      <c r="B144">
-        <v>0.96726650000000003</v>
-      </c>
-      <c r="C144">
-        <v>9.5061999999999897E-2</v>
-      </c>
-      <c r="D144">
-        <v>1.8678760000000001</v>
+      <c r="B144" s="1">
+        <v>0.78607150000000003</v>
+      </c>
+      <c r="C144" s="1">
+        <v>-0.14977699999999999</v>
+      </c>
+      <c r="D144" s="1">
+        <v>1.72113</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>145</v>
       </c>
-      <c r="B145">
-        <v>1.0499369999999999</v>
-      </c>
-      <c r="C145">
-        <v>0.24202799999999999</v>
-      </c>
-      <c r="D145">
-        <v>1.9377230000000001</v>
+      <c r="B145" s="1">
+        <v>0.87641049999999998</v>
+      </c>
+      <c r="C145" s="1">
+        <v>-5.5969999999998504E-3</v>
+      </c>
+      <c r="D145" s="1">
+        <v>1.779846</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>146</v>
       </c>
-      <c r="B146">
-        <v>1.538686</v>
-      </c>
-      <c r="C146">
-        <v>0.66682710000000001</v>
-      </c>
-      <c r="D146">
-        <v>2.466704</v>
+      <c r="B146" s="1">
+        <v>1.3644259000000001</v>
+      </c>
+      <c r="C146" s="1">
+        <v>0.45282</v>
+      </c>
+      <c r="D146" s="1">
+        <v>2.3898307999999999</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>147</v>
       </c>
-      <c r="B147">
-        <v>1.2228334999999999</v>
-      </c>
-      <c r="C147">
-        <v>0.37128899999999998</v>
-      </c>
-      <c r="D147">
-        <v>2.1300789999999998</v>
+      <c r="B147" s="1">
+        <v>1.0623165000000001</v>
+      </c>
+      <c r="C147" s="1">
+        <v>0.14576799999999901</v>
+      </c>
+      <c r="D147" s="1">
+        <v>1.9723790000000001</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>148</v>
       </c>
-      <c r="B148">
-        <v>0.43327399999999999</v>
-      </c>
-      <c r="C148">
-        <v>-0.35538700000000001</v>
-      </c>
-      <c r="D148">
-        <v>1.3739669999999999</v>
+      <c r="B148" s="1">
+        <v>0.2633085</v>
+      </c>
+      <c r="C148" s="1">
+        <v>-0.63177700000000003</v>
+      </c>
+      <c r="D148" s="1">
+        <v>1.1825049999999999</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>149</v>
       </c>
-      <c r="B149">
-        <v>0.28836400000000001</v>
-      </c>
-      <c r="C149">
-        <v>-0.61345499999999997</v>
-      </c>
-      <c r="D149">
-        <v>1.2376199999999999</v>
+      <c r="B149" s="1">
+        <v>7.9730000000000106E-2</v>
+      </c>
+      <c r="C149" s="1">
+        <v>-0.95536100000000002</v>
+      </c>
+      <c r="D149" s="1">
+        <v>0.986649</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>150</v>
       </c>
-      <c r="B150">
-        <v>1.0251524999999999</v>
-      </c>
-      <c r="C150">
-        <v>-9.9284099999998893E-3</v>
-      </c>
-      <c r="D150">
-        <v>1.9985999999999999</v>
+      <c r="B150" s="1">
+        <v>0.81805850000000002</v>
+      </c>
+      <c r="C150" s="1">
+        <v>-0.33307199999999998</v>
+      </c>
+      <c r="D150" s="1">
+        <v>1.8371</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>151</v>
       </c>
-      <c r="B151">
-        <v>0.81699600000000006</v>
-      </c>
-      <c r="C151">
-        <v>-4.1105999999999997E-2</v>
-      </c>
-      <c r="D151">
-        <v>1.765644</v>
+      <c r="B151" s="1">
+        <v>0.60367400000000004</v>
+      </c>
+      <c r="C151" s="1">
+        <v>-0.39520500000000103</v>
+      </c>
+      <c r="D151" s="1">
+        <v>1.532948</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>152</v>
       </c>
-      <c r="B152">
-        <v>1.2989248499999999</v>
-      </c>
-      <c r="C152">
-        <v>0.20856279999999999</v>
-      </c>
-      <c r="D152">
-        <v>2.4613330000000002</v>
+      <c r="B152" s="1">
+        <v>1.0918224000000001</v>
+      </c>
+      <c r="C152" s="1">
+        <v>-5.3075999999999901E-2</v>
+      </c>
+      <c r="D152" s="1">
+        <v>2.2584119999999999</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>153</v>
       </c>
-      <c r="B153">
-        <v>1.5003120000000001</v>
-      </c>
-      <c r="C153">
-        <v>0.56064999999999998</v>
-      </c>
-      <c r="D153">
-        <v>2.5048889999999999</v>
+      <c r="B153" s="1">
+        <v>1.2859125</v>
+      </c>
+      <c r="C153" s="1">
+        <v>0.19200700000000001</v>
+      </c>
+      <c r="D153" s="1">
+        <v>2.2039849999999999</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>154</v>
       </c>
-      <c r="B154">
-        <v>0.429419</v>
-      </c>
-      <c r="C154">
-        <v>-0.38673600000000002</v>
-      </c>
-      <c r="D154">
-        <v>1.4353499999999999</v>
+      <c r="B154" s="1">
+        <v>0.2148205</v>
+      </c>
+      <c r="C154" s="1">
+        <v>-0.77773899999999996</v>
+      </c>
+      <c r="D154" s="1">
+        <v>1.1523060000000001</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>155</v>
       </c>
-      <c r="B155">
-        <v>0.48597499999999999</v>
-      </c>
-      <c r="C155">
-        <v>-0.66647800000000001</v>
-      </c>
-      <c r="D155">
-        <v>1.6982349999999999</v>
+      <c r="B155" s="1">
+        <v>0.2664205</v>
+      </c>
+      <c r="C155" s="1">
+        <v>-1.0214148999999999</v>
+      </c>
+      <c r="D155" s="1">
+        <v>1.538808</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>156</v>
       </c>
-      <c r="B156">
-        <v>1.1337685</v>
-      </c>
-      <c r="C156">
-        <v>-0.57275299999999996</v>
-      </c>
-      <c r="D156">
-        <v>2.8218040000000002</v>
+      <c r="B156" s="1">
+        <v>0.88508350000000002</v>
+      </c>
+      <c r="C156" s="1">
+        <v>-0.86973300000000098</v>
+      </c>
+      <c r="D156" s="1">
+        <v>2.6263569100000002</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>157</v>
       </c>
-      <c r="B157">
-        <v>1.0644530000000001</v>
-      </c>
-      <c r="C157">
-        <v>-0.110434</v>
-      </c>
-      <c r="D157">
-        <v>2.2176849999999999</v>
+      <c r="B157" s="1">
+        <v>0.84084650000000005</v>
+      </c>
+      <c r="C157" s="1">
+        <v>-0.44314900000000002</v>
+      </c>
+      <c r="D157" s="1">
+        <v>2.1170490000000002</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>158</v>
       </c>
-      <c r="B158">
-        <v>1.4691911499999999</v>
-      </c>
-      <c r="C158">
-        <v>0.13220599999999999</v>
-      </c>
-      <c r="D158">
-        <v>2.6864210000000002</v>
+      <c r="B158" s="1">
+        <v>1.2454609999999999</v>
+      </c>
+      <c r="C158" s="1">
+        <v>-0.162926300000001</v>
+      </c>
+      <c r="D158" s="1">
+        <v>2.6027459999999998</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>159</v>
       </c>
-      <c r="B159">
-        <v>0.95075750000000003</v>
-      </c>
-      <c r="C159">
-        <v>-0.31471320000000003</v>
-      </c>
-      <c r="D159">
-        <v>2.16866</v>
+      <c r="B159" s="1">
+        <v>0.63611850000000003</v>
+      </c>
+      <c r="C159" s="1">
+        <v>-0.65852500000000103</v>
+      </c>
+      <c r="D159" s="1">
+        <v>1.9609110000000001</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>160</v>
       </c>
-      <c r="B160">
-        <v>-0.180199</v>
-      </c>
-      <c r="C160">
-        <v>-1.4734400000000001</v>
-      </c>
-      <c r="D160">
-        <v>1.0219499999999999</v>
+      <c r="B160" s="1">
+        <v>-0.45396900000000001</v>
+      </c>
+      <c r="C160" s="1">
+        <v>-1.7165786999999999</v>
+      </c>
+      <c r="D160" s="1">
+        <v>0.91867000000000099</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>161</v>
       </c>
-      <c r="B161">
-        <v>0.36780000000000002</v>
-      </c>
-      <c r="C161">
-        <v>-0.15690000000000001</v>
-      </c>
-      <c r="D161">
-        <v>0.9224</v>
+      <c r="B161" s="1">
+        <v>0.37234</v>
+      </c>
+      <c r="C161" s="1">
+        <v>-0.12878999999999999</v>
+      </c>
+      <c r="D161" s="1">
+        <v>0.91883999999999899</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>162</v>
       </c>
-      <c r="B162">
-        <v>0.91378649999999995</v>
-      </c>
-      <c r="C162">
-        <v>0.48938100000000001</v>
-      </c>
-      <c r="D162">
-        <v>1.3320201</v>
+      <c r="B162" s="1">
+        <v>0.89074035500000104</v>
+      </c>
+      <c r="C162" s="1">
+        <v>0.47765999999999997</v>
+      </c>
+      <c r="D162" s="1">
+        <v>1.2990219999999999</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>163</v>
       </c>
-      <c r="B163">
-        <v>-0.13178000000000001</v>
-      </c>
-      <c r="C163">
-        <v>-0.56652999999999998</v>
-      </c>
-      <c r="D163">
-        <v>0.31551000000000001</v>
+      <c r="B163" s="1">
+        <v>-0.12310500000000001</v>
+      </c>
+      <c r="C163" s="1">
+        <v>-0.57599</v>
+      </c>
+      <c r="D163" s="1">
+        <v>0.293848000000001</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>164</v>
       </c>
-      <c r="B164">
-        <v>2.0257844999999999</v>
-      </c>
-      <c r="C164">
-        <v>0.774312</v>
-      </c>
-      <c r="D164">
-        <v>3.4213900000000002</v>
+      <c r="B164" s="1">
+        <v>1.97222545</v>
+      </c>
+      <c r="C164" s="1">
+        <v>0.69211999999999996</v>
+      </c>
+      <c r="D164" s="1">
+        <v>3.28844</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>165</v>
       </c>
-      <c r="B165">
-        <v>0.61419250000000003</v>
-      </c>
-      <c r="C165">
-        <v>-4.0251000000000002E-2</v>
-      </c>
-      <c r="D165">
-        <v>1.241798</v>
+      <c r="B165" s="1">
+        <v>0.66075589999999995</v>
+      </c>
+      <c r="C165" s="1">
+        <v>2.9904000000000999E-2</v>
+      </c>
+      <c r="D165" s="1">
+        <v>1.3038270000000001</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>166</v>
       </c>
-      <c r="B166">
-        <v>0.236953</v>
-      </c>
-      <c r="C166">
-        <v>-1.0204059999999999</v>
-      </c>
-      <c r="D166">
-        <v>1.583725</v>
+      <c r="B166" s="1">
+        <v>0.97525249999999997</v>
+      </c>
+      <c r="C166" s="1">
+        <v>-0.48586000000000001</v>
+      </c>
+      <c r="D166" s="1">
+        <v>2.4414850000000001</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>167</v>
       </c>
-      <c r="B167">
-        <v>0.91389949999999998</v>
-      </c>
-      <c r="C167">
-        <v>-0.39707999999999999</v>
-      </c>
-      <c r="D167">
-        <v>2.2983790000000002</v>
+      <c r="B167" s="1">
+        <v>1.6727335000000001</v>
+      </c>
+      <c r="C167" s="1">
+        <v>0.243224999999999</v>
+      </c>
+      <c r="D167" s="1">
+        <v>3.1907420000000002</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>168</v>
       </c>
-      <c r="B168">
-        <v>0.9838325</v>
-      </c>
-      <c r="C168">
-        <v>-0.30471700000000002</v>
-      </c>
-      <c r="D168">
-        <v>2.3151640000000002</v>
+      <c r="B168" s="1">
+        <v>1.77418696</v>
+      </c>
+      <c r="C168" s="1">
+        <v>0.35341699999999898</v>
+      </c>
+      <c r="D168" s="1">
+        <v>3.2698999999999998</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>169</v>
       </c>
-      <c r="B169">
-        <v>1.46079055</v>
-      </c>
-      <c r="C169">
-        <v>0.20097999999999999</v>
-      </c>
-      <c r="D169">
-        <v>2.8981379999999999</v>
+      <c r="B169" s="1">
+        <v>2.2611569999999999</v>
+      </c>
+      <c r="C169" s="1">
+        <v>0.84144337000000002</v>
+      </c>
+      <c r="D169" s="1">
+        <v>3.7982070000000001</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>170</v>
       </c>
-      <c r="B170">
-        <v>1.1614610000000001</v>
-      </c>
-      <c r="C170">
-        <v>-8.3281000000000105E-2</v>
-      </c>
-      <c r="D170">
-        <v>2.614204</v>
+      <c r="B170" s="1">
+        <v>1.9638076499999999</v>
+      </c>
+      <c r="C170" s="1">
+        <v>0.366475</v>
+      </c>
+      <c r="D170" s="1">
+        <v>3.3443480000000001</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>171</v>
       </c>
-      <c r="B171">
-        <v>0.36562499999999998</v>
-      </c>
-      <c r="C171">
-        <v>-0.99249900000000002</v>
-      </c>
-      <c r="D171">
-        <v>1.6808259999999999</v>
+      <c r="B171" s="1">
+        <v>1.1517650500000001</v>
+      </c>
+      <c r="C171" s="1">
+        <v>-0.212566</v>
+      </c>
+      <c r="D171" s="1">
+        <v>2.7051850000000002</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>172</v>
       </c>
-      <c r="B172">
-        <v>0.21401100000000001</v>
-      </c>
-      <c r="C172">
-        <v>-1.1218490000000001</v>
-      </c>
-      <c r="D172">
-        <v>1.5643130000000001</v>
+      <c r="B172" s="1">
+        <v>0.94820610000000005</v>
+      </c>
+      <c r="C172" s="1">
+        <v>-0.44712429999999997</v>
+      </c>
+      <c r="D172" s="1">
+        <v>2.5456799999999999</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>173</v>
       </c>
-      <c r="B173">
-        <v>0.96152099999999996</v>
-      </c>
-      <c r="C173">
-        <v>-0.45985999999999999</v>
-      </c>
-      <c r="D173">
-        <v>2.4163635000000001</v>
+      <c r="B173" s="1">
+        <v>1.7037965500000001</v>
+      </c>
+      <c r="C173" s="1">
+        <v>0.19026499999999999</v>
+      </c>
+      <c r="D173" s="1">
+        <v>3.327194</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>174</v>
       </c>
-      <c r="B174">
-        <v>0.75942275000000004</v>
-      </c>
-      <c r="C174">
-        <v>-0.58810399999999996</v>
-      </c>
-      <c r="D174">
-        <v>2.1099220000000001</v>
+      <c r="B174" s="1">
+        <v>1.479873</v>
+      </c>
+      <c r="C174" s="1">
+        <v>1.3741999999999701E-2</v>
+      </c>
+      <c r="D174" s="1">
+        <v>2.9727960000000002</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>175</v>
       </c>
-      <c r="B175">
-        <v>1.2332847499999999</v>
-      </c>
-      <c r="C175">
-        <v>-0.29240699999999997</v>
-      </c>
-      <c r="D175">
-        <v>2.7612169999999998</v>
+      <c r="B175" s="1">
+        <v>1.9757235</v>
+      </c>
+      <c r="C175" s="1">
+        <v>0.25642599999999899</v>
+      </c>
+      <c r="D175" s="1">
+        <v>3.5480399</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>176</v>
       </c>
-      <c r="B176">
-        <v>1.4357724999999999</v>
-      </c>
-      <c r="C176">
-        <v>6.9150999999999796E-2</v>
-      </c>
-      <c r="D176">
-        <v>2.8559209999999999</v>
+      <c r="B176" s="1">
+        <v>2.1677534999999999</v>
+      </c>
+      <c r="C176" s="1">
+        <v>0.74312500000000004</v>
+      </c>
+      <c r="D176" s="1">
+        <v>3.7506240000000002</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>177</v>
       </c>
-      <c r="B177">
-        <v>0.38865</v>
-      </c>
-      <c r="C177">
-        <v>-0.96125099999999997</v>
-      </c>
-      <c r="D177">
-        <v>1.7455099999999999</v>
+      <c r="B177" s="1">
+        <v>1.1078965000000001</v>
+      </c>
+      <c r="C177" s="1">
+        <v>-0.37162199999999901</v>
+      </c>
+      <c r="D177" s="1">
+        <v>2.6096750000000002</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>178</v>
       </c>
-      <c r="B178">
-        <v>0.41353299999999998</v>
-      </c>
-      <c r="C178">
-        <v>-1.0556129999999999</v>
-      </c>
-      <c r="D178">
-        <v>1.9330282000000001</v>
+      <c r="B178" s="1">
+        <v>1.1529069999999999</v>
+      </c>
+      <c r="C178" s="1">
+        <v>-0.558917</v>
+      </c>
+      <c r="D178" s="1">
+        <v>2.7713899999999998</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>179</v>
       </c>
-      <c r="B179">
-        <v>1.054797</v>
-      </c>
-      <c r="C179">
-        <v>-0.93388800000000005</v>
-      </c>
-      <c r="D179">
-        <v>2.9219594</v>
+      <c r="B179" s="1">
+        <v>1.8043324999999999</v>
+      </c>
+      <c r="C179" s="1">
+        <v>-0.49214180000000102</v>
+      </c>
+      <c r="D179" s="1">
+        <v>3.64392</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>180</v>
       </c>
-      <c r="B180">
-        <v>0.99609250000000005</v>
-      </c>
-      <c r="C180">
-        <v>-0.51192499999999996</v>
-      </c>
-      <c r="D180">
-        <v>2.4603679999999999</v>
+      <c r="B180" s="1">
+        <v>1.7164010000000001</v>
+      </c>
+      <c r="C180" s="1">
+        <v>5.92769999999989E-2</v>
+      </c>
+      <c r="D180" s="1">
+        <v>3.3698000000000001</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>181</v>
       </c>
-      <c r="B181">
-        <v>1.4193106499999999</v>
-      </c>
-      <c r="C181">
-        <v>-0.181283</v>
-      </c>
-      <c r="D181">
-        <v>3.0000070000000001</v>
+      <c r="B181" s="1">
+        <v>2.1354839000000001</v>
+      </c>
+      <c r="C181" s="1">
+        <v>0.23708200000000099</v>
+      </c>
+      <c r="D181" s="1">
+        <v>3.7025269999999999</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>182</v>
       </c>
-      <c r="B182">
-        <v>0.87186600000000003</v>
-      </c>
-      <c r="C182">
-        <v>-0.56870399999999999</v>
-      </c>
-      <c r="D182">
-        <v>2.5176460000000001</v>
+      <c r="B182" s="1">
+        <v>1.5118605000000001</v>
+      </c>
+      <c r="C182" s="1">
+        <v>-0.106004</v>
+      </c>
+      <c r="D182" s="1">
+        <v>3.2650480000000002</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>183</v>
       </c>
-      <c r="B183">
-        <v>-0.21954850000000001</v>
-      </c>
-      <c r="C183">
-        <v>-1.7944119999999999</v>
-      </c>
-      <c r="D183">
-        <v>1.3104800000000001</v>
+      <c r="B183" s="1">
+        <v>0.4299596</v>
+      </c>
+      <c r="C183" s="1">
+        <v>-1.245455</v>
+      </c>
+      <c r="D183" s="1">
+        <v>2.1378300000000001</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>184</v>
       </c>
-      <c r="B184">
-        <v>0.54461700000000002</v>
-      </c>
-      <c r="C184">
-        <v>2.5080000000001199E-3</v>
-      </c>
-      <c r="D184">
-        <v>1.0521419999999999</v>
+      <c r="B184" s="1">
+        <v>0.52070300000000003</v>
+      </c>
+      <c r="C184" s="1">
+        <v>1.4933000000000101E-2</v>
+      </c>
+      <c r="D184" s="1">
+        <v>1.025515</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>185</v>
       </c>
-      <c r="B185">
-        <v>-0.49753999999999998</v>
-      </c>
-      <c r="C185">
-        <v>-1.048325</v>
-      </c>
-      <c r="D185">
-        <v>3.5380000000000002E-2</v>
+      <c r="B185" s="1">
+        <v>-0.4854195</v>
+      </c>
+      <c r="C185" s="1">
+        <v>-1.0145</v>
+      </c>
+      <c r="D185" s="1">
+        <v>9.4810000000009591E-3</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>186</v>
       </c>
-      <c r="B186">
-        <v>1.6629590000000001</v>
-      </c>
-      <c r="C186">
-        <v>0.31891900000000001</v>
-      </c>
-      <c r="D186">
-        <v>3.0740599999999998</v>
+      <c r="B186" s="1">
+        <v>1.6038589999999999</v>
+      </c>
+      <c r="C186" s="1">
+        <v>0.23294999999999999</v>
+      </c>
+      <c r="D186" s="1">
+        <v>2.9215399999999998</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>187</v>
       </c>
-      <c r="B187">
-        <v>0.25221250000000001</v>
-      </c>
-      <c r="C187">
-        <v>-0.49216100000000002</v>
-      </c>
-      <c r="D187">
-        <v>1.013703</v>
+      <c r="B187" s="1">
+        <v>0.28632200000000002</v>
+      </c>
+      <c r="C187" s="1">
+        <v>-0.40418100000000101</v>
+      </c>
+      <c r="D187" s="1">
+        <v>1.0549519999999999</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>188</v>
       </c>
-      <c r="B188">
-        <v>-0.117802</v>
-      </c>
-      <c r="C188">
-        <v>-1.521741</v>
-      </c>
-      <c r="D188">
-        <v>1.2184870000000001</v>
+      <c r="B188" s="1">
+        <v>0.61170100000000005</v>
+      </c>
+      <c r="C188" s="1">
+        <v>-0.94142999999999999</v>
+      </c>
+      <c r="D188" s="1">
+        <v>2.09449</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>189</v>
       </c>
-      <c r="B189">
-        <v>0.54098550000000001</v>
-      </c>
-      <c r="C189">
-        <v>-0.77347399999999999</v>
-      </c>
-      <c r="D189">
-        <v>2.0558049999999999</v>
+      <c r="B189" s="1">
+        <v>1.3210275</v>
+      </c>
+      <c r="C189" s="1">
+        <v>-0.137100999999999</v>
+      </c>
+      <c r="D189" s="1">
+        <v>2.9127640000000001</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>190</v>
       </c>
-      <c r="B190">
-        <v>0.62141500000000005</v>
-      </c>
-      <c r="C190">
-        <v>-0.71739799999999998</v>
-      </c>
-      <c r="D190">
-        <v>2.0674630000000001</v>
+      <c r="B190" s="1">
+        <v>1.4076755000000001</v>
+      </c>
+      <c r="C190" s="1">
+        <v>3.0029999999996401E-3</v>
+      </c>
+      <c r="D190" s="1">
+        <v>3.0181469999999999</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>191</v>
       </c>
-      <c r="B191">
-        <v>1.0888345749999999</v>
-      </c>
-      <c r="C191">
-        <v>-0.31820500000000002</v>
-      </c>
-      <c r="D191">
-        <v>2.5128689999999998</v>
+      <c r="B191" s="1">
+        <v>1.8871020000000001</v>
+      </c>
+      <c r="C191" s="1">
+        <v>0.36830950000000001</v>
+      </c>
+      <c r="D191" s="1">
+        <v>3.419692</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>192</v>
       </c>
-      <c r="B192">
-        <v>0.80347650000000004</v>
-      </c>
-      <c r="C192">
-        <v>-0.64534000000000002</v>
-      </c>
-      <c r="D192">
-        <v>2.1865730000000001</v>
+      <c r="B192" s="1">
+        <v>1.5888449</v>
+      </c>
+      <c r="C192" s="1">
+        <v>0.11825000000000099</v>
+      </c>
+      <c r="D192" s="1">
+        <v>3.1365249999999998</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>193</v>
       </c>
-      <c r="B193">
-        <v>8.7115000000000907E-3</v>
-      </c>
-      <c r="C193">
-        <v>-1.34935</v>
-      </c>
-      <c r="D193">
-        <v>1.413273</v>
+      <c r="B193" s="1">
+        <v>0.79011735000000005</v>
+      </c>
+      <c r="C193" s="1">
+        <v>-0.69117419999999996</v>
+      </c>
+      <c r="D193" s="1">
+        <v>2.3028740000000001</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>194</v>
       </c>
-      <c r="B194">
-        <v>-0.13613349999999999</v>
-      </c>
-      <c r="C194">
-        <v>-1.5612809999999999</v>
-      </c>
-      <c r="D194">
-        <v>1.2550425999999999</v>
+      <c r="B194" s="1">
+        <v>0.58688799999999997</v>
+      </c>
+      <c r="C194" s="1">
+        <v>-0.88339918000000095</v>
+      </c>
+      <c r="D194" s="1">
+        <v>2.2039260000000001</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>195</v>
       </c>
-      <c r="B195">
-        <v>0.59238650000000004</v>
-      </c>
-      <c r="C195">
-        <v>-0.91798900000000005</v>
-      </c>
-      <c r="D195">
-        <v>2.076365</v>
+      <c r="B195" s="1">
+        <v>1.3534805000000001</v>
+      </c>
+      <c r="C195" s="1">
+        <v>-0.27260000000000001</v>
+      </c>
+      <c r="D195" s="1">
+        <v>2.9751289999999999</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>196</v>
       </c>
-      <c r="B196">
-        <v>0.39474999999999999</v>
-      </c>
-      <c r="C196">
-        <v>-1.0702130000000001</v>
-      </c>
-      <c r="D196">
-        <v>1.7817750000000001</v>
+      <c r="B196" s="1">
+        <v>1.1297349999999999</v>
+      </c>
+      <c r="C196" s="1">
+        <v>-0.38597520999999901</v>
+      </c>
+      <c r="D196" s="1">
+        <v>2.7162191999999998</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>197</v>
       </c>
-      <c r="B197">
-        <v>0.86542149999999995</v>
-      </c>
-      <c r="C197">
-        <v>-0.63469100000000001</v>
-      </c>
-      <c r="D197">
-        <v>2.4662662000000002</v>
+      <c r="B197" s="1">
+        <v>1.6120805</v>
+      </c>
+      <c r="C197" s="1">
+        <v>-0.120589</v>
+      </c>
+      <c r="D197" s="1">
+        <v>3.3228900000000001</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>198</v>
       </c>
-      <c r="B198">
-        <v>1.0748825</v>
-      </c>
-      <c r="C198">
-        <v>-0.378973</v>
-      </c>
-      <c r="D198">
-        <v>2.5022340000000001</v>
+      <c r="B198" s="1">
+        <v>1.8111759000000001</v>
+      </c>
+      <c r="C198" s="1">
+        <v>0.179567</v>
+      </c>
+      <c r="D198" s="1">
+        <v>3.317437</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>199</v>
       </c>
-      <c r="B199">
-        <v>8.0484999999999602E-3</v>
-      </c>
-      <c r="C199">
-        <v>-1.418461</v>
-      </c>
-      <c r="D199">
-        <v>1.4352860000000001</v>
+      <c r="B199" s="1">
+        <v>0.73834499999999903</v>
+      </c>
+      <c r="C199" s="1">
+        <v>-0.86501619999999901</v>
+      </c>
+      <c r="D199" s="1">
+        <v>2.263709</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>200</v>
       </c>
-      <c r="B200">
-        <v>3.7589500000000102E-2</v>
-      </c>
-      <c r="C200">
-        <v>-1.5408230000000001</v>
-      </c>
-      <c r="D200">
-        <v>1.5624070000000001</v>
+      <c r="B200" s="1">
+        <v>0.78379350000000003</v>
+      </c>
+      <c r="C200" s="1">
+        <v>-0.92705300000000002</v>
+      </c>
+      <c r="D200" s="1">
+        <v>2.484</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>201</v>
       </c>
-      <c r="B201">
-        <v>0.68799895</v>
-      </c>
-      <c r="C201">
-        <v>-1.2742880000000001</v>
-      </c>
-      <c r="D201">
-        <v>2.6369419999999999</v>
+      <c r="B201" s="1">
+        <v>1.4265083999999999</v>
+      </c>
+      <c r="C201" s="1">
+        <v>-0.74895400000000001</v>
+      </c>
+      <c r="D201" s="1">
+        <v>3.41906</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>202</v>
       </c>
-      <c r="B202">
-        <v>0.63727699999999998</v>
-      </c>
-      <c r="C202">
-        <v>-0.86659399999999998</v>
-      </c>
-      <c r="D202">
-        <v>2.2193809999999998</v>
+      <c r="B202" s="1">
+        <v>1.3474465</v>
+      </c>
+      <c r="C202" s="1">
+        <v>-0.29239300000000001</v>
+      </c>
+      <c r="D202" s="1">
+        <v>3.1288879999999999</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>203</v>
       </c>
-      <c r="B203">
-        <v>1.0548647474999999</v>
-      </c>
-      <c r="C203">
-        <v>-0.62586600000000003</v>
-      </c>
-      <c r="D203">
-        <v>2.6052903000000001</v>
+      <c r="B203" s="1">
+        <v>1.7799199999999999</v>
+      </c>
+      <c r="C203" s="1">
+        <v>6.5280000000003096E-3</v>
+      </c>
+      <c r="D203" s="1">
+        <v>3.545633</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>204</v>
       </c>
-      <c r="B204">
-        <v>0.50877349999999999</v>
-      </c>
-      <c r="C204">
-        <v>-1.0347466000000001</v>
-      </c>
-      <c r="D204">
-        <v>2.1854619999999998</v>
+      <c r="B204" s="1">
+        <v>1.1693205</v>
+      </c>
+      <c r="C204" s="1">
+        <v>-0.56908000000000003</v>
+      </c>
+      <c r="D204" s="1">
+        <v>2.9246699999999999</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>205</v>
       </c>
-      <c r="B205">
-        <v>-0.61222350000000003</v>
-      </c>
-      <c r="C205">
-        <v>-2.107291</v>
-      </c>
-      <c r="D205">
-        <v>1.1448700000000001</v>
+      <c r="B205" s="1">
+        <v>3.8922000000000102E-2</v>
+      </c>
+      <c r="C205" s="1">
+        <v>-1.5735710000000001</v>
+      </c>
+      <c r="D205" s="1">
+        <v>1.919773</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>206</v>
       </c>
-      <c r="B206">
-        <v>-1.037631</v>
-      </c>
-      <c r="C206">
-        <v>-1.4984200000000001</v>
-      </c>
-      <c r="D206">
-        <v>-0.62105100000000002</v>
+      <c r="B206" s="1">
+        <v>-1.0111479999999999</v>
+      </c>
+      <c r="C206" s="1">
+        <v>-1.4178379999999999</v>
+      </c>
+      <c r="D206" s="1">
+        <v>-0.60079899999999997</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>207</v>
       </c>
-      <c r="B207">
-        <v>1.1359714000000001</v>
-      </c>
-      <c r="C207">
-        <v>-0.17042599999999999</v>
-      </c>
-      <c r="D207">
-        <v>2.511536</v>
+      <c r="B207" s="1">
+        <v>1.0769997</v>
+      </c>
+      <c r="C207" s="1">
+        <v>-0.24715400000000001</v>
+      </c>
+      <c r="D207" s="1">
+        <v>2.38131</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>208</v>
       </c>
-      <c r="B208">
-        <v>-0.28893999999999997</v>
-      </c>
-      <c r="C208">
-        <v>-0.99428099999999997</v>
-      </c>
-      <c r="D208">
-        <v>0.34798899999999999</v>
+      <c r="B208" s="1">
+        <v>-0.23102039999999999</v>
+      </c>
+      <c r="C208" s="1">
+        <v>-0.90105420000000003</v>
+      </c>
+      <c r="D208" s="1">
+        <v>0.39130500000000001</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>209</v>
       </c>
-      <c r="B209">
-        <v>-0.66637749999999996</v>
-      </c>
-      <c r="C209">
-        <v>-2.0736648999999998</v>
-      </c>
-      <c r="D209">
-        <v>0.58924699999999997</v>
+      <c r="B209" s="1">
+        <v>8.8776250000000001E-2</v>
+      </c>
+      <c r="C209" s="1">
+        <v>-1.37805</v>
+      </c>
+      <c r="D209" s="1">
+        <v>1.5768279999999999</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>210</v>
       </c>
-      <c r="B210">
-        <v>7.7604999999998604E-3</v>
-      </c>
-      <c r="C210">
-        <v>-1.2909303000000001</v>
-      </c>
-      <c r="D210">
-        <v>1.4703379999999999</v>
+      <c r="B210" s="1">
+        <v>0.79068899999999998</v>
+      </c>
+      <c r="C210" s="1">
+        <v>-0.66685830000000001</v>
+      </c>
+      <c r="D210" s="1">
+        <v>2.2947964000000001</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>211</v>
       </c>
-      <c r="B211">
-        <v>7.6531150000000006E-2</v>
-      </c>
-      <c r="C211">
-        <v>-1.2594240000000001</v>
-      </c>
-      <c r="D211">
-        <v>1.424566</v>
+      <c r="B211" s="1">
+        <v>0.89036439999999994</v>
+      </c>
+      <c r="C211" s="1">
+        <v>-0.64642999999999995</v>
+      </c>
+      <c r="D211" s="1">
+        <v>2.305123</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>212</v>
       </c>
-      <c r="B212">
-        <v>0.55929355000000003</v>
-      </c>
-      <c r="C212">
-        <v>-0.77925500000000003</v>
-      </c>
-      <c r="D212">
-        <v>1.9512179000000001</v>
+      <c r="B212" s="1">
+        <v>1.372265735</v>
+      </c>
+      <c r="C212" s="1">
+        <v>-0.1557153</v>
+      </c>
+      <c r="D212" s="1">
+        <v>2.8583370000000001</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>213</v>
       </c>
-      <c r="B213">
-        <v>0.25829600000000003</v>
-      </c>
-      <c r="C213">
-        <v>-1.041957</v>
-      </c>
-      <c r="D213">
-        <v>1.7062269999999999</v>
+      <c r="B213" s="1">
+        <v>1.0719590000000001</v>
+      </c>
+      <c r="C213" s="1">
+        <v>-0.46299399999999902</v>
+      </c>
+      <c r="D213" s="1">
+        <v>2.5308755600000001</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>214</v>
       </c>
-      <c r="B214">
-        <v>-0.541709</v>
-      </c>
-      <c r="C214">
-        <v>-1.8406799</v>
-      </c>
-      <c r="D214">
-        <v>0.86349600000000004</v>
+      <c r="B214" s="1">
+        <v>0.26689950000000001</v>
+      </c>
+      <c r="C214" s="1">
+        <v>-1.2410749999999999</v>
+      </c>
+      <c r="D214" s="1">
+        <v>1.7110829999999999</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>215</v>
       </c>
-      <c r="B215">
-        <v>-0.68823000000000001</v>
-      </c>
-      <c r="C215">
-        <v>-2.1008079999999998</v>
-      </c>
-      <c r="D215">
-        <v>0.6355999</v>
+      <c r="B215" s="1">
+        <v>7.1206700000000303E-2</v>
+      </c>
+      <c r="C215" s="1">
+        <v>-1.447109</v>
+      </c>
+      <c r="D215" s="1">
+        <v>1.5551950000000001</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>216</v>
       </c>
-      <c r="B216">
-        <v>4.8643949999999901E-2</v>
-      </c>
-      <c r="C216">
-        <v>-1.3789692</v>
-      </c>
-      <c r="D216">
-        <v>1.5473330000000001</v>
+      <c r="B216" s="1">
+        <v>0.81749225000000003</v>
+      </c>
+      <c r="C216" s="1">
+        <v>-0.746143</v>
+      </c>
+      <c r="D216" s="1">
+        <v>2.407813</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>217</v>
       </c>
-      <c r="B217">
-        <v>-0.14364425</v>
-      </c>
-      <c r="C217">
-        <v>-1.4930669999999999</v>
-      </c>
-      <c r="D217">
-        <v>1.233015</v>
+      <c r="B217" s="1">
+        <v>0.59548999999999996</v>
+      </c>
+      <c r="C217" s="1">
+        <v>-0.88217120000000004</v>
+      </c>
+      <c r="D217" s="1">
+        <v>2.1044299999999998</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>218</v>
       </c>
-      <c r="B218">
-        <v>0.31413039999999998</v>
-      </c>
-      <c r="C218">
-        <v>-1.1620999999999999</v>
-      </c>
-      <c r="D218">
-        <v>1.8842829999999999</v>
+      <c r="B218" s="1">
+        <v>1.0869092499999999</v>
+      </c>
+      <c r="C218" s="1">
+        <v>-0.52140200000000003</v>
+      </c>
+      <c r="D218" s="1">
+        <v>2.7917909999999999</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>219</v>
       </c>
-      <c r="B219">
-        <v>0.52272481500000001</v>
-      </c>
-      <c r="C219">
-        <v>-0.82405300000000004</v>
-      </c>
-      <c r="D219">
-        <v>2.0142145899999999</v>
+      <c r="B219" s="1">
+        <v>1.2709954999999999</v>
+      </c>
+      <c r="C219" s="1">
+        <v>-0.17313800000000101</v>
+      </c>
+      <c r="D219" s="1">
+        <v>2.8848440000000002</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>220</v>
       </c>
-      <c r="B220">
-        <v>-0.54121850000000005</v>
-      </c>
-      <c r="C220">
-        <v>-1.9443250000000001</v>
-      </c>
-      <c r="D220">
-        <v>0.83913800000000005</v>
+      <c r="B220" s="1">
+        <v>0.21128440000000001</v>
+      </c>
+      <c r="C220" s="1">
+        <v>-1.1935051999999999</v>
+      </c>
+      <c r="D220" s="1">
+        <v>1.79609</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>221</v>
       </c>
-      <c r="B221">
-        <v>-0.48796050000000002</v>
-      </c>
-      <c r="C221">
-        <v>-2.027641</v>
-      </c>
-      <c r="D221">
-        <v>1.048794</v>
+      <c r="B221" s="1">
+        <v>0.25660064999999999</v>
+      </c>
+      <c r="C221" s="1">
+        <v>-1.4244380000000001</v>
+      </c>
+      <c r="D221" s="1">
+        <v>1.8815919999999999</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>222</v>
       </c>
-      <c r="B222">
-        <v>0.14927865000000001</v>
-      </c>
-      <c r="C222">
-        <v>-1.857183</v>
-      </c>
-      <c r="D222">
-        <v>2.0758054000000001</v>
+      <c r="B222" s="1">
+        <v>0.89541035000000102</v>
+      </c>
+      <c r="C222" s="1">
+        <v>-1.2604649999999999</v>
+      </c>
+      <c r="D222" s="1">
+        <v>2.8432780000000002</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>223</v>
       </c>
-      <c r="B223">
-        <v>9.6779000000000101E-2</v>
-      </c>
-      <c r="C223">
-        <v>-1.3837476</v>
-      </c>
-      <c r="D223">
-        <v>1.6589849000000001</v>
+      <c r="B223" s="1">
+        <v>0.82727249999999997</v>
+      </c>
+      <c r="C223" s="1">
+        <v>-0.84761700000000095</v>
+      </c>
+      <c r="D223" s="1">
+        <v>2.4460850000000001</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>224</v>
       </c>
-      <c r="B224">
-        <v>0.50298765000000001</v>
-      </c>
-      <c r="C224">
-        <v>-1.031317</v>
-      </c>
-      <c r="D224">
-        <v>2.1669839999999998</v>
+      <c r="B224" s="1">
+        <v>1.2546596999999999</v>
+      </c>
+      <c r="C224" s="1">
+        <v>-0.50697269999999905</v>
+      </c>
+      <c r="D224" s="1">
+        <v>2.9079999999999999</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>225</v>
       </c>
-      <c r="B225">
-        <v>-3.1813500000000001E-2</v>
-      </c>
-      <c r="C225">
-        <v>-1.6087616</v>
-      </c>
-      <c r="D225">
-        <v>1.5596179999999999</v>
+      <c r="B225" s="1">
+        <v>0.64368500000000095</v>
+      </c>
+      <c r="C225" s="1">
+        <v>-1.0063172</v>
+      </c>
+      <c r="D225" s="1">
+        <v>2.35419</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>226</v>
       </c>
-      <c r="B226">
-        <v>-1.1487700000000001</v>
-      </c>
-      <c r="C226">
-        <v>-2.7613490000000001</v>
-      </c>
-      <c r="D226">
-        <v>0.40778599999999998</v>
+      <c r="B226" s="1">
+        <v>-0.47471291999999998</v>
+      </c>
+      <c r="C226" s="1">
+        <v>-2.1055440000000001</v>
+      </c>
+      <c r="D226" s="1">
+        <v>1.266105</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>227</v>
       </c>
-      <c r="B227">
-        <v>2.1523004999999999</v>
-      </c>
-      <c r="C227">
-        <v>0.78395599999999999</v>
-      </c>
-      <c r="D227">
-        <v>3.4984199999999999</v>
+      <c r="B227" s="1">
+        <v>2.0888089999999999</v>
+      </c>
+      <c r="C227" s="1">
+        <v>0.78658099999999898</v>
+      </c>
+      <c r="D227" s="1">
+        <v>3.4515699999999998</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>228</v>
       </c>
-      <c r="B228">
-        <v>0.75740149999999995</v>
-      </c>
-      <c r="C228">
-        <v>6.7150999999999697E-2</v>
-      </c>
-      <c r="D228">
-        <v>1.4291240000000001</v>
+      <c r="B228" s="1">
+        <v>0.78366999999999998</v>
+      </c>
+      <c r="C228" s="1">
+        <v>0.133209999999999</v>
+      </c>
+      <c r="D228" s="1">
+        <v>1.447227</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>229</v>
       </c>
-      <c r="B229">
-        <v>0.3784325</v>
-      </c>
-      <c r="C229">
-        <v>-0.91387200000000002</v>
-      </c>
-      <c r="D229">
-        <v>1.800279</v>
+      <c r="B229" s="1">
+        <v>1.1069585</v>
+      </c>
+      <c r="C229" s="1">
+        <v>-0.41702299999999898</v>
+      </c>
+      <c r="D229" s="1">
+        <v>2.5892460000000002</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>230</v>
       </c>
-      <c r="B230">
-        <v>1.0462102499999999</v>
-      </c>
-      <c r="C230">
-        <v>-0.21337</v>
-      </c>
-      <c r="D230">
-        <v>2.5689229999999998</v>
+      <c r="B230" s="1">
+        <v>1.7994114999999999</v>
+      </c>
+      <c r="C230" s="1">
+        <v>0.29288500000000101</v>
+      </c>
+      <c r="D230" s="1">
+        <v>3.3108170000000001</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>231</v>
       </c>
-      <c r="B231">
-        <v>1.12523</v>
-      </c>
-      <c r="C231">
-        <v>-0.16781699999999999</v>
-      </c>
-      <c r="D231">
-        <v>2.5595059999999998</v>
+      <c r="B231" s="1">
+        <v>1.9062174999999999</v>
+      </c>
+      <c r="C231" s="1">
+        <v>0.33768700000000001</v>
+      </c>
+      <c r="D231" s="1">
+        <v>3.318829</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>232</v>
       </c>
-      <c r="B232">
-        <v>1.59915725</v>
-      </c>
-      <c r="C232">
-        <v>0.26760699999999998</v>
-      </c>
-      <c r="D232">
-        <v>3.0304419999999999</v>
+      <c r="B232" s="1">
+        <v>2.3928832999999998</v>
+      </c>
+      <c r="C232" s="1">
+        <v>0.79471200000000097</v>
+      </c>
+      <c r="D232" s="1">
+        <v>3.8219859999999999</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>233</v>
       </c>
-      <c r="B233">
-        <v>1.2944374999999999</v>
-      </c>
-      <c r="C233">
-        <v>-2.9687000000000099E-2</v>
-      </c>
-      <c r="D233">
-        <v>2.7559979999999999</v>
+      <c r="B233" s="1">
+        <v>2.0874700000000002</v>
+      </c>
+      <c r="C233" s="1">
+        <v>0.54917099999999996</v>
+      </c>
+      <c r="D233" s="1">
+        <v>3.571755</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>234</v>
       </c>
-      <c r="B234">
-        <v>0.50102899999999995</v>
-      </c>
-      <c r="C234">
-        <v>-0.81398000000000004</v>
-      </c>
-      <c r="D234">
-        <v>1.910209</v>
+      <c r="B234" s="1">
+        <v>1.2844905</v>
+      </c>
+      <c r="C234" s="1">
+        <v>-0.32553199999999999</v>
+      </c>
+      <c r="D234" s="1">
+        <v>2.6697229999999998</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>235</v>
       </c>
-      <c r="B235">
-        <v>0.35156749999999998</v>
-      </c>
-      <c r="C235">
-        <v>-1.049706</v>
-      </c>
-      <c r="D235">
-        <v>1.7347490000000001</v>
+      <c r="B235" s="1">
+        <v>1.0800882000000001</v>
+      </c>
+      <c r="C235" s="1">
+        <v>-0.52874918000000104</v>
+      </c>
+      <c r="D235" s="1">
+        <v>2.5441980000000002</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>236</v>
       </c>
-      <c r="B236">
-        <v>1.1006769999999999</v>
-      </c>
-      <c r="C236">
-        <v>-0.30397299999999999</v>
-      </c>
-      <c r="D236">
-        <v>2.635202</v>
+      <c r="B236" s="1">
+        <v>1.832872295</v>
+      </c>
+      <c r="C236" s="1">
+        <v>0.182147000000001</v>
+      </c>
+      <c r="D236" s="1">
+        <v>3.41629</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>237</v>
       </c>
-      <c r="B237">
-        <v>0.89038949999999994</v>
-      </c>
-      <c r="C237">
-        <v>-0.50777799999999995</v>
-      </c>
-      <c r="D237">
-        <v>2.2676449999999999</v>
+      <c r="B237" s="1">
+        <v>1.6136705</v>
+      </c>
+      <c r="C237" s="1">
+        <v>0.17344000000000001</v>
+      </c>
+      <c r="D237" s="1">
+        <v>3.2042350000000002</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>238</v>
       </c>
-      <c r="B238">
-        <v>1.368201</v>
-      </c>
-      <c r="C238">
-        <v>-0.17548</v>
-      </c>
-      <c r="D238">
-        <v>2.9092970999999999</v>
+      <c r="B238" s="1">
+        <v>2.0829005</v>
+      </c>
+      <c r="C238" s="1">
+        <v>0.458509</v>
+      </c>
+      <c r="D238" s="1">
+        <v>3.7814489999999998</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>239</v>
       </c>
-      <c r="B239">
-        <v>1.57429</v>
-      </c>
-      <c r="C239">
-        <v>0.227157</v>
-      </c>
-      <c r="D239">
-        <v>3.094732</v>
+      <c r="B239" s="1">
+        <v>2.3089395000000001</v>
+      </c>
+      <c r="C239" s="1">
+        <v>0.79572799999999999</v>
+      </c>
+      <c r="D239" s="1">
+        <v>3.9187400000000001</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>240</v>
       </c>
-      <c r="B240">
-        <v>0.50478800000000001</v>
-      </c>
-      <c r="C240">
-        <v>-0.86408399999999996</v>
-      </c>
-      <c r="D240">
-        <v>1.9292290000000001</v>
+      <c r="B240" s="1">
+        <v>1.2246909500000001</v>
+      </c>
+      <c r="C240" s="1">
+        <v>-0.3466108</v>
+      </c>
+      <c r="D240" s="1">
+        <v>2.7067290000000002</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>241</v>
       </c>
-      <c r="B241">
-        <v>0.54129894999999995</v>
-      </c>
-      <c r="C241">
-        <v>-0.93976300000000001</v>
-      </c>
-      <c r="D241">
-        <v>2.0916410000000001</v>
+      <c r="B241" s="1">
+        <v>1.2748895</v>
+      </c>
+      <c r="C241" s="1">
+        <v>-0.51389399999999996</v>
+      </c>
+      <c r="D241" s="1">
+        <v>2.8511169999999999</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>242</v>
       </c>
-      <c r="B242">
-        <v>1.201668</v>
-      </c>
-      <c r="C242">
-        <v>-0.67078099999999996</v>
-      </c>
-      <c r="D242">
-        <v>3.2493609999999999</v>
+      <c r="B242" s="1">
+        <v>1.9071720000000001</v>
+      </c>
+      <c r="C242" s="1">
+        <v>-0.27268099999999901</v>
+      </c>
+      <c r="D242" s="1">
+        <v>3.832281</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>243</v>
       </c>
-      <c r="B243">
-        <v>1.145451</v>
-      </c>
-      <c r="C243">
-        <v>-0.35802</v>
-      </c>
-      <c r="D243">
-        <v>2.6555740000000001</v>
+      <c r="B243" s="1">
+        <v>1.8576305</v>
+      </c>
+      <c r="C243" s="1">
+        <v>6.7667000000001004E-2</v>
+      </c>
+      <c r="D243" s="1">
+        <v>3.426749</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>244</v>
       </c>
-      <c r="B244">
-        <v>1.54544525</v>
-      </c>
-      <c r="C244">
-        <v>1.0111999999999901E-2</v>
-      </c>
-      <c r="D244">
-        <v>3.2205780000000002</v>
+      <c r="B244" s="1">
+        <v>2.2702754999999999</v>
+      </c>
+      <c r="C244" s="1">
+        <v>0.49920340000000002</v>
+      </c>
+      <c r="D244" s="1">
+        <v>3.9609622</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>245</v>
       </c>
-      <c r="B245">
-        <v>1.012947</v>
-      </c>
-      <c r="C245">
-        <v>-0.547962587</v>
-      </c>
-      <c r="D245">
-        <v>2.6248079999999998</v>
+      <c r="B245" s="1">
+        <v>1.6520630000000001</v>
+      </c>
+      <c r="C245" s="1">
+        <v>-3.0859000000001299E-2</v>
+      </c>
+      <c r="D245" s="1">
+        <v>3.3830800000000001</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>246</v>
       </c>
-      <c r="B246">
-        <v>-0.10573200000000001</v>
-      </c>
-      <c r="C246">
-        <v>-1.657159</v>
-      </c>
-      <c r="D246">
-        <v>1.507039</v>
+      <c r="B246" s="1">
+        <v>0.54149879999999995</v>
+      </c>
+      <c r="C246" s="1">
+        <v>-1.1399539999999999</v>
+      </c>
+      <c r="D246" s="1">
+        <v>2.2726199999999999</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>247</v>
       </c>
-      <c r="B247">
-        <v>-1.4121602499999999</v>
-      </c>
-      <c r="C247">
-        <v>-2.8767990000000001</v>
-      </c>
-      <c r="D247">
-        <v>-8.3680000000001496E-3</v>
+      <c r="B247" s="1">
+        <v>-1.308971975</v>
+      </c>
+      <c r="C247" s="1">
+        <v>-2.7951397999999998</v>
+      </c>
+      <c r="D247" s="1">
+        <v>1.27400000000004E-2</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>248</v>
       </c>
-      <c r="B248">
-        <v>-1.8068725000000001</v>
-      </c>
-      <c r="C248">
-        <v>-3.7199076999999998</v>
-      </c>
-      <c r="D248">
-        <v>-6.7294000000000007E-2</v>
+      <c r="B248" s="1">
+        <v>-1.0030173499999999</v>
+      </c>
+      <c r="C248" s="1">
+        <v>-2.8694099999999998</v>
+      </c>
+      <c r="D248" s="1">
+        <v>1.0117022</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>249</v>
       </c>
-      <c r="B249">
-        <v>-1.1342774499999999</v>
-      </c>
-      <c r="C249">
-        <v>-2.9408340000000002</v>
-      </c>
-      <c r="D249">
-        <v>0.72768100000000002</v>
+      <c r="B249" s="1">
+        <v>-0.31343529999999897</v>
+      </c>
+      <c r="C249" s="1">
+        <v>-2.2462879999999998</v>
+      </c>
+      <c r="D249" s="1">
+        <v>1.693643</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>250</v>
       </c>
-      <c r="B250">
-        <v>-1.0531200000000001</v>
-      </c>
-      <c r="C250">
-        <v>-2.8591199999999999</v>
-      </c>
-      <c r="D250">
-        <v>0.82686300000000001</v>
+      <c r="B250" s="1">
+        <v>-0.2159305</v>
+      </c>
+      <c r="C250" s="1">
+        <v>-2.2030959999999999</v>
+      </c>
+      <c r="D250" s="1">
+        <v>1.6749830000000001</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>251</v>
       </c>
-      <c r="B251">
-        <v>-0.57580604999999996</v>
-      </c>
-      <c r="C251">
-        <v>-2.5134409</v>
-      </c>
-      <c r="D251">
-        <v>1.2155229999999999</v>
+      <c r="B251" s="1">
+        <v>0.25685390000000002</v>
+      </c>
+      <c r="C251" s="1">
+        <v>-1.6070489999999999</v>
+      </c>
+      <c r="D251" s="1">
+        <v>2.3104740000000001</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>252</v>
       </c>
-      <c r="B252">
-        <v>-0.87193549999999997</v>
-      </c>
-      <c r="C252">
-        <v>-2.8220239999999999</v>
-      </c>
-      <c r="D252">
-        <v>0.88680199999999998</v>
+      <c r="B252" s="1">
+        <v>-3.9397999999999801E-2</v>
+      </c>
+      <c r="C252" s="1">
+        <v>-1.864919</v>
+      </c>
+      <c r="D252" s="1">
+        <v>2.0538530000000002</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>253</v>
       </c>
-      <c r="B253">
-        <v>-1.6762630000000001</v>
-      </c>
-      <c r="C253">
-        <v>-3.5377670000000001</v>
-      </c>
-      <c r="D253">
-        <v>0.12789500000000001</v>
+      <c r="B253" s="1">
+        <v>-0.83237655000000099</v>
+      </c>
+      <c r="C253" s="1">
+        <v>-2.7152349999999998</v>
+      </c>
+      <c r="D253" s="1">
+        <v>1.1668700000000001</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>254</v>
       </c>
-      <c r="B254">
-        <v>-1.8351265000000001</v>
-      </c>
-      <c r="C254">
-        <v>-3.6923777000000002</v>
-      </c>
-      <c r="D254">
-        <v>1.4686980000000001E-2</v>
+      <c r="B254" s="1">
+        <v>-1.015245</v>
+      </c>
+      <c r="C254" s="1">
+        <v>-3.055971</v>
+      </c>
+      <c r="D254" s="1">
+        <v>0.90628399999999998</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>255</v>
       </c>
-      <c r="B255">
-        <v>-1.0938488</v>
-      </c>
-      <c r="C255">
-        <v>-2.990316</v>
-      </c>
-      <c r="D255">
-        <v>0.81167299999999998</v>
+      <c r="B255" s="1">
+        <v>-0.27788750000000001</v>
+      </c>
+      <c r="C255" s="1">
+        <v>-2.2817910000000001</v>
+      </c>
+      <c r="D255" s="1">
+        <v>1.7900860000000001</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>256</v>
       </c>
-      <c r="B256">
-        <v>-1.2914425</v>
-      </c>
-      <c r="C256">
-        <v>-3.148129</v>
-      </c>
-      <c r="D256">
-        <v>0.53788000000000002</v>
+      <c r="B256" s="1">
+        <v>-0.49406450000000002</v>
+      </c>
+      <c r="C256" s="1">
+        <v>-2.400417</v>
+      </c>
+      <c r="D256" s="1">
+        <v>1.598455</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>257</v>
       </c>
-      <c r="B257">
-        <v>-0.82913970000000004</v>
-      </c>
-      <c r="C257">
-        <v>-2.7700770000000001</v>
-      </c>
-      <c r="D257">
-        <v>1.191152</v>
+      <c r="B257" s="1">
+        <v>3.4074999999989002E-4</v>
+      </c>
+      <c r="C257" s="1">
+        <v>-2.1757369999999998</v>
+      </c>
+      <c r="D257" s="1">
+        <v>1.9235144</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>258</v>
       </c>
-      <c r="B258">
-        <v>-0.61149500000000001</v>
-      </c>
-      <c r="C258">
-        <v>-2.5370569999999999</v>
-      </c>
-      <c r="D258">
-        <v>1.1578470000000001</v>
+      <c r="B258" s="1">
+        <v>0.18453049999999999</v>
+      </c>
+      <c r="C258" s="1">
+        <v>-1.9290179999999999</v>
+      </c>
+      <c r="D258" s="1">
+        <v>2.0613239999999999</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>259</v>
       </c>
-      <c r="B259">
-        <v>-1.6722159999999999</v>
-      </c>
-      <c r="C259">
-        <v>-3.5578620000000001</v>
-      </c>
-      <c r="D259">
-        <v>0.1330933</v>
+      <c r="B259" s="1">
+        <v>-0.86607199999999995</v>
+      </c>
+      <c r="C259" s="1">
+        <v>-2.7411629999999998</v>
+      </c>
+      <c r="D259" s="1">
+        <v>1.2366600000000001</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>260</v>
       </c>
-      <c r="B260">
-        <v>-1.60661995</v>
-      </c>
-      <c r="C260">
-        <v>-3.5691579999999998</v>
-      </c>
-      <c r="D260">
-        <v>0.39693000000000001</v>
+      <c r="B260" s="1">
+        <v>-0.82704500000000003</v>
+      </c>
+      <c r="C260" s="1">
+        <v>-3.0724459999999998</v>
+      </c>
+      <c r="D260" s="1">
+        <v>1.080174</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>261</v>
       </c>
-      <c r="B261">
-        <v>-1.0049939999999999</v>
-      </c>
-      <c r="C261">
-        <v>-3.1690680000000002</v>
-      </c>
-      <c r="D261">
-        <v>1.3965358000000001</v>
+      <c r="B261" s="1">
+        <v>-0.200709</v>
+      </c>
+      <c r="C261" s="1">
+        <v>-2.6078670000000002</v>
+      </c>
+      <c r="D261" s="1">
+        <v>2.2560250000000002</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>262</v>
       </c>
-      <c r="B262">
-        <v>-1.0357730000000001</v>
-      </c>
-      <c r="C262">
-        <v>-3.0508039999999998</v>
-      </c>
-      <c r="D262">
-        <v>0.87672600000000001</v>
+      <c r="B262" s="1">
+        <v>-0.25786084999999997</v>
+      </c>
+      <c r="C262" s="1">
+        <v>-2.422199</v>
+      </c>
+      <c r="D262" s="1">
+        <v>1.7013039999999999</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>263</v>
       </c>
-      <c r="B263">
-        <v>-0.63459734999999995</v>
-      </c>
-      <c r="C263">
-        <v>-2.5799330999999999</v>
-      </c>
-      <c r="D263">
-        <v>1.508259</v>
+      <c r="B263" s="1">
+        <v>0.15527450000000001</v>
+      </c>
+      <c r="C263" s="1">
+        <v>-2.0404040000000001</v>
+      </c>
+      <c r="D263" s="1">
+        <v>2.2048675000000002</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>264</v>
       </c>
-      <c r="B264">
-        <v>-1.14631145</v>
-      </c>
-      <c r="C264">
-        <v>-3.2178249999999999</v>
-      </c>
-      <c r="D264">
-        <v>0.79728900000000003</v>
+      <c r="B264" s="1">
+        <v>-0.46386329999999898</v>
+      </c>
+      <c r="C264" s="1">
+        <v>-2.5504090000000001</v>
+      </c>
+      <c r="D264" s="1">
+        <v>1.5956649999999999</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>265</v>
       </c>
-      <c r="B265">
-        <v>-2.2806698500000002</v>
-      </c>
-      <c r="C265">
-        <v>-4.1864369999999997</v>
-      </c>
-      <c r="D265">
-        <v>-0.25801000000000002</v>
+      <c r="B265" s="1">
+        <v>-1.5499265</v>
+      </c>
+      <c r="C265" s="1">
+        <v>-3.6132226200000002</v>
+      </c>
+      <c r="D265" s="1">
+        <v>0.56416300000000097</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>266</v>
       </c>
-      <c r="B266">
-        <v>-0.37318699999999999</v>
-      </c>
-      <c r="C266">
-        <v>-1.7699750000000001</v>
-      </c>
-      <c r="D266">
-        <v>1.080052</v>
+      <c r="B266" s="1">
+        <v>0.32477899999999998</v>
+      </c>
+      <c r="C266" s="1">
+        <v>-1.2191749999999999</v>
+      </c>
+      <c r="D266" s="1">
+        <v>1.8830488999999999</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>267</v>
       </c>
-      <c r="B267">
-        <v>0.30625400000000003</v>
-      </c>
-      <c r="C267">
-        <v>-1.1300859999999999</v>
-      </c>
-      <c r="D267">
-        <v>1.797903</v>
+      <c r="B267" s="1">
+        <v>1.0245770000000001</v>
+      </c>
+      <c r="C267" s="1">
+        <v>-0.50508990000000098</v>
+      </c>
+      <c r="D267" s="1">
+        <v>2.6150479999999998</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>268</v>
       </c>
-      <c r="B268">
-        <v>0.36822335499999997</v>
-      </c>
-      <c r="C268">
-        <v>-1.0742039999999999</v>
-      </c>
-      <c r="D268">
-        <v>1.80494</v>
+      <c r="B268" s="1">
+        <v>1.1248370000000001</v>
+      </c>
+      <c r="C268" s="1">
+        <v>-0.46601199999999998</v>
+      </c>
+      <c r="D268" s="1">
+        <v>2.6083669999999999</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>269</v>
       </c>
-      <c r="B269">
-        <v>0.84705165000000004</v>
-      </c>
-      <c r="C269">
-        <v>-0.71512089999999995</v>
-      </c>
-      <c r="D269">
-        <v>2.2454266899999999</v>
+      <c r="B269" s="1">
+        <v>1.6115465499999999</v>
+      </c>
+      <c r="C269" s="1">
+        <v>2.3892999999999302E-3</v>
+      </c>
+      <c r="D269" s="1">
+        <v>3.1307700000000001</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>270</v>
       </c>
-      <c r="B270">
-        <v>0.54799699999999996</v>
-      </c>
-      <c r="C270">
-        <v>-0.89892099999999997</v>
-      </c>
-      <c r="D270">
-        <v>1.995967</v>
+      <c r="B270" s="1">
+        <v>1.2985875</v>
+      </c>
+      <c r="C270" s="1">
+        <v>-0.32219829999999999</v>
+      </c>
+      <c r="D270" s="1">
+        <v>2.8002470000000002</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>271</v>
       </c>
-      <c r="B271">
-        <v>-0.24291689999999999</v>
-      </c>
-      <c r="C271">
-        <v>-1.6510309999999999</v>
-      </c>
-      <c r="D271">
-        <v>1.2028471999999999</v>
+      <c r="B271" s="1">
+        <v>0.50775150000000002</v>
+      </c>
+      <c r="C271" s="1">
+        <v>-1.0536570000000001</v>
+      </c>
+      <c r="D271" s="1">
+        <v>2.0459489999999998</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>272</v>
       </c>
-      <c r="B272">
-        <v>-0.378446</v>
-      </c>
-      <c r="C272">
-        <v>-1.7955760000000001</v>
-      </c>
-      <c r="D272">
-        <v>1.157151</v>
+      <c r="B272" s="1">
+        <v>0.30938549999999898</v>
+      </c>
+      <c r="C272" s="1">
+        <v>-1.323771</v>
+      </c>
+      <c r="D272" s="1">
+        <v>1.8292919999999999</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>273</v>
       </c>
-      <c r="B273">
-        <v>0.35050290000000001</v>
-      </c>
-      <c r="C273">
-        <v>-1.102452</v>
-      </c>
-      <c r="D273">
-        <v>2.0013139999999998</v>
+      <c r="B273" s="1">
+        <v>1.051653575</v>
+      </c>
+      <c r="C273" s="1">
+        <v>-0.64937180000000105</v>
+      </c>
+      <c r="D273" s="1">
+        <v>2.6107493000000002</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>274</v>
       </c>
-      <c r="B274">
-        <v>0.14792749999999999</v>
-      </c>
-      <c r="C274">
-        <v>-1.3399719999999999</v>
-      </c>
-      <c r="D274">
-        <v>1.58514</v>
+      <c r="B274" s="1">
+        <v>0.82561764999999998</v>
+      </c>
+      <c r="C274" s="1">
+        <v>-0.69476499000000003</v>
+      </c>
+      <c r="D274" s="1">
+        <v>2.4400770000000001</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>275</v>
       </c>
-      <c r="B275">
-        <v>0.62556975000000004</v>
-      </c>
-      <c r="C275">
-        <v>-1.0030699999999999</v>
-      </c>
-      <c r="D275">
-        <v>2.2168765000000001</v>
+      <c r="B275" s="1">
+        <v>1.319626</v>
+      </c>
+      <c r="C275" s="1">
+        <v>-0.46534318000000002</v>
+      </c>
+      <c r="D275" s="1">
+        <v>2.9765807</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>276</v>
       </c>
-      <c r="B276">
-        <v>0.82928599999999997</v>
-      </c>
-      <c r="C276">
-        <v>-0.63335010000000003</v>
-      </c>
-      <c r="D276">
-        <v>2.3484769000000001</v>
+      <c r="B276" s="1">
+        <v>1.5259860000000001</v>
+      </c>
+      <c r="C276" s="1">
+        <v>-0.100585999999999</v>
+      </c>
+      <c r="D276" s="1">
+        <v>3.0834366000000002</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>277</v>
       </c>
-      <c r="B277">
-        <v>-0.231516</v>
-      </c>
-      <c r="C277">
-        <v>-1.714488</v>
-      </c>
-      <c r="D277">
-        <v>1.240677</v>
+      <c r="B277" s="1">
+        <v>0.4540825</v>
+      </c>
+      <c r="C277" s="1">
+        <v>-1.1722575</v>
+      </c>
+      <c r="D277" s="1">
+        <v>1.95245</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>278</v>
       </c>
-      <c r="B278">
-        <v>-0.21583627999999999</v>
-      </c>
-      <c r="C278">
-        <v>-1.7553018</v>
-      </c>
-      <c r="D278">
-        <v>1.4158329999999999</v>
+      <c r="B278" s="1">
+        <v>0.50067296500000003</v>
+      </c>
+      <c r="C278" s="1">
+        <v>-1.3292408200000001</v>
+      </c>
+      <c r="D278" s="1">
+        <v>2.1445110000000001</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>279</v>
       </c>
-      <c r="B279">
-        <v>0.45758504999999999</v>
-      </c>
-      <c r="C279">
-        <v>-1.5330760000000001</v>
-      </c>
-      <c r="D279">
-        <v>2.4530438999999999</v>
+      <c r="B279" s="1">
+        <v>1.13655437</v>
+      </c>
+      <c r="C279" s="1">
+        <v>-1.0541180000000001</v>
+      </c>
+      <c r="D279" s="1">
+        <v>3.1760875</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>280</v>
       </c>
-      <c r="B280">
-        <v>0.37777545000000001</v>
-      </c>
-      <c r="C280">
-        <v>-1.1108543</v>
-      </c>
-      <c r="D280">
-        <v>2.0913200000000001</v>
+      <c r="B280" s="1">
+        <v>1.067383</v>
+      </c>
+      <c r="C280" s="1">
+        <v>-0.62807199999999996</v>
+      </c>
+      <c r="D280" s="1">
+        <v>2.7673670000000001</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>281</v>
       </c>
-      <c r="B281">
-        <v>0.78170680000000003</v>
-      </c>
-      <c r="C281">
-        <v>-0.90232800000000002</v>
-      </c>
-      <c r="D281">
-        <v>2.4531399999999999</v>
+      <c r="B281" s="1">
+        <v>1.4949165</v>
+      </c>
+      <c r="C281" s="1">
+        <v>-0.35713060000000002</v>
+      </c>
+      <c r="D281" s="1">
+        <v>3.2359697000000001</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>282</v>
       </c>
-      <c r="B282">
-        <v>0.26295550000000001</v>
-      </c>
-      <c r="C282">
-        <v>-1.394263</v>
-      </c>
-      <c r="D282">
-        <v>1.8855679999999999</v>
+      <c r="B282" s="1">
+        <v>0.870564000000001</v>
+      </c>
+      <c r="C282" s="1">
+        <v>-0.885772</v>
+      </c>
+      <c r="D282" s="1">
+        <v>2.6393460000000002</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>283</v>
       </c>
-      <c r="B283">
-        <v>-0.85926564999999999</v>
-      </c>
-      <c r="C283">
-        <v>-2.5470936000000002</v>
-      </c>
-      <c r="D283">
-        <v>0.78175099999999997</v>
+      <c r="B283" s="1">
+        <v>-0.22052615</v>
+      </c>
+      <c r="C283" s="1">
+        <v>-1.963192</v>
+      </c>
+      <c r="D283" s="1">
+        <v>1.521436</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>284</v>
       </c>
-      <c r="B284">
-        <v>0.66960399999999998</v>
-      </c>
-      <c r="C284">
-        <v>0.36270999999999998</v>
-      </c>
-      <c r="D284">
-        <v>0.98024</v>
+      <c r="B284" s="1">
+        <v>0.69491199999999997</v>
+      </c>
+      <c r="C284" s="1">
+        <v>0.39464000000000099</v>
+      </c>
+      <c r="D284" s="1">
+        <v>1.011808</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>285</v>
       </c>
-      <c r="B285">
-        <v>0.74995350000000005</v>
-      </c>
-      <c r="C285">
-        <v>0.53657999999999995</v>
-      </c>
-      <c r="D285">
-        <v>0.96364499999999997</v>
+      <c r="B285" s="1">
+        <v>0.79149199999999897</v>
+      </c>
+      <c r="C285" s="1">
+        <v>0.57773799999999997</v>
+      </c>
+      <c r="D285" s="1">
+        <v>1.009695</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>286</v>
       </c>
-      <c r="B286">
-        <v>1.22609795</v>
-      </c>
-      <c r="C286">
-        <v>0.890822</v>
-      </c>
-      <c r="D286">
-        <v>1.5647530000000001</v>
+      <c r="B286" s="1">
+        <v>1.270888</v>
+      </c>
+      <c r="C286" s="1">
+        <v>0.91349800000000003</v>
+      </c>
+      <c r="D286" s="1">
+        <v>1.614441</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>287</v>
       </c>
-      <c r="B287">
-        <v>0.92911949999999999</v>
-      </c>
-      <c r="C287">
-        <v>0.65741000000000005</v>
-      </c>
-      <c r="D287">
-        <v>1.2109890000000001</v>
+      <c r="B287" s="1">
+        <v>0.97304449999999998</v>
+      </c>
+      <c r="C287" s="1">
+        <v>0.67571000000000003</v>
+      </c>
+      <c r="D287" s="1">
+        <v>1.2408189999999999</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>288</v>
       </c>
-      <c r="B288">
-        <v>0.132244</v>
-      </c>
-      <c r="C288">
-        <v>-8.0340000000000106E-2</v>
-      </c>
-      <c r="D288">
-        <v>0.37512000000000001</v>
+      <c r="B288" s="1">
+        <v>0.1726105</v>
+      </c>
+      <c r="C288" s="1">
+        <v>-4.1269999999999897E-2</v>
+      </c>
+      <c r="D288" s="1">
+        <v>0.4115219</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>289</v>
       </c>
-      <c r="B289">
-        <v>-1.8371499999999999E-2</v>
-      </c>
-      <c r="C289">
-        <v>-0.50692599999999999</v>
-      </c>
-      <c r="D289">
-        <v>0.48693999999999998</v>
+      <c r="B289" s="1">
+        <v>-1.10415000000001E-2</v>
+      </c>
+      <c r="C289" s="1">
+        <v>-0.48849000000000098</v>
+      </c>
+      <c r="D289" s="1">
+        <v>0.56459999999999999</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>290</v>
       </c>
-      <c r="B290">
-        <v>0.71864099999999997</v>
-      </c>
-      <c r="C290">
-        <v>7.6139999999999902E-2</v>
-      </c>
-      <c r="D290">
-        <v>1.3878630000000001</v>
+      <c r="B290" s="1">
+        <v>0.72270900000000005</v>
+      </c>
+      <c r="C290" s="1">
+        <v>6.7172999999999497E-2</v>
+      </c>
+      <c r="D290" s="1">
+        <v>1.4000300000000001</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>291</v>
       </c>
-      <c r="B291">
-        <v>0.52368999999999999</v>
-      </c>
-      <c r="C291">
-        <v>5.9366999999999899E-2</v>
-      </c>
-      <c r="D291">
-        <v>0.98049600000000003</v>
+      <c r="B291" s="1">
+        <v>0.50656449999999997</v>
+      </c>
+      <c r="C291" s="1">
+        <v>2.7115000000000201E-2</v>
+      </c>
+      <c r="D291" s="1">
+        <v>1.015069</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>292</v>
       </c>
-      <c r="B292">
-        <v>1.0001095</v>
-      </c>
-      <c r="C292">
-        <v>0.105822</v>
-      </c>
-      <c r="D292">
-        <v>1.779776</v>
+      <c r="B292" s="1">
+        <v>1.0015854</v>
+      </c>
+      <c r="C292" s="1">
+        <v>0.166404000000001</v>
+      </c>
+      <c r="D292" s="1">
+        <v>1.8262510000000001</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>293</v>
       </c>
-      <c r="B293">
-        <v>1.2041489999999999</v>
-      </c>
-      <c r="C293">
-        <v>0.65871299999999999</v>
-      </c>
-      <c r="D293">
-        <v>1.768122</v>
+      <c r="B293" s="1">
+        <v>1.2006920000000001</v>
+      </c>
+      <c r="C293" s="1">
+        <v>0.61141200000000095</v>
+      </c>
+      <c r="D293" s="1">
+        <v>1.773323</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>294</v>
       </c>
-      <c r="B294">
-        <v>0.1324775</v>
-      </c>
-      <c r="C294">
-        <v>-0.34918399999999999</v>
-      </c>
-      <c r="D294">
-        <v>0.58963593999999997</v>
+      <c r="B294" s="1">
+        <v>0.12822649999999999</v>
+      </c>
+      <c r="C294" s="1">
+        <v>-0.36171099999999901</v>
+      </c>
+      <c r="D294" s="1">
+        <v>0.60291100000000097</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>295</v>
       </c>
-      <c r="B295">
-        <v>0.17168749999999999</v>
-      </c>
-      <c r="C295">
-        <v>-0.83411599999999997</v>
-      </c>
-      <c r="D295">
-        <v>1.249401</v>
+      <c r="B295" s="1">
+        <v>0.186525</v>
+      </c>
+      <c r="C295" s="1">
+        <v>-1.056616</v>
+      </c>
+      <c r="D295" s="1">
+        <v>1.2089780000000001</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>296</v>
       </c>
-      <c r="B296">
-        <v>0.828407</v>
-      </c>
-      <c r="C296">
-        <v>-0.88549</v>
-      </c>
-      <c r="D296">
-        <v>2.338781</v>
+      <c r="B296" s="1">
+        <v>0.81407249999999998</v>
+      </c>
+      <c r="C296" s="1">
+        <v>-0.80018900000000004</v>
+      </c>
+      <c r="D296" s="1">
+        <v>2.4907910000000002</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>297</v>
       </c>
-      <c r="B297">
-        <v>0.76843300000000003</v>
-      </c>
-      <c r="C297">
-        <v>-0.22988800000000001</v>
-      </c>
-      <c r="D297">
-        <v>1.8192410000000001</v>
+      <c r="B297" s="1">
+        <v>0.73768400000000001</v>
+      </c>
+      <c r="C297" s="1">
+        <v>-0.42129759999999999</v>
+      </c>
+      <c r="D297" s="1">
+        <v>1.8303252000000001</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>298</v>
       </c>
-      <c r="B298">
-        <v>1.176847</v>
-      </c>
-      <c r="C298">
-        <v>9.8358799999999899E-2</v>
-      </c>
-      <c r="D298">
-        <v>2.3934538999999999</v>
+      <c r="B298" s="1">
+        <v>1.160031</v>
+      </c>
+      <c r="C298" s="1">
+        <v>-7.2808999999999499E-2</v>
+      </c>
+      <c r="D298" s="1">
+        <v>2.3727770000000001</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>299</v>
       </c>
-      <c r="B299">
-        <v>0.64107550000000002</v>
-      </c>
-      <c r="C299">
-        <v>-0.435888</v>
-      </c>
-      <c r="D299">
-        <v>1.74769</v>
+      <c r="B299" s="1">
+        <v>0.54557999999999995</v>
+      </c>
+      <c r="C299" s="1">
+        <v>-0.64595200000000097</v>
+      </c>
+      <c r="D299" s="1">
+        <v>1.657932</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>300</v>
       </c>
-      <c r="B300">
-        <v>-0.46886499999999998</v>
-      </c>
-      <c r="C300">
-        <v>-1.5793919999999999</v>
-      </c>
-      <c r="D300">
-        <v>0.62503200000000003</v>
+      <c r="B300" s="1">
+        <v>-0.55577449999999995</v>
+      </c>
+      <c r="C300" s="1">
+        <v>-1.8117669999999999</v>
+      </c>
+      <c r="D300" s="1">
+        <v>0.57475200000000004</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>301</v>
       </c>
-      <c r="B301">
-        <v>7.9607500000000095E-2</v>
-      </c>
-      <c r="C301">
-        <v>-0.23544000000000001</v>
-      </c>
-      <c r="D301">
-        <v>0.39668999999999999</v>
+      <c r="B301" s="1">
+        <v>9.6331500000000694E-2</v>
+      </c>
+      <c r="C301" s="1">
+        <v>-0.22741800000000001</v>
+      </c>
+      <c r="D301" s="1">
+        <v>0.40182000000000001</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>302</v>
       </c>
-      <c r="B302">
-        <v>0.56078899999999998</v>
-      </c>
-      <c r="C302">
-        <v>0.165962</v>
-      </c>
-      <c r="D302">
-        <v>0.98907900000000004</v>
+      <c r="B302" s="1">
+        <v>0.576258300000001</v>
+      </c>
+      <c r="C302" s="1">
+        <v>0.16544400000000001</v>
+      </c>
+      <c r="D302" s="1">
+        <v>0.99118379999999995</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>303</v>
       </c>
-      <c r="B303">
-        <v>0.25848349999999998</v>
-      </c>
-      <c r="C303">
-        <v>-0.12247</v>
-      </c>
-      <c r="D303">
-        <v>0.61024</v>
+      <c r="B303" s="1">
+        <v>0.274816</v>
+      </c>
+      <c r="C303" s="1">
+        <v>-8.2975999999999495E-2</v>
+      </c>
+      <c r="D303" s="1">
+        <v>0.64114300000000002</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>304</v>
       </c>
-      <c r="B304">
-        <v>-0.53677149999999996</v>
-      </c>
-      <c r="C304">
-        <v>-0.86748000000000003</v>
-      </c>
-      <c r="D304">
-        <v>-0.20927999999999999</v>
+      <c r="B304" s="1">
+        <v>-0.52164100000000002</v>
+      </c>
+      <c r="C304" s="1">
+        <v>-0.83486099999999996</v>
+      </c>
+      <c r="D304" s="1">
+        <v>-0.191165999999999</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>305</v>
       </c>
-      <c r="B305">
-        <v>-0.68678700000000004</v>
-      </c>
-      <c r="C305">
-        <v>-1.24701</v>
-      </c>
-      <c r="D305">
-        <v>-0.123972</v>
+      <c r="B305" s="1">
+        <v>-0.70437749999999999</v>
+      </c>
+      <c r="C305" s="1">
+        <v>-1.282538</v>
+      </c>
+      <c r="D305" s="1">
+        <v>-0.13476100000000099</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>306</v>
       </c>
-      <c r="B306">
-        <v>4.9652000000000002E-2</v>
-      </c>
-      <c r="C306">
-        <v>-0.62894000000000005</v>
-      </c>
-      <c r="D306">
-        <v>0.74563299999999999</v>
+      <c r="B306" s="1">
+        <v>2.5097000000000601E-2</v>
+      </c>
+      <c r="C306" s="1">
+        <v>-0.70227399999999995</v>
+      </c>
+      <c r="D306" s="1">
+        <v>0.73249599999999904</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>307</v>
       </c>
-      <c r="B307">
-        <v>-0.148511</v>
-      </c>
-      <c r="C307">
-        <v>-0.68978099999999998</v>
-      </c>
-      <c r="D307">
-        <v>0.34279399999999999</v>
+      <c r="B307" s="1">
+        <v>-0.18624599999999999</v>
+      </c>
+      <c r="C307" s="1">
+        <v>-0.73261810000000205</v>
+      </c>
+      <c r="D307" s="1">
+        <v>0.36128300000000002</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>308</v>
       </c>
-      <c r="B308">
-        <v>0.332673</v>
-      </c>
-      <c r="C308">
-        <v>-0.54134800000000005</v>
-      </c>
-      <c r="D308">
-        <v>1.201611</v>
+      <c r="B308" s="1">
+        <v>0.31073699999999999</v>
+      </c>
+      <c r="C308" s="1">
+        <v>-0.57246199999999903</v>
+      </c>
+      <c r="D308" s="1">
+        <v>1.1727829999999999</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>309</v>
       </c>
-      <c r="B309">
-        <v>0.53783245000000002</v>
-      </c>
-      <c r="C309">
-        <v>-6.9946999999999898E-2</v>
-      </c>
-      <c r="D309">
-        <v>1.1395789999999999</v>
+      <c r="B309" s="1">
+        <v>0.50764450000000005</v>
+      </c>
+      <c r="C309" s="1">
+        <v>-0.142346</v>
+      </c>
+      <c r="D309" s="1">
+        <v>1.127923</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>310</v>
       </c>
-      <c r="B310">
-        <v>-0.53506799999999999</v>
-      </c>
-      <c r="C310">
-        <v>-1.078506</v>
-      </c>
-      <c r="D310">
-        <v>-3.1458E-2</v>
+      <c r="B310" s="1">
+        <v>-0.56947049999999999</v>
+      </c>
+      <c r="C310" s="1">
+        <v>-1.1222780000000001</v>
+      </c>
+      <c r="D310" s="1">
+        <v>-3.9309999999996804E-3</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>311</v>
       </c>
-      <c r="B311">
-        <v>-0.50208450000000004</v>
-      </c>
-      <c r="C311">
-        <v>-1.51342</v>
-      </c>
-      <c r="D311">
-        <v>0.64163000000000003</v>
+      <c r="B311" s="1">
+        <v>-0.51303699999999997</v>
+      </c>
+      <c r="C311" s="1">
+        <v>-1.8228549999999999</v>
+      </c>
+      <c r="D311" s="1">
+        <v>0.50844499999999904</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>312</v>
       </c>
-      <c r="B312">
-        <v>0.1667295</v>
-      </c>
-      <c r="C312">
-        <v>-1.559223</v>
-      </c>
-      <c r="D312">
-        <v>1.713252</v>
+      <c r="B312" s="1">
+        <v>0.12572749999999999</v>
+      </c>
+      <c r="C312" s="1">
+        <v>-1.5529980000000001</v>
+      </c>
+      <c r="D312" s="1">
+        <v>1.7352540000000001</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>313</v>
       </c>
-      <c r="B313">
-        <v>9.5038500000000095E-2</v>
-      </c>
-      <c r="C313">
-        <v>-1.0322659999999999</v>
-      </c>
-      <c r="D313">
-        <v>1.0806249999999999</v>
+      <c r="B313" s="1">
+        <v>5.5884999999999997E-2</v>
+      </c>
+      <c r="C313" s="1">
+        <v>-1.1059159999999999</v>
+      </c>
+      <c r="D313" s="1">
+        <v>1.153913</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>314</v>
       </c>
-      <c r="B314">
-        <v>0.50078800000000001</v>
-      </c>
-      <c r="C314">
-        <v>-0.65387300000000004</v>
-      </c>
-      <c r="D314">
-        <v>1.7112860000000001</v>
+      <c r="B314" s="1">
+        <v>0.468997</v>
+      </c>
+      <c r="C314" s="1">
+        <v>-0.77146300000000101</v>
+      </c>
+      <c r="D314" s="1">
+        <v>1.7212730000000001</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>315</v>
       </c>
-      <c r="B315">
-        <v>-2.3614999999999799E-2</v>
-      </c>
-      <c r="C315">
-        <v>-1.1296900000000001</v>
-      </c>
-      <c r="D315">
-        <v>1.129982</v>
+      <c r="B315" s="1">
+        <v>-0.15402450000000001</v>
+      </c>
+      <c r="C315" s="1">
+        <v>-1.357672</v>
+      </c>
+      <c r="D315" s="1">
+        <v>1.0177579999999999</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>316</v>
       </c>
-      <c r="B316">
-        <v>-1.142021</v>
-      </c>
-      <c r="C316">
-        <v>-2.2586590000000002</v>
-      </c>
-      <c r="D316">
-        <v>-2.9891999999999801E-2</v>
+      <c r="B316" s="1">
+        <v>-1.2554149999999999</v>
+      </c>
+      <c r="C316" s="1">
+        <v>-2.408112</v>
+      </c>
+      <c r="D316" s="1">
+        <v>3.8155999999999003E-2</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>317</v>
       </c>
-      <c r="B317">
-        <v>0.47687438250000003</v>
-      </c>
-      <c r="C317">
-        <v>9.5022000000000106E-2</v>
-      </c>
-      <c r="D317">
-        <v>0.81283110000000003</v>
+      <c r="B317" s="1">
+        <v>0.48351850000000002</v>
+      </c>
+      <c r="C317" s="1">
+        <v>0.10562100000000001</v>
+      </c>
+      <c r="D317" s="1">
+        <v>0.83425199999999999</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>318</v>
       </c>
-      <c r="B318">
-        <v>0.180315</v>
-      </c>
-      <c r="C318">
-        <v>-9.4706499999999694E-2</v>
-      </c>
-      <c r="D318">
-        <v>0.44108000000000003</v>
+      <c r="B318" s="1">
+        <v>0.18208150000000001</v>
+      </c>
+      <c r="C318" s="1">
+        <v>-9.6125000000000696E-2</v>
+      </c>
+      <c r="D318" s="1">
+        <v>0.45811200000000002</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>319</v>
       </c>
-      <c r="B319">
-        <v>-0.6136665</v>
-      </c>
-      <c r="C319">
-        <v>-0.84037899999999999</v>
-      </c>
-      <c r="D319">
-        <v>-0.40457900000000002</v>
+      <c r="B319" s="1">
+        <v>-0.61749100000000001</v>
+      </c>
+      <c r="C319" s="1">
+        <v>-0.83139000000000096</v>
+      </c>
+      <c r="D319" s="1">
+        <v>-0.40436100000000003</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>320</v>
       </c>
-      <c r="B320">
-        <v>-0.76300000000000001</v>
-      </c>
-      <c r="C320">
-        <v>-1.275142</v>
-      </c>
-      <c r="D320">
-        <v>-0.28053800000000001</v>
+      <c r="B320" s="1">
+        <v>-0.79903450000000098</v>
+      </c>
+      <c r="C320" s="1">
+        <v>-1.339764</v>
+      </c>
+      <c r="D320" s="1">
+        <v>-0.33105299999999999</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>321</v>
       </c>
-      <c r="B321">
-        <v>-2.7557499999999801E-2</v>
-      </c>
-      <c r="C321">
-        <v>-0.69776490000000002</v>
-      </c>
-      <c r="D321">
-        <v>0.57758399999999999</v>
+      <c r="B321" s="1">
+        <v>-6.94065000000013E-2</v>
+      </c>
+      <c r="C321" s="1">
+        <v>-0.76551899999999995</v>
+      </c>
+      <c r="D321" s="1">
+        <v>0.57595249999999998</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>322</v>
       </c>
-      <c r="B322">
-        <v>-0.2251995</v>
-      </c>
-      <c r="C322">
-        <v>-0.69313800000000003</v>
-      </c>
-      <c r="D322">
-        <v>0.20397599999999999</v>
+      <c r="B322" s="1">
+        <v>-0.28325800000000001</v>
+      </c>
+      <c r="C322" s="1">
+        <v>-0.76816799999999896</v>
+      </c>
+      <c r="D322" s="1">
+        <v>0.180481</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>323</v>
       </c>
-      <c r="B323">
-        <v>0.24524889999999999</v>
-      </c>
-      <c r="C323">
-        <v>-0.58924100000000001</v>
-      </c>
-      <c r="D323">
-        <v>1.04195788</v>
+      <c r="B323" s="1">
+        <v>0.20663496000000001</v>
+      </c>
+      <c r="C323" s="1">
+        <v>-0.57824900000000001</v>
+      </c>
+      <c r="D323" s="1">
+        <v>1.05999211</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>324</v>
       </c>
-      <c r="B324">
-        <v>0.46234049999999999</v>
-      </c>
-      <c r="C324">
-        <v>-9.0722999999999998E-2</v>
-      </c>
-      <c r="D324">
-        <v>0.97943519999999995</v>
+      <c r="B324" s="1">
+        <v>0.40892849999999997</v>
+      </c>
+      <c r="C324" s="1">
+        <v>-0.176598</v>
+      </c>
+      <c r="D324" s="1">
+        <v>0.94266300000000003</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>325</v>
       </c>
-      <c r="B325">
-        <v>-0.61375599999999997</v>
-      </c>
-      <c r="C325">
-        <v>-1.084822</v>
-      </c>
-      <c r="D325">
-        <v>-0.16989199999999999</v>
+      <c r="B325" s="1">
+        <v>-0.65742049999999996</v>
+      </c>
+      <c r="C325" s="1">
+        <v>-1.132978</v>
+      </c>
+      <c r="D325" s="1">
+        <v>-0.19065000000000101</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>326</v>
       </c>
-      <c r="B326">
-        <v>-0.5770885</v>
-      </c>
-      <c r="C326">
-        <v>-1.6044835</v>
-      </c>
-      <c r="D326">
-        <v>0.47987099999999999</v>
+      <c r="B326" s="1">
+        <v>-0.60553999999999997</v>
+      </c>
+      <c r="C326" s="1">
+        <v>-1.7973539999999999</v>
+      </c>
+      <c r="D326" s="1">
+        <v>0.46805099999999999</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>327</v>
       </c>
-      <c r="B327">
-        <v>8.5250999999999799E-2</v>
-      </c>
-      <c r="C327">
-        <v>-1.5956330000000001</v>
-      </c>
-      <c r="D327">
-        <v>1.6511180000000001</v>
+      <c r="B327" s="1">
+        <v>2.1595750000000798E-2</v>
+      </c>
+      <c r="C327" s="1">
+        <v>-1.6151489999999999</v>
+      </c>
+      <c r="D327" s="1">
+        <v>1.6399410000000001</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>328</v>
       </c>
-      <c r="B328">
-        <v>2.32010000000001E-2</v>
-      </c>
-      <c r="C328">
-        <v>-0.98841999999999997</v>
-      </c>
-      <c r="D328">
-        <v>1.071124</v>
+      <c r="B328" s="1">
+        <v>-4.8784499999999599E-2</v>
+      </c>
+      <c r="C328" s="1">
+        <v>-1.177767</v>
+      </c>
+      <c r="D328" s="1">
+        <v>1.0472520000000001</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>329</v>
       </c>
-      <c r="B329">
-        <v>0.43029250000000002</v>
-      </c>
-      <c r="C329">
-        <v>-0.637409</v>
-      </c>
-      <c r="D329">
-        <v>1.6465909999999999</v>
+      <c r="B329" s="1">
+        <v>0.36492050000000098</v>
+      </c>
+      <c r="C329" s="1">
+        <v>-0.82915900000000098</v>
+      </c>
+      <c r="D329" s="1">
+        <v>1.6173280000000001</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>330</v>
       </c>
-      <c r="B330">
-        <v>-0.100715</v>
-      </c>
-      <c r="C330">
-        <v>-1.202393</v>
-      </c>
-      <c r="D330">
-        <v>1.006945</v>
+      <c r="B330" s="1">
+        <v>-0.24285699999999999</v>
+      </c>
+      <c r="C330" s="1">
+        <v>-1.3846970000000001</v>
+      </c>
+      <c r="D330" s="1">
+        <v>0.91634899999999997</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>331</v>
       </c>
-      <c r="B331">
-        <v>-1.2136800000000001</v>
-      </c>
-      <c r="C331">
-        <v>-2.3443849999999999</v>
-      </c>
-      <c r="D331">
-        <v>-0.163552</v>
+      <c r="B331" s="1">
+        <v>-1.337377</v>
+      </c>
+      <c r="C331" s="1">
+        <v>-2.498049</v>
+      </c>
+      <c r="D331" s="1">
+        <v>-0.14688499999999899</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>332</v>
       </c>
-      <c r="B332">
-        <v>-0.29642099999999999</v>
-      </c>
-      <c r="C332">
-        <v>-0.70065999999999995</v>
-      </c>
-      <c r="D332">
-        <v>8.0557000000000004E-2</v>
+      <c r="B332" s="1">
+        <v>-0.30077019999999999</v>
+      </c>
+      <c r="C332" s="1">
+        <v>-0.699295</v>
+      </c>
+      <c r="D332" s="1">
+        <v>0.104654300000001</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>333</v>
       </c>
-      <c r="B333">
-        <v>-1.08917895</v>
-      </c>
-      <c r="C333">
-        <v>-1.439991</v>
-      </c>
-      <c r="D333">
-        <v>-0.70632329999999999</v>
+      <c r="B333" s="1">
+        <v>-1.1012329999999999</v>
+      </c>
+      <c r="C333" s="1">
+        <v>-1.4719070000000001</v>
+      </c>
+      <c r="D333" s="1">
+        <v>-0.72527799999999998</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>334</v>
       </c>
-      <c r="B334">
-        <v>-1.2391196</v>
-      </c>
-      <c r="C334">
-        <v>-1.83446</v>
-      </c>
-      <c r="D334">
-        <v>-0.68052360000000001</v>
+      <c r="B334" s="1">
+        <v>-1.2811520000000001</v>
+      </c>
+      <c r="C334" s="1">
+        <v>-1.8962460000000001</v>
+      </c>
+      <c r="D334" s="1">
+        <v>-0.69953799999999999</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>335</v>
       </c>
-      <c r="B335">
-        <v>-0.50590349999999995</v>
-      </c>
-      <c r="C335">
-        <v>-1.2035990000000001</v>
-      </c>
-      <c r="D335">
-        <v>0.245834</v>
+      <c r="B335" s="1">
+        <v>-0.54824099999999998</v>
+      </c>
+      <c r="C335" s="1">
+        <v>-1.2699210000000001</v>
+      </c>
+      <c r="D335" s="1">
+        <v>0.187135</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>336</v>
       </c>
-      <c r="B336">
-        <v>-0.70640950000000002</v>
-      </c>
-      <c r="C336">
-        <v>-1.2537529999999999</v>
-      </c>
-      <c r="D336">
-        <v>-0.14263999999999999</v>
+      <c r="B336" s="1">
+        <v>-0.75896390000000002</v>
+      </c>
+      <c r="C336" s="1">
+        <v>-1.308346</v>
+      </c>
+      <c r="D336" s="1">
+        <v>-0.14658599999999999</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>337</v>
       </c>
-      <c r="B337">
-        <v>-0.22657269999999999</v>
-      </c>
-      <c r="C337">
-        <v>-1.184971</v>
-      </c>
-      <c r="D337">
-        <v>0.590306</v>
+      <c r="B337" s="1">
+        <v>-0.2581349</v>
+      </c>
+      <c r="C337" s="1">
+        <v>-1.1641357999999999</v>
+      </c>
+      <c r="D337" s="1">
+        <v>0.58057950000000003</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>338</v>
       </c>
-      <c r="B338">
-        <v>-1.3235800000000001E-2</v>
-      </c>
-      <c r="C338">
-        <v>-0.68878700000000004</v>
-      </c>
-      <c r="D338">
-        <v>0.56506999999999996</v>
+      <c r="B338" s="1">
+        <v>-6.8743049999999695E-2</v>
+      </c>
+      <c r="C338" s="1">
+        <v>-0.74751869999999998</v>
+      </c>
+      <c r="D338" s="1">
+        <v>0.57004030000000006</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>339</v>
       </c>
-      <c r="B339">
-        <v>-1.09563035</v>
-      </c>
-      <c r="C339">
-        <v>-1.6527191999999999</v>
-      </c>
-      <c r="D339">
-        <v>-0.54065099999999999</v>
+      <c r="B339" s="1">
+        <v>-1.1421567500000001</v>
+      </c>
+      <c r="C339" s="1">
+        <v>-1.6835817</v>
+      </c>
+      <c r="D339" s="1">
+        <v>-0.54265730000000001</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>340</v>
       </c>
-      <c r="B340">
-        <v>-1.0573215</v>
-      </c>
-      <c r="C340">
-        <v>-2.1108310000000001</v>
-      </c>
-      <c r="D340">
-        <v>5.7411000000000101E-2</v>
+      <c r="B340" s="1">
+        <v>-1.0956864500000001</v>
+      </c>
+      <c r="C340" s="1">
+        <v>-2.2906849999999999</v>
+      </c>
+      <c r="D340" s="1">
+        <v>7.6673699999999706E-2</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>341</v>
       </c>
-      <c r="B341">
-        <v>-0.38576199999999999</v>
-      </c>
-      <c r="C341">
-        <v>-2.1272717000000001</v>
-      </c>
-      <c r="D341">
-        <v>1.1217847999999999</v>
+      <c r="B341" s="1">
+        <v>-0.4691535</v>
+      </c>
+      <c r="C341" s="1">
+        <v>-2.1125590000000001</v>
+      </c>
+      <c r="D341" s="1">
+        <v>1.2081797000000001</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>342</v>
       </c>
-      <c r="B342">
-        <v>-0.46134849999999999</v>
-      </c>
-      <c r="C342">
-        <v>-1.4941850000000001</v>
-      </c>
-      <c r="D342">
-        <v>0.65936720000000004</v>
+      <c r="B342" s="1">
+        <v>-0.53414200000000001</v>
+      </c>
+      <c r="C342" s="1">
+        <v>-1.650617</v>
+      </c>
+      <c r="D342" s="1">
+        <v>0.61442300000000005</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>343</v>
       </c>
-      <c r="B343">
-        <v>-4.78480500000001E-2</v>
-      </c>
-      <c r="C343">
-        <v>-1.2043885999999999</v>
-      </c>
-      <c r="D343">
-        <v>1.1476356000000001</v>
+      <c r="B343" s="1">
+        <v>-0.10786134999999999</v>
+      </c>
+      <c r="C343" s="1">
+        <v>-1.4917419999999999</v>
+      </c>
+      <c r="D343" s="1">
+        <v>1.0223397999999999</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>344</v>
       </c>
-      <c r="B344">
-        <v>-0.58056399999999997</v>
-      </c>
-      <c r="C344">
-        <v>-1.7900955000000001</v>
-      </c>
-      <c r="D344">
-        <v>0.50760099999999997</v>
+      <c r="B344" s="1">
+        <v>-0.72712299999999996</v>
+      </c>
+      <c r="C344" s="1">
+        <v>-1.9894181</v>
+      </c>
+      <c r="D344" s="1">
+        <v>0.39888300000000099</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>345</v>
       </c>
-      <c r="B345">
-        <v>-1.69804665</v>
-      </c>
-      <c r="C345">
-        <v>-2.8239649999999998</v>
-      </c>
-      <c r="D345">
-        <v>-0.556755</v>
+      <c r="B345" s="1">
+        <v>-1.8269645000000001</v>
+      </c>
+      <c r="C345" s="1">
+        <v>-3.0892550000000001</v>
+      </c>
+      <c r="D345" s="1">
+        <v>-0.67230199999999996</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>346</v>
       </c>
-      <c r="B346">
-        <v>-0.79282949999999996</v>
-      </c>
-      <c r="C346">
-        <v>-1.0759270000000001</v>
-      </c>
-      <c r="D346">
-        <v>-0.51766500000000004</v>
+      <c r="B346" s="1">
+        <v>-0.80360200000000004</v>
+      </c>
+      <c r="C346" s="1">
+        <v>-1.0712299999999999</v>
+      </c>
+      <c r="D346" s="1">
+        <v>-0.51281299999999896</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>347</v>
       </c>
-      <c r="B347">
-        <v>-0.944438</v>
-      </c>
-      <c r="C347">
-        <v>-1.4727969999999999</v>
-      </c>
-      <c r="D347">
-        <v>-0.42378900000000003</v>
+      <c r="B347" s="1">
+        <v>-0.98364499999999999</v>
+      </c>
+      <c r="C347" s="1">
+        <v>-1.555131</v>
+      </c>
+      <c r="D347" s="1">
+        <v>-0.47178999999999899</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>348</v>
       </c>
-      <c r="B348">
-        <v>-0.20709250000000001</v>
-      </c>
-      <c r="C348">
-        <v>-0.88556699999999999</v>
-      </c>
-      <c r="D348">
-        <v>0.42939899999999998</v>
+      <c r="B348" s="1">
+        <v>-0.24741199999999999</v>
+      </c>
+      <c r="C348" s="1">
+        <v>-0.94905799999999996</v>
+      </c>
+      <c r="D348" s="1">
+        <v>0.44893</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>349</v>
       </c>
-      <c r="B349">
-        <v>-0.4052095</v>
-      </c>
-      <c r="C349">
-        <v>-0.90197799999999995</v>
-      </c>
-      <c r="D349">
-        <v>9.4560000000000005E-2</v>
+      <c r="B349" s="1">
+        <v>-0.46358249999999901</v>
+      </c>
+      <c r="C349" s="1">
+        <v>-1.0161359999999999</v>
+      </c>
+      <c r="D349" s="1">
+        <v>1.76550000000004E-2</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>350</v>
       </c>
-      <c r="B350">
-        <v>6.8728499999999998E-2</v>
-      </c>
-      <c r="C350">
-        <v>-0.79976499999999995</v>
-      </c>
-      <c r="D350">
-        <v>0.89368000000000003</v>
+      <c r="B350" s="1">
+        <v>2.53035000000001E-2</v>
+      </c>
+      <c r="C350" s="1">
+        <v>-0.83083859999999898</v>
+      </c>
+      <c r="D350" s="1">
+        <v>0.86028899999999997</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>351</v>
       </c>
-      <c r="B351">
-        <v>0.28042400000000001</v>
-      </c>
-      <c r="C351">
-        <v>-0.314668</v>
-      </c>
-      <c r="D351">
-        <v>0.81821500000000003</v>
+      <c r="B351" s="1">
+        <v>0.22733800000000001</v>
+      </c>
+      <c r="C351" s="1">
+        <v>-0.36022300000000002</v>
+      </c>
+      <c r="D351" s="1">
+        <v>0.83821900000000005</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>352</v>
       </c>
-      <c r="B352">
-        <v>-0.79621600000000003</v>
-      </c>
-      <c r="C352">
-        <v>-1.2863869999999999</v>
-      </c>
-      <c r="D352">
-        <v>-0.28906399999999999</v>
+      <c r="B352" s="1">
+        <v>-0.84170049999999996</v>
+      </c>
+      <c r="C352" s="1">
+        <v>-1.36754</v>
+      </c>
+      <c r="D352" s="1">
+        <v>-0.34132800000000102</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>353</v>
       </c>
-      <c r="B353">
-        <v>-0.75715849999999996</v>
-      </c>
-      <c r="C353">
-        <v>-1.8365720000000001</v>
-      </c>
-      <c r="D353">
-        <v>0.28303099999999998</v>
+      <c r="B353" s="1">
+        <v>-0.78438200000000002</v>
+      </c>
+      <c r="C353" s="1">
+        <v>-1.928841</v>
+      </c>
+      <c r="D353" s="1">
+        <v>0.35603200000000002</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>354</v>
       </c>
-      <c r="B354">
-        <v>-9.6593999999999902E-2</v>
-      </c>
-      <c r="C354">
-        <v>-1.8634010000000001</v>
-      </c>
-      <c r="D354">
-        <v>1.4241619999999999</v>
+      <c r="B354" s="1">
+        <v>-0.157462500000001</v>
+      </c>
+      <c r="C354" s="1">
+        <v>-1.8031919999999999</v>
+      </c>
+      <c r="D354" s="1">
+        <v>1.5143489999999999</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>355</v>
       </c>
-      <c r="B355">
-        <v>-0.16014049999999999</v>
-      </c>
-      <c r="C355">
-        <v>-1.141567</v>
-      </c>
-      <c r="D355">
-        <v>0.93013100000000004</v>
+      <c r="B355" s="1">
+        <v>-0.23109049999999901</v>
+      </c>
+      <c r="C355" s="1">
+        <v>-1.3005439999999999</v>
+      </c>
+      <c r="D355" s="1">
+        <v>0.94198700000000002</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>356</v>
       </c>
-      <c r="B356">
-        <v>0.25221824999999998</v>
-      </c>
-      <c r="C356">
-        <v>-0.92452219999999996</v>
-      </c>
-      <c r="D356">
-        <v>1.3715090000000001</v>
+      <c r="B356" s="1">
+        <v>0.18495929999999999</v>
+      </c>
+      <c r="C356" s="1">
+        <v>-1.0522849999999999</v>
+      </c>
+      <c r="D356" s="1">
+        <v>1.4146799999999999</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>357</v>
       </c>
-      <c r="B357">
-        <v>-0.28374100000000002</v>
-      </c>
-      <c r="C357">
-        <v>-1.38177207</v>
-      </c>
-      <c r="D357">
-        <v>0.843526</v>
+      <c r="B357" s="1">
+        <v>-0.42268250000000102</v>
+      </c>
+      <c r="C357" s="1">
+        <v>-1.592832</v>
+      </c>
+      <c r="D357" s="1">
+        <v>0.720386999999999</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>358</v>
       </c>
-      <c r="B358">
-        <v>-1.393918</v>
-      </c>
-      <c r="C358">
-        <v>-2.529201</v>
-      </c>
-      <c r="D358">
-        <v>-0.31203900000000001</v>
+      <c r="B358" s="1">
+        <v>-1.5328584999999999</v>
+      </c>
+      <c r="C358" s="1">
+        <v>-2.6998319999999998</v>
+      </c>
+      <c r="D358" s="1">
+        <v>-0.29978499999999902</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>359</v>
       </c>
-      <c r="B359">
-        <v>-0.15180850000000001</v>
-      </c>
-      <c r="C359">
-        <v>-0.67249300000000001</v>
-      </c>
-      <c r="D359">
-        <v>0.32103700000000002</v>
+      <c r="B359" s="1">
+        <v>-0.18330650000000001</v>
+      </c>
+      <c r="C359" s="1">
+        <v>-0.73895</v>
+      </c>
+      <c r="D359" s="1">
+        <v>0.294487</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>360</v>
       </c>
-      <c r="B360">
-        <v>0.58503799999999995</v>
-      </c>
-      <c r="C360">
-        <v>-1.7295000000000199E-2</v>
-      </c>
-      <c r="D360">
-        <v>1.254005</v>
+      <c r="B360" s="1">
+        <v>0.55138009500000096</v>
+      </c>
+      <c r="C360" s="1">
+        <v>-9.3963999999999701E-2</v>
+      </c>
+      <c r="D360" s="1">
+        <v>1.25475191</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>361</v>
       </c>
-      <c r="B361">
-        <v>0.38678699999999999</v>
-      </c>
-      <c r="C361">
-        <v>-7.9208000000000098E-2</v>
-      </c>
-      <c r="D361">
-        <v>0.83152199999999998</v>
+      <c r="B361" s="1">
+        <v>0.33522999999999997</v>
+      </c>
+      <c r="C361" s="1">
+        <v>-0.17147099999999901</v>
+      </c>
+      <c r="D361" s="1">
+        <v>0.80405499999999996</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>362</v>
       </c>
-      <c r="B362">
-        <v>0.85902400000000001</v>
-      </c>
-      <c r="C362">
-        <v>0.10482900000000001</v>
-      </c>
-      <c r="D362">
-        <v>1.7397830000000001</v>
+      <c r="B362" s="1">
+        <v>0.83176450000000002</v>
+      </c>
+      <c r="C362" s="1">
+        <v>3.8991999999999499E-2</v>
+      </c>
+      <c r="D362" s="1">
+        <v>1.692366</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>363</v>
       </c>
-      <c r="B363">
-        <v>1.072748</v>
-      </c>
-      <c r="C363">
-        <v>0.54647000000000001</v>
-      </c>
-      <c r="D363">
-        <v>1.610498</v>
+      <c r="B363" s="1">
+        <v>1.027468</v>
+      </c>
+      <c r="C363" s="1">
+        <v>0.44531400000000099</v>
+      </c>
+      <c r="D363" s="1">
+        <v>1.5955699999999999</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>364</v>
       </c>
-      <c r="B364">
-        <v>-5.5055000000001101E-3</v>
-      </c>
-      <c r="C364">
-        <v>-0.43324400000000002</v>
-      </c>
-      <c r="D364">
-        <v>0.48902699999999999</v>
+      <c r="B364" s="1">
+        <v>-3.6770000000000198E-2</v>
+      </c>
+      <c r="C364" s="1">
+        <v>-0.49589</v>
+      </c>
+      <c r="D364" s="1">
+        <v>0.45776719999999999</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>365</v>
       </c>
-      <c r="B365">
-        <v>4.37719499999999E-2</v>
-      </c>
-      <c r="C365">
-        <v>-0.99000100000000002</v>
-      </c>
-      <c r="D365">
-        <v>1.089636</v>
+      <c r="B365" s="1">
+        <v>1.4281000000000901E-2</v>
+      </c>
+      <c r="C365" s="1">
+        <v>-1.232842</v>
+      </c>
+      <c r="D365" s="1">
+        <v>1.064017</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>366</v>
       </c>
-      <c r="B366">
-        <v>0.70216650000000003</v>
-      </c>
-      <c r="C366">
-        <v>-1.035266</v>
-      </c>
-      <c r="D366">
-        <v>2.1934469999999999</v>
+      <c r="B366" s="1">
+        <v>0.63745350000000001</v>
+      </c>
+      <c r="C366" s="1">
+        <v>-1.0279160000000001</v>
+      </c>
+      <c r="D366" s="1">
+        <v>2.2349969999999999</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>367</v>
       </c>
-      <c r="B367">
-        <v>0.63269350000000002</v>
-      </c>
-      <c r="C367">
-        <v>-0.41267700000000002</v>
-      </c>
-      <c r="D367">
-        <v>1.6512359999999999</v>
+      <c r="B367" s="1">
+        <v>0.57471549999999905</v>
+      </c>
+      <c r="C367" s="1">
+        <v>-0.56562230000000002</v>
+      </c>
+      <c r="D367" s="1">
+        <v>1.6722790000000001</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>368</v>
       </c>
-      <c r="B368">
-        <v>1.0410807</v>
-      </c>
-      <c r="C368">
-        <v>-9.0498999999999899E-2</v>
-      </c>
-      <c r="D368">
-        <v>2.1898970000000002</v>
+      <c r="B368" s="1">
+        <v>0.98052894000000101</v>
+      </c>
+      <c r="C368" s="1">
+        <v>-0.27935900000000002</v>
+      </c>
+      <c r="D368" s="1">
+        <v>2.2015600000000002</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>369</v>
       </c>
-      <c r="B369">
-        <v>0.51029000000000002</v>
-      </c>
-      <c r="C369">
-        <v>-0.57003300000000001</v>
-      </c>
-      <c r="D369">
-        <v>1.649108</v>
+      <c r="B369" s="1">
+        <v>0.37037550000000002</v>
+      </c>
+      <c r="C369" s="1">
+        <v>-0.79298000000000002</v>
+      </c>
+      <c r="D369" s="1">
+        <v>1.523204</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>370</v>
       </c>
-      <c r="B370">
-        <v>-0.60005699999999995</v>
-      </c>
-      <c r="C370">
-        <v>-1.710332</v>
-      </c>
-      <c r="D370">
-        <v>0.48336499999999999</v>
+      <c r="B370" s="1">
+        <v>-0.73487049999999998</v>
+      </c>
+      <c r="C370" s="1">
+        <v>-1.9047780000000001</v>
+      </c>
+      <c r="D370" s="1">
+        <v>0.480985</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>371</v>
       </c>
-      <c r="B371">
-        <v>0.73503350000000001</v>
-      </c>
-      <c r="C371">
-        <v>0.21915000000000001</v>
-      </c>
-      <c r="D371">
-        <v>1.295048</v>
+      <c r="B371" s="1">
+        <v>0.73258500000000004</v>
+      </c>
+      <c r="C371" s="1">
+        <v>0.19277</v>
+      </c>
+      <c r="D371" s="1">
+        <v>1.3039909999999999</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>372</v>
       </c>
-      <c r="B372">
-        <v>0.53218650000000001</v>
-      </c>
-      <c r="C372">
-        <v>0.16647999999999999</v>
-      </c>
-      <c r="D372">
-        <v>0.89688999999999997</v>
+      <c r="B372" s="1">
+        <v>0.51885250000000005</v>
+      </c>
+      <c r="C372" s="1">
+        <v>0.13192000000000001</v>
+      </c>
+      <c r="D372" s="1">
+        <v>0.88043899999999997</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>373</v>
       </c>
-      <c r="B373">
-        <v>1.0157505</v>
-      </c>
-      <c r="C373">
-        <v>0.25069200000000003</v>
-      </c>
-      <c r="D373">
-        <v>1.7684139999999999</v>
+      <c r="B373" s="1">
+        <v>1.0243427000000001</v>
+      </c>
+      <c r="C373" s="1">
+        <v>0.29937599999999998</v>
+      </c>
+      <c r="D373" s="1">
+        <v>1.7614970000000001</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>374</v>
       </c>
-      <c r="B374">
-        <v>1.220251</v>
-      </c>
-      <c r="C374">
-        <v>0.75546100000000005</v>
-      </c>
-      <c r="D374">
-        <v>1.668431</v>
+      <c r="B374" s="1">
+        <v>1.2040765</v>
+      </c>
+      <c r="C374" s="1">
+        <v>0.70091899999999996</v>
+      </c>
+      <c r="D374" s="1">
+        <v>1.6493312</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>375</v>
       </c>
-      <c r="B375">
-        <v>0.14651</v>
-      </c>
-      <c r="C375">
-        <v>-0.213002</v>
-      </c>
-      <c r="D375">
-        <v>0.47144203000000001</v>
+      <c r="B375" s="1">
+        <v>0.142012</v>
+      </c>
+      <c r="C375" s="1">
+        <v>-0.20790999999999901</v>
+      </c>
+      <c r="D375" s="1">
+        <v>0.46753</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>376</v>
       </c>
-      <c r="B376">
-        <v>0.19267699999999999</v>
-      </c>
-      <c r="C376">
-        <v>-0.93720700000000001</v>
-      </c>
-      <c r="D376">
-        <v>1.2507550000000001</v>
+      <c r="B376" s="1">
+        <v>0.18831049999999999</v>
+      </c>
+      <c r="C376" s="1">
+        <v>-1.0344488000000001</v>
+      </c>
+      <c r="D376" s="1">
+        <v>1.366136</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>377</v>
       </c>
-      <c r="B377">
-        <v>0.85922200000000004</v>
-      </c>
-      <c r="C377">
-        <v>-0.79557829999999996</v>
-      </c>
-      <c r="D377">
-        <v>2.5243090000000001</v>
+      <c r="B377" s="1">
+        <v>0.82056700000000005</v>
+      </c>
+      <c r="C377" s="1">
+        <v>-0.74951299999999899</v>
+      </c>
+      <c r="D377" s="1">
+        <v>2.5997121000000001</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>378</v>
       </c>
-      <c r="B378">
-        <v>0.78839649999999994</v>
-      </c>
-      <c r="C378">
-        <v>-0.23954600000000001</v>
-      </c>
-      <c r="D378">
-        <v>1.909796</v>
+      <c r="B378" s="1">
+        <v>0.75861299999999898</v>
+      </c>
+      <c r="C378" s="1">
+        <v>-0.394680999999999</v>
+      </c>
+      <c r="D378" s="1">
+        <v>1.9403060000000001</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>379</v>
       </c>
-      <c r="B379">
-        <v>1.1927996999999999</v>
-      </c>
-      <c r="C379">
-        <v>-3.3618999999999802E-2</v>
-      </c>
-      <c r="D379">
-        <v>2.3543449999999999</v>
+      <c r="B379" s="1">
+        <v>1.16812045</v>
+      </c>
+      <c r="C379" s="1">
+        <v>-0.131882</v>
+      </c>
+      <c r="D379" s="1">
+        <v>2.474885</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>380</v>
       </c>
-      <c r="B380">
-        <v>0.66943200000000003</v>
-      </c>
-      <c r="C380">
-        <v>-0.48627799999999999</v>
-      </c>
-      <c r="D380">
-        <v>1.80951</v>
+      <c r="B380" s="1">
+        <v>0.55865450000000005</v>
+      </c>
+      <c r="C380" s="1">
+        <v>-0.62058999999999997</v>
+      </c>
+      <c r="D380" s="1">
+        <v>1.852811</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>381</v>
       </c>
-      <c r="B381">
-        <v>-0.46078999999999998</v>
-      </c>
-      <c r="C381">
-        <v>-1.584463</v>
-      </c>
-      <c r="D381">
-        <v>0.72177400000000003</v>
+      <c r="B381" s="1">
+        <v>-0.53760600000000003</v>
+      </c>
+      <c r="C381" s="1">
+        <v>-1.7576849999999999</v>
+      </c>
+      <c r="D381" s="1">
+        <v>0.69436300000000095</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>382</v>
       </c>
-      <c r="B382">
-        <v>-0.2026095</v>
-      </c>
-      <c r="C382">
-        <v>-0.75516300000000003</v>
-      </c>
-      <c r="D382">
-        <v>0.32790799999999998</v>
+      <c r="B382" s="1">
+        <v>-0.21255450000000001</v>
+      </c>
+      <c r="C382" s="1">
+        <v>-0.78046800000000005</v>
+      </c>
+      <c r="D382" s="1">
+        <v>0.37029899999999999</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>383</v>
       </c>
-      <c r="B383">
-        <v>0.2791536</v>
-      </c>
-      <c r="C383">
-        <v>-0.53727000000000003</v>
-      </c>
-      <c r="D383">
-        <v>1.104698</v>
+      <c r="B383" s="1">
+        <v>0.28039970000000097</v>
+      </c>
+      <c r="C383" s="1">
+        <v>-0.51670899999999997</v>
+      </c>
+      <c r="D383" s="1">
+        <v>1.1415090000000001</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>384</v>
       </c>
-      <c r="B384">
-        <v>0.48908190000000001</v>
-      </c>
-      <c r="C384">
-        <v>-9.3280999999999906E-2</v>
-      </c>
-      <c r="D384">
-        <v>1.0754349999999999</v>
+      <c r="B384" s="1">
+        <v>0.47301549999999998</v>
+      </c>
+      <c r="C384" s="1">
+        <v>-0.15953300000000001</v>
+      </c>
+      <c r="D384" s="1">
+        <v>1.082047</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>385</v>
       </c>
-      <c r="B385">
-        <v>-0.59250899999999995</v>
-      </c>
-      <c r="C385">
-        <v>-1.098222</v>
-      </c>
-      <c r="D385">
-        <v>-6.9022600000000003E-2</v>
+      <c r="B385" s="1">
+        <v>-0.59058200000000005</v>
+      </c>
+      <c r="C385" s="1">
+        <v>-1.1061319999999999</v>
+      </c>
+      <c r="D385" s="1">
+        <v>-5.9526000000000898E-2</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>386</v>
       </c>
-      <c r="B386">
-        <v>-0.55774950000000001</v>
-      </c>
-      <c r="C386">
-        <v>-1.730559</v>
-      </c>
-      <c r="D386">
-        <v>0.64888500000000005</v>
+      <c r="B386" s="1">
+        <v>-0.54702300000000004</v>
+      </c>
+      <c r="C386" s="1">
+        <v>-1.816724</v>
+      </c>
+      <c r="D386" s="1">
+        <v>0.73394000000000004</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>387</v>
       </c>
-      <c r="B387">
-        <v>0.123525</v>
-      </c>
-      <c r="C387">
-        <v>-1.6209340000000001</v>
-      </c>
-      <c r="D387">
-        <v>1.8112410000000001</v>
+      <c r="B387" s="1">
+        <v>9.5968499999999707E-2</v>
+      </c>
+      <c r="C387" s="1">
+        <v>-1.670283</v>
+      </c>
+      <c r="D387" s="1">
+        <v>1.7737909999999999</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>388</v>
       </c>
-      <c r="B388">
-        <v>4.06795E-2</v>
-      </c>
-      <c r="C388">
-        <v>-1.008027</v>
-      </c>
-      <c r="D388">
-        <v>1.3536600000000001</v>
+      <c r="B388" s="1">
+        <v>2.74112E-2</v>
+      </c>
+      <c r="C388" s="1">
+        <v>-1.2168391999999999</v>
+      </c>
+      <c r="D388" s="1">
+        <v>1.3371949999999999</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>389</v>
       </c>
-      <c r="B389">
-        <v>0.44546950000000002</v>
-      </c>
-      <c r="C389">
-        <v>-0.79910599999999998</v>
-      </c>
-      <c r="D389">
-        <v>1.7495560000000001</v>
+      <c r="B389" s="1">
+        <v>0.431198999999999</v>
+      </c>
+      <c r="C389" s="1">
+        <v>-0.93934899999999999</v>
+      </c>
+      <c r="D389" s="1">
+        <v>1.739252</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>390</v>
       </c>
-      <c r="B390">
-        <v>-7.5516500000000306E-2</v>
-      </c>
-      <c r="C390">
-        <v>-1.302414</v>
-      </c>
-      <c r="D390">
-        <v>1.205376</v>
+      <c r="B390" s="1">
+        <v>-0.17131849999999901</v>
+      </c>
+      <c r="C390" s="1">
+        <v>-1.5057529999999999</v>
+      </c>
+      <c r="D390" s="1">
+        <v>1.1122069999999999</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>391</v>
       </c>
-      <c r="B391">
-        <v>-1.187872</v>
-      </c>
-      <c r="C391">
-        <v>-2.353116</v>
-      </c>
-      <c r="D391">
-        <v>0.15760199999999999</v>
+      <c r="B391" s="1">
+        <v>-1.2711165</v>
+      </c>
+      <c r="C391" s="1">
+        <v>-2.5233129999999999</v>
+      </c>
+      <c r="D391" s="1">
+        <v>5.6753999999999701E-2</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>392</v>
       </c>
-      <c r="B392">
-        <v>0.48830469999999998</v>
-      </c>
-      <c r="C392">
-        <v>-0.26494099999999998</v>
-      </c>
-      <c r="D392">
-        <v>1.253816</v>
+      <c r="B392" s="1">
+        <v>0.50212749999999895</v>
+      </c>
+      <c r="C392" s="1">
+        <v>-0.24498300000000001</v>
+      </c>
+      <c r="D392" s="1">
+        <v>1.2481100000000001</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>393</v>
       </c>
-      <c r="B393">
-        <v>0.68829249999999997</v>
-      </c>
-      <c r="C393">
-        <v>0.23246600000000001</v>
-      </c>
-      <c r="D393">
-        <v>1.109864</v>
+      <c r="B393" s="1">
+        <v>0.69266749999999999</v>
+      </c>
+      <c r="C393" s="1">
+        <v>0.225024</v>
+      </c>
+      <c r="D393" s="1">
+        <v>1.1544449999999999</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>394</v>
       </c>
-      <c r="B394">
-        <v>-0.386625</v>
-      </c>
-      <c r="C394">
-        <v>-0.69844700000000004</v>
-      </c>
-      <c r="D394">
-        <v>-4.2913000000000298E-2</v>
+      <c r="B394" s="1">
+        <v>-0.37747449999999899</v>
+      </c>
+      <c r="C394" s="1">
+        <v>-0.711233</v>
+      </c>
+      <c r="D394" s="1">
+        <v>-6.8590000000000401E-2</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>395</v>
       </c>
-      <c r="B395">
-        <v>-0.34234599999999998</v>
-      </c>
-      <c r="C395">
-        <v>-1.3886339999999999</v>
-      </c>
-      <c r="D395">
-        <v>0.77505900000000005</v>
+      <c r="B395" s="1">
+        <v>-0.32214389999999898</v>
+      </c>
+      <c r="C395" s="1">
+        <v>-1.555159</v>
+      </c>
+      <c r="D395" s="1">
+        <v>0.77445699999999995</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>396</v>
       </c>
-      <c r="B396">
-        <v>0.33255099999999999</v>
-      </c>
-      <c r="C396">
-        <v>-1.3749039999999999</v>
-      </c>
-      <c r="D396">
-        <v>1.9011739999999999</v>
+      <c r="B396" s="1">
+        <v>0.30914965</v>
+      </c>
+      <c r="C396" s="1">
+        <v>-1.3786050000000001</v>
+      </c>
+      <c r="D396" s="1">
+        <v>1.929243</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>397</v>
       </c>
-      <c r="B397">
-        <v>0.25814949999999998</v>
-      </c>
-      <c r="C397">
-        <v>-0.72089700000000001</v>
-      </c>
-      <c r="D397">
-        <v>1.4178299999999999</v>
+      <c r="B397" s="1">
+        <v>0.235287000000001</v>
+      </c>
+      <c r="C397" s="1">
+        <v>-0.96651200000000004</v>
+      </c>
+      <c r="D397" s="1">
+        <v>1.3135330000000001</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>398</v>
       </c>
-      <c r="B398">
-        <v>0.65201480000000001</v>
-      </c>
-      <c r="C398">
-        <v>-0.46402399999999999</v>
-      </c>
-      <c r="D398">
-        <v>1.9144030000000001</v>
+      <c r="B398" s="1">
+        <v>0.643109500000001</v>
+      </c>
+      <c r="C398" s="1">
+        <v>-0.64002000000000003</v>
+      </c>
+      <c r="D398" s="1">
+        <v>1.878295</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>399</v>
       </c>
-      <c r="B399">
-        <v>0.125167</v>
-      </c>
-      <c r="C399">
-        <v>-0.94968900000000001</v>
-      </c>
-      <c r="D399">
-        <v>1.3669279999999999</v>
+      <c r="B399" s="1">
+        <v>3.01605E-2</v>
+      </c>
+      <c r="C399" s="1">
+        <v>-1.140126</v>
+      </c>
+      <c r="D399" s="1">
+        <v>1.251879</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>400</v>
       </c>
-      <c r="B400">
-        <v>-0.99031899999999995</v>
-      </c>
-      <c r="C400">
-        <v>-2.1191770000000001</v>
-      </c>
-      <c r="D400">
-        <v>0.17095399999999999</v>
+      <c r="B400" s="1">
+        <v>-1.0632161</v>
+      </c>
+      <c r="C400" s="1">
+        <v>-2.3061769999999999</v>
+      </c>
+      <c r="D400" s="1">
+        <v>0.12409000000000101</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>401</v>
       </c>
-      <c r="B401">
-        <v>0.2035225</v>
-      </c>
-      <c r="C401">
-        <v>-0.567666</v>
-      </c>
-      <c r="D401">
-        <v>1.0030399999999999</v>
+      <c r="B401" s="1">
+        <v>0.18370400000000001</v>
+      </c>
+      <c r="C401" s="1">
+        <v>-0.613286</v>
+      </c>
+      <c r="D401" s="1">
+        <v>1.0116099999999999</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>402</v>
       </c>
-      <c r="B402">
-        <v>-0.87516150000000004</v>
-      </c>
-      <c r="C402">
-        <v>-1.5905529</v>
-      </c>
-      <c r="D402">
-        <v>-0.100633</v>
+      <c r="B402" s="1">
+        <v>-0.87253484999999997</v>
+      </c>
+      <c r="C402" s="1">
+        <v>-1.646298</v>
+      </c>
+      <c r="D402" s="1">
+        <v>-0.16855100000000001</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>403</v>
       </c>
-      <c r="B403">
-        <v>-0.83135650000000005</v>
-      </c>
-      <c r="C403">
-        <v>-2.1045259999999999</v>
-      </c>
-      <c r="D403">
-        <v>0.44408300000000001</v>
+      <c r="B403" s="1">
+        <v>-0.83931475</v>
+      </c>
+      <c r="C403" s="1">
+        <v>-2.2217648200000002</v>
+      </c>
+      <c r="D403" s="1">
+        <v>0.48125199999999901</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>404</v>
       </c>
-      <c r="B404">
-        <v>-0.16236249999999999</v>
-      </c>
-      <c r="C404">
-        <v>-1.9798089999999999</v>
-      </c>
-      <c r="D404">
-        <v>1.5734809999999999</v>
+      <c r="B404" s="1">
+        <v>-0.18689649999999999</v>
+      </c>
+      <c r="C404" s="1">
+        <v>-1.9941035</v>
+      </c>
+      <c r="D404" s="1">
+        <v>1.5393212999999999</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>405</v>
       </c>
-      <c r="B405">
-        <v>-0.23892450000000001</v>
-      </c>
-      <c r="C405">
-        <v>-1.4837985</v>
-      </c>
-      <c r="D405">
-        <v>1.02541035</v>
+      <c r="B405" s="1">
+        <v>-0.25988520000000098</v>
+      </c>
+      <c r="C405" s="1">
+        <v>-1.5989180000000001</v>
+      </c>
+      <c r="D405" s="1">
+        <v>1.0730576000000001</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>406</v>
       </c>
-      <c r="B406">
-        <v>0.17859449999999999</v>
-      </c>
-      <c r="C406">
-        <v>-1.1262920000000001</v>
-      </c>
-      <c r="D406">
-        <v>1.5712626999999999</v>
+      <c r="B406" s="1">
+        <v>0.14624555</v>
+      </c>
+      <c r="C406" s="1">
+        <v>-1.2187190000000001</v>
+      </c>
+      <c r="D406" s="1">
+        <v>1.599207</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>407</v>
       </c>
-      <c r="B407">
-        <v>-0.35924349999999999</v>
-      </c>
-      <c r="C407">
-        <v>-1.662731</v>
-      </c>
-      <c r="D407">
-        <v>1.0040309999999999</v>
+      <c r="B407" s="1">
+        <v>-0.464368950000001</v>
+      </c>
+      <c r="C407" s="1">
+        <v>-1.8803337</v>
+      </c>
+      <c r="D407" s="1">
+        <v>0.88783699999999999</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>408</v>
       </c>
-      <c r="B408">
-        <v>-1.4731959999999999</v>
-      </c>
-      <c r="C408">
-        <v>-2.7582629999999999</v>
-      </c>
-      <c r="D408">
-        <v>-7.8727000000000102E-2</v>
+      <c r="B408" s="1">
+        <v>-1.5489240550000001</v>
+      </c>
+      <c r="C408" s="1">
+        <v>-2.9730819999999998</v>
+      </c>
+      <c r="D408" s="1">
+        <v>-0.184008</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>409</v>
       </c>
-      <c r="B409">
-        <v>-1.073766</v>
-      </c>
-      <c r="C409">
-        <v>-1.494305</v>
-      </c>
-      <c r="D409">
-        <v>-0.63772200000000001</v>
+      <c r="B409" s="1">
+        <v>-1.064017</v>
+      </c>
+      <c r="C409" s="1">
+        <v>-1.47715</v>
+      </c>
+      <c r="D409" s="1">
+        <v>-0.59834500000000101</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>410</v>
       </c>
-      <c r="B410">
-        <v>-1.0309554999999999</v>
-      </c>
-      <c r="C410">
-        <v>-2.1530019999999999</v>
-      </c>
-      <c r="D410">
-        <v>8.6686000000000096E-2</v>
+      <c r="B410" s="1">
+        <v>-1.0204475</v>
+      </c>
+      <c r="C410" s="1">
+        <v>-2.2484673000000002</v>
+      </c>
+      <c r="D410" s="1">
+        <v>0.18002299999999899</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>411</v>
       </c>
-      <c r="B411">
-        <v>-0.34807900000000003</v>
-      </c>
-      <c r="C411">
-        <v>-2.0241699999999998</v>
-      </c>
-      <c r="D411">
-        <v>1.3271503</v>
+      <c r="B411" s="1">
+        <v>-0.390096</v>
+      </c>
+      <c r="C411" s="1">
+        <v>-2.0539800000000001</v>
+      </c>
+      <c r="D411" s="1">
+        <v>1.310638</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>412</v>
       </c>
-      <c r="B412">
-        <v>-0.439384</v>
-      </c>
-      <c r="C412">
-        <v>-1.5376810000000001</v>
-      </c>
-      <c r="D412">
-        <v>0.65253899999999998</v>
+      <c r="B412" s="1">
+        <v>-0.454787</v>
+      </c>
+      <c r="C412" s="1">
+        <v>-1.644325</v>
+      </c>
+      <c r="D412" s="1">
+        <v>0.75708160000000002</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>413</v>
       </c>
-      <c r="B413">
-        <v>-2.65115E-2</v>
-      </c>
-      <c r="C413">
-        <v>-1.2979620000000001</v>
-      </c>
-      <c r="D413">
-        <v>1.142798</v>
+      <c r="B413" s="1">
+        <v>-4.7765499999998802E-2</v>
+      </c>
+      <c r="C413" s="1">
+        <v>-1.29891</v>
+      </c>
+      <c r="D413" s="1">
+        <v>1.2808520000000001</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>414</v>
       </c>
-      <c r="B414">
-        <v>-0.54897850000000004</v>
-      </c>
-      <c r="C414">
-        <v>-1.7119949999999999</v>
-      </c>
-      <c r="D414">
-        <v>0.64322959999999996</v>
+      <c r="B414" s="1">
+        <v>-0.65601449999999994</v>
+      </c>
+      <c r="C414" s="1">
+        <v>-1.8885719999999999</v>
+      </c>
+      <c r="D414" s="1">
+        <v>0.63759399999999999</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>415</v>
       </c>
-      <c r="B415">
-        <v>-1.6714585</v>
-      </c>
-      <c r="C415">
-        <v>-2.89757</v>
-      </c>
-      <c r="D415">
-        <v>-0.54204300000000005</v>
+      <c r="B415" s="1">
+        <v>-1.7415805</v>
+      </c>
+      <c r="C415" s="1">
+        <v>-3.0171920000000001</v>
+      </c>
+      <c r="D415" s="1">
+        <v>-0.49783700000000097</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>416</v>
       </c>
-      <c r="B416">
-        <v>4.3142450000000103E-2</v>
-      </c>
-      <c r="C416">
-        <v>-1.052073</v>
-      </c>
-      <c r="D416">
-        <v>1.1581649999999999</v>
+      <c r="B416" s="1">
+        <v>4.7560000000000303E-2</v>
+      </c>
+      <c r="C416" s="1">
+        <v>-1.180296</v>
+      </c>
+      <c r="D416" s="1">
+        <v>1.1771290000000001</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>417</v>
       </c>
-      <c r="B417">
-        <v>0.70067699999999999</v>
-      </c>
-      <c r="C417">
-        <v>-0.95192399999999999</v>
-      </c>
-      <c r="D417">
-        <v>2.3530099999999998</v>
+      <c r="B417" s="1">
+        <v>0.68680099999999999</v>
+      </c>
+      <c r="C417" s="1">
+        <v>-1.1358550000000001</v>
+      </c>
+      <c r="D417" s="1">
+        <v>2.2049213000000001</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>418</v>
       </c>
-      <c r="B418">
-        <v>0.64311649999999998</v>
-      </c>
-      <c r="C418">
-        <v>-0.43195899999999998</v>
-      </c>
-      <c r="D418">
-        <v>1.724944</v>
+      <c r="B418" s="1">
+        <v>0.61186470000000004</v>
+      </c>
+      <c r="C418" s="1">
+        <v>-0.57415800000000095</v>
+      </c>
+      <c r="D418" s="1">
+        <v>1.742591</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>419</v>
       </c>
-      <c r="B419">
-        <v>1.0467070000000001</v>
-      </c>
-      <c r="C419">
-        <v>-0.165656</v>
-      </c>
-      <c r="D419">
-        <v>2.2191290000000001</v>
+      <c r="B419" s="1">
+        <v>1.0182519999999999</v>
+      </c>
+      <c r="C419" s="1">
+        <v>-0.173377</v>
+      </c>
+      <c r="D419" s="1">
+        <v>2.3049759999999999</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>420</v>
       </c>
-      <c r="B420">
-        <v>0.51315259999999996</v>
-      </c>
-      <c r="C420">
-        <v>-0.60189199999999998</v>
-      </c>
-      <c r="D420">
-        <v>1.715873</v>
+      <c r="B420" s="1">
+        <v>0.411338499999999</v>
+      </c>
+      <c r="C420" s="1">
+        <v>-0.79544899999999996</v>
+      </c>
+      <c r="D420" s="1">
+        <v>1.6145678000000001</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>421</v>
       </c>
-      <c r="B421">
-        <v>-0.6010065</v>
-      </c>
-      <c r="C421">
-        <v>-1.746127</v>
-      </c>
-      <c r="D421">
-        <v>0.55823699999999998</v>
+      <c r="B421" s="1">
+        <v>-0.68443933499999998</v>
+      </c>
+      <c r="C421" s="1">
+        <v>-1.846924</v>
+      </c>
+      <c r="D421" s="1">
+        <v>0.584950999999999</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>422</v>
       </c>
-      <c r="B422">
-        <v>0.65054400000000001</v>
-      </c>
-      <c r="C422">
-        <v>-0.72038999999999997</v>
-      </c>
-      <c r="D422">
-        <v>1.8897729999999999</v>
+      <c r="B422" s="1">
+        <v>0.63811499999999999</v>
+      </c>
+      <c r="C422" s="1">
+        <v>-0.62190999999999996</v>
+      </c>
+      <c r="D422" s="1">
+        <v>1.9209909999999999</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>423</v>
       </c>
-      <c r="B423">
-        <v>0.58945800000000004</v>
-      </c>
-      <c r="C423">
-        <v>0.12791</v>
-      </c>
-      <c r="D423">
-        <v>1.068824</v>
+      <c r="B423" s="1">
+        <v>0.57111800000000001</v>
+      </c>
+      <c r="C423" s="1">
+        <v>9.0950000000000294E-2</v>
+      </c>
+      <c r="D423" s="1">
+        <v>1.0518099999999999</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>424</v>
       </c>
-      <c r="B424">
-        <v>0.99447885000000003</v>
-      </c>
-      <c r="C424">
-        <v>0.33005499999999999</v>
-      </c>
-      <c r="D424">
-        <v>1.629831</v>
+      <c r="B424" s="1">
+        <v>0.98343949999999902</v>
+      </c>
+      <c r="C424" s="1">
+        <v>0.29032000000000102</v>
+      </c>
+      <c r="D424" s="1">
+        <v>1.6343270000000001</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>425</v>
       </c>
-      <c r="B425">
-        <v>0.47172999999999998</v>
-      </c>
-      <c r="C425">
-        <v>-7.0830000000000198E-2</v>
-      </c>
-      <c r="D425">
-        <v>1.023048</v>
+      <c r="B425" s="1">
+        <v>0.38254500000000002</v>
+      </c>
+      <c r="C425" s="1">
+        <v>-0.15225999999999901</v>
+      </c>
+      <c r="D425" s="1">
+        <v>0.93696000000000002</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>426</v>
       </c>
-      <c r="B426">
-        <v>-0.6459975</v>
-      </c>
-      <c r="C426">
-        <v>-1.29135</v>
-      </c>
-      <c r="D426">
-        <v>-3.7740999999999997E-2</v>
+      <c r="B426" s="1">
+        <v>-0.70878850000000104</v>
+      </c>
+      <c r="C426" s="1">
+        <v>-1.4072549999999999</v>
+      </c>
+      <c r="D426" s="1">
+        <v>-0.14050699999999999</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>427</v>
       </c>
-      <c r="B427">
-        <v>-7.8900999999999999E-2</v>
-      </c>
-      <c r="C427">
-        <v>-1.325029</v>
-      </c>
-      <c r="D427">
-        <v>1.1887859999999999</v>
+      <c r="B427" s="1">
+        <v>-5.9539150000000401E-2</v>
+      </c>
+      <c r="C427" s="1">
+        <v>-1.2537320000000001</v>
+      </c>
+      <c r="D427" s="1">
+        <v>1.228362</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>428</v>
       </c>
-      <c r="B428">
-        <v>0.32819219999999999</v>
-      </c>
-      <c r="C428">
-        <v>-0.97820560000000001</v>
-      </c>
-      <c r="D428">
-        <v>1.7292380000000001</v>
+      <c r="B428" s="1">
+        <v>0.33859149999999999</v>
+      </c>
+      <c r="C428" s="1">
+        <v>-1.0294920000000001</v>
+      </c>
+      <c r="D428" s="1">
+        <v>1.7004079999999999</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>429</v>
       </c>
-      <c r="B429">
-        <v>-0.18744350000000001</v>
-      </c>
-      <c r="C429">
-        <v>-1.520683</v>
-      </c>
-      <c r="D429">
-        <v>1.1506700000000001</v>
+      <c r="B429" s="1">
+        <v>-0.25985000000000003</v>
+      </c>
+      <c r="C429" s="1">
+        <v>-1.6996070000000001</v>
+      </c>
+      <c r="D429" s="1">
+        <v>0.96335000000000104</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>430</v>
       </c>
-      <c r="B430">
-        <v>-1.3174625</v>
-      </c>
-      <c r="C430">
-        <v>-2.6346579999999999</v>
-      </c>
-      <c r="D430">
-        <v>1.8826999999999899E-2</v>
+      <c r="B430" s="1">
+        <v>-1.3491040000000001</v>
+      </c>
+      <c r="C430" s="1">
+        <v>-2.629394</v>
+      </c>
+      <c r="D430" s="1">
+        <v>-2.826E-2</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>431</v>
       </c>
-      <c r="B431">
-        <v>0.41068199999999999</v>
-      </c>
-      <c r="C431">
-        <v>-0.18157300000000001</v>
-      </c>
-      <c r="D431">
-        <v>1.0120899999999999</v>
+      <c r="B431" s="1">
+        <v>0.41126049999999997</v>
+      </c>
+      <c r="C431" s="1">
+        <v>-0.22103299999999901</v>
+      </c>
+      <c r="D431" s="1">
+        <v>0.99106500000000097</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>432</v>
       </c>
-      <c r="B432">
-        <v>-0.116199</v>
-      </c>
-      <c r="C432">
-        <v>-0.69910300000000003</v>
-      </c>
-      <c r="D432">
-        <v>0.43251699999999998</v>
+      <c r="B432" s="1">
+        <v>-0.1962575</v>
+      </c>
+      <c r="C432" s="1">
+        <v>-0.74895100000000003</v>
+      </c>
+      <c r="D432" s="1">
+        <v>0.35313</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>433</v>
       </c>
-      <c r="B433">
-        <v>-1.23256655</v>
-      </c>
-      <c r="C433">
-        <v>-1.866671</v>
-      </c>
-      <c r="D433">
-        <v>-0.61979899999999999</v>
+      <c r="B433" s="1">
+        <v>-1.2855915</v>
+      </c>
+      <c r="C433" s="1">
+        <v>-1.973919</v>
+      </c>
+      <c r="D433" s="1">
+        <v>-0.69640800000000103</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>434</v>
       </c>
-      <c r="B434">
-        <v>-0.53047299999999997</v>
-      </c>
-      <c r="C434">
-        <v>-1.289469</v>
-      </c>
-      <c r="D434">
-        <v>0.19548299999999999</v>
+      <c r="B434" s="1">
+        <v>-0.60570599999999997</v>
+      </c>
+      <c r="C434" s="1">
+        <v>-1.3384849999999999</v>
+      </c>
+      <c r="D434" s="1">
+        <v>0.111869</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>435</v>
       </c>
-      <c r="B435">
-        <v>-1.6410629999999999</v>
-      </c>
-      <c r="C435">
-        <v>-2.4833200999999998</v>
-      </c>
-      <c r="D435">
-        <v>-0.86494800000000005</v>
+      <c r="B435" s="1">
+        <v>-1.7029255000000001</v>
+      </c>
+      <c r="C435" s="1">
+        <v>-2.5322529999999999</v>
+      </c>
+      <c r="D435" s="1">
+        <v>-0.90954100000000004</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>436</v>
       </c>
-      <c r="B436">
-        <v>-1.1120265</v>
-      </c>
-      <c r="C436">
-        <v>-1.814055</v>
-      </c>
-      <c r="D436">
-        <v>-0.40559600000000001</v>
+      <c r="B436" s="1">
+        <v>-1.0900715000000001</v>
+      </c>
+      <c r="C436" s="1">
+        <v>-1.8079229999999999</v>
+      </c>
+      <c r="D436" s="1">
+        <v>-0.369279999999999</v>
       </c>
     </row>
   </sheetData>
